--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAA654-4124-47D0-8D9D-9388BACA4914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1ED308-92B2-47CB-9510-8206BD46CC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="449">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4019,10 +4019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 9일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5월 11일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4071,7 +4067,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.14 10시</t>
+    <t>대구대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.daegu.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.dhu.ac.kr/ </t>
+    </r>
+  </si>
+  <si>
+    <t>대구한의대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한양대학교ERICA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.16 15시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4482,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4496,7 +4538,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s">
         <v>241</v>
@@ -4960,7 +5002,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s">
         <v>213</v>
@@ -4968,15 +5010,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B61" t="s">
         <v>224</v>
@@ -4984,7 +5026,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B62" t="s">
         <v>224</v>
@@ -4992,7 +5034,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B63" t="s">
         <v>224</v>
@@ -5000,7 +5042,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
         <v>224</v>
@@ -5008,7 +5050,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B65" t="s">
         <v>224</v>
@@ -5016,7 +5058,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
         <v>224</v>
@@ -5024,15 +5066,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B68" t="s">
         <v>210</v>
@@ -5040,7 +5082,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s">
         <v>210</v>
@@ -5048,7 +5090,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
         <v>210</v>
@@ -5056,7 +5098,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
         <v>210</v>
@@ -5064,7 +5106,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
         <v>210</v>
@@ -5072,7 +5114,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B73" t="s">
         <v>210</v>
@@ -5080,7 +5122,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
         <v>210</v>
@@ -5088,7 +5130,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="B75" t="s">
         <v>210</v>
@@ -5096,7 +5138,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s">
         <v>210</v>
@@ -5104,15 +5146,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s">
-        <v>427</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
         <v>427</v>
@@ -5120,7 +5162,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
         <v>427</v>
@@ -5128,7 +5170,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
         <v>427</v>
@@ -5136,7 +5178,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s">
         <v>427</v>
@@ -5144,7 +5186,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s">
         <v>427</v>
@@ -5152,7 +5194,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s">
         <v>427</v>
@@ -5160,7 +5202,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s">
         <v>427</v>
@@ -5168,7 +5210,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s">
         <v>427</v>
@@ -5176,7 +5218,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s">
         <v>427</v>
@@ -5184,7 +5226,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
         <v>427</v>
@@ -5192,7 +5234,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
         <v>427</v>
@@ -5200,7 +5242,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s">
         <v>427</v>
@@ -5208,7 +5250,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s">
         <v>427</v>
@@ -5216,7 +5258,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s">
         <v>427</v>
@@ -5224,7 +5266,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s">
         <v>427</v>
@@ -5232,7 +5274,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s">
         <v>427</v>
@@ -5240,7 +5282,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B94" t="s">
         <v>427</v>
@@ -5248,7 +5290,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s">
         <v>427</v>
@@ -5256,7 +5298,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B96" t="s">
         <v>427</v>
@@ -5264,7 +5306,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
         <v>427</v>
@@ -5272,7 +5314,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B98" t="s">
         <v>427</v>
@@ -5280,7 +5322,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
         <v>427</v>
@@ -5288,7 +5330,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
         <v>427</v>
@@ -5296,7 +5338,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>427</v>
@@ -5304,7 +5346,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
         <v>427</v>
@@ -5312,15 +5354,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s">
         <v>211</v>
@@ -5328,7 +5370,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s">
         <v>211</v>
@@ -5336,7 +5378,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B106" t="s">
         <v>211</v>
@@ -5344,7 +5386,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
         <v>211</v>
@@ -5352,7 +5394,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
         <v>211</v>
@@ -5360,7 +5402,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
         <v>211</v>
@@ -5368,15 +5410,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
         <v>212</v>
@@ -5384,7 +5426,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
         <v>212</v>
@@ -5392,7 +5434,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
         <v>212</v>
@@ -5400,7 +5442,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
         <v>212</v>
@@ -5408,7 +5450,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
         <v>212</v>
@@ -5416,7 +5458,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="B116" t="s">
         <v>212</v>
@@ -5424,7 +5466,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B117" t="s">
         <v>212</v>
@@ -5432,7 +5474,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>446</v>
       </c>
       <c r="B118" t="s">
         <v>212</v>
@@ -5440,7 +5482,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B119" t="s">
         <v>212</v>
@@ -5448,7 +5490,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s">
         <v>212</v>
@@ -5456,7 +5498,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B121" t="s">
         <v>212</v>
@@ -5464,31 +5506,31 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B125" t="s">
         <v>214</v>
@@ -5496,7 +5538,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B126" t="s">
         <v>214</v>
@@ -5504,7 +5546,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B127" t="s">
         <v>214</v>
@@ -5512,7 +5554,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B128" t="s">
         <v>214</v>
@@ -5520,7 +5562,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B129" t="s">
         <v>214</v>
@@ -5528,7 +5570,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B130" t="s">
         <v>214</v>
@@ -5536,7 +5578,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B131" t="s">
         <v>214</v>
@@ -5544,7 +5586,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B132" t="s">
         <v>214</v>
@@ -5552,7 +5594,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B133" t="s">
         <v>214</v>
@@ -5560,7 +5602,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B134" t="s">
         <v>214</v>
@@ -5568,7 +5610,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s">
         <v>214</v>
@@ -5576,7 +5618,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B136" t="s">
         <v>214</v>
@@ -5584,7 +5626,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B137" t="s">
         <v>214</v>
@@ -5592,7 +5634,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B138" t="s">
         <v>214</v>
@@ -5600,7 +5642,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B139" t="s">
         <v>214</v>
@@ -5608,7 +5650,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B140" t="s">
         <v>214</v>
@@ -5616,31 +5658,31 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B144" t="s">
         <v>215</v>
@@ -5648,7 +5690,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B145" t="s">
         <v>215</v>
@@ -5656,7 +5698,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="B146" t="s">
         <v>215</v>
@@ -5664,7 +5706,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B147" t="s">
         <v>215</v>
@@ -5672,7 +5714,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B148" t="s">
         <v>215</v>
@@ -5680,7 +5722,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B149" t="s">
         <v>215</v>
@@ -5688,7 +5730,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B150" t="s">
         <v>215</v>
@@ -5696,7 +5738,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B151" t="s">
         <v>215</v>
@@ -5704,7 +5746,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B152" t="s">
         <v>215</v>
@@ -5712,7 +5754,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B153" t="s">
         <v>215</v>
@@ -5720,7 +5762,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B154" t="s">
         <v>215</v>
@@ -5728,7 +5770,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
@@ -5736,7 +5778,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B156" t="s">
         <v>215</v>
@@ -5744,7 +5786,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B157" t="s">
         <v>215</v>
@@ -5752,7 +5794,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B158" t="s">
         <v>215</v>
@@ -5760,7 +5802,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B159" t="s">
         <v>215</v>
@@ -5768,7 +5810,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B160" t="s">
         <v>215</v>
@@ -5776,31 +5818,31 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B164" t="s">
         <v>216</v>
@@ -5808,7 +5850,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="B165" t="s">
         <v>216</v>
@@ -5816,7 +5858,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B166" t="s">
         <v>216</v>
@@ -5824,7 +5866,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B167" t="s">
         <v>216</v>
@@ -5832,7 +5874,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B168" t="s">
         <v>216</v>
@@ -5840,7 +5882,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B169" t="s">
         <v>216</v>
@@ -5848,31 +5890,31 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B173" t="s">
         <v>217</v>
@@ -5880,7 +5922,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B174" t="s">
         <v>217</v>
@@ -5888,7 +5930,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B175" t="s">
         <v>217</v>
@@ -5896,7 +5938,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B176" t="s">
         <v>217</v>
@@ -5904,7 +5946,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B177" t="s">
         <v>217</v>
@@ -5912,7 +5954,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B178" t="s">
         <v>217</v>
@@ -5920,7 +5962,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B179" t="s">
         <v>217</v>
@@ -5928,7 +5970,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B180" t="s">
         <v>217</v>
@@ -5936,7 +5978,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B181" t="s">
         <v>217</v>
@@ -5944,7 +5986,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B182" t="s">
         <v>217</v>
@@ -5952,7 +5994,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B183" t="s">
         <v>217</v>
@@ -5960,7 +6002,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B184" t="s">
         <v>217</v>
@@ -5968,7 +6010,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B185" t="s">
         <v>217</v>
@@ -5976,23 +6018,23 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B188" t="s">
         <v>218</v>
@@ -6000,7 +6042,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B189" t="s">
         <v>218</v>
@@ -6008,7 +6050,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B190" t="s">
         <v>218</v>
@@ -6016,7 +6058,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B191" t="s">
         <v>218</v>
@@ -6024,7 +6066,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B192" t="s">
         <v>218</v>
@@ -6032,7 +6074,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B193" t="s">
         <v>218</v>
@@ -6040,7 +6082,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B194" t="s">
         <v>218</v>
@@ -6048,7 +6090,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B195" t="s">
         <v>218</v>
@@ -6056,7 +6098,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B196" t="s">
         <v>218</v>
@@ -6064,7 +6106,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B197" t="s">
         <v>218</v>
@@ -6072,7 +6114,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B198" t="s">
         <v>218</v>
@@ -6080,37 +6122,64 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B199" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B201" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B202" t="s">
         <v>219</v>
       </c>
     </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>424</v>
+      </c>
+      <c r="B203" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>425</v>
+      </c>
+      <c r="B204" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>426</v>
+      </c>
+      <c r="B205" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:B124">
+    <sortCondition ref="A111"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6122,7 +6191,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6152,7 +6221,7 @@
         <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>88</v>
@@ -6166,7 +6235,7 @@
         <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>86</v>
@@ -6194,7 +6263,7 @@
         <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>100</v>
@@ -6222,7 +6291,7 @@
         <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -6236,7 +6305,7 @@
         <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>91</v>
@@ -6250,7 +6319,7 @@
         <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -6264,7 +6333,7 @@
         <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>94</v>
@@ -6278,7 +6347,7 @@
         <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>99</v>
@@ -6306,7 +6375,7 @@
         <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>89</v>
@@ -6334,13 +6403,13 @@
         <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6376,7 +6445,7 @@
         <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>104</v>
@@ -6390,13 +6459,13 @@
         <v>363</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6404,7 +6473,7 @@
         <v>364</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>87</v>
@@ -6449,7 +6518,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6479,7 +6548,7 @@
         <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>116</v>
@@ -6507,7 +6576,7 @@
         <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>122</v>
@@ -6521,7 +6590,7 @@
         <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>110</v>
@@ -6577,7 +6646,7 @@
         <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>113</v>
@@ -6633,7 +6702,7 @@
         <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>120</v>
@@ -6647,7 +6716,7 @@
         <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>109</v>
@@ -6661,7 +6730,7 @@
         <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>121</v>
@@ -6689,7 +6758,7 @@
         <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>115</v>
@@ -6703,7 +6772,7 @@
         <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>112</v>
@@ -6717,13 +6786,13 @@
         <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6793,7 +6862,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6865,7 +6934,7 @@
         <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>127</v>
@@ -6893,13 +6962,13 @@
         <v>390</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6907,7 +6976,7 @@
         <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>130</v>
@@ -6921,7 +6990,7 @@
         <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>131</v>
@@ -6935,7 +7004,7 @@
         <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>132</v>
@@ -6966,10 +7035,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4745446-AA4D-485D-BF63-540CC4A6ED8E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6999,7 +7068,7 @@
         <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>135</v>
@@ -7013,7 +7082,7 @@
         <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>133</v>
@@ -7041,7 +7110,7 @@
         <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>147</v>
@@ -7055,7 +7124,7 @@
         <v>398</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>137</v>
@@ -7083,7 +7152,7 @@
         <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>139</v>
@@ -7097,7 +7166,7 @@
         <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>148</v>
@@ -7125,7 +7194,7 @@
         <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>141</v>
@@ -7139,7 +7208,7 @@
         <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>144</v>
@@ -7150,82 +7219,68 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>202</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-    <sortCondition ref="A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
+    <sortCondition ref="A17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="http://gy.ac.kr/" xr:uid="{EAA4AA11-E901-4AED-B49A-03511CC13E12}"/>
-    <hyperlink ref="C16" r:id="rId2" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=295&amp;sx=216&amp;sy=295&amp;p=Uo1RWdp0Yidssm9F6ICssssst88-399887&amp;q=%ED%95%9C%EB%A0%A4%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=LwbVKrVD1LOyZV4wkG%2BmAQ%3D%3D&amp;time=1586320573213&amp;bt=22&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973B0&amp;u=http%3A%2F%2Fwww.hanlyo.ac.kr%2F&amp;cr=1" xr:uid="{1A54757B-932E-46DD-8842-915A8426CFC1}"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=295&amp;sx=216&amp;sy=295&amp;p=Uo1RWdp0Yidssm9F6ICssssst88-399887&amp;q=%ED%95%9C%EB%A0%A4%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=LwbVKrVD1LOyZV4wkG%2BmAQ%3D%3D&amp;time=1586320573213&amp;bt=22&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973B0&amp;u=http%3A%2F%2Fwww.hanlyo.ac.kr%2F&amp;cr=1" xr:uid="{1A54757B-932E-46DD-8842-915A8426CFC1}"/>
     <hyperlink ref="C2" r:id="rId3" display="http://www.kgrc.ac.kr/" xr:uid="{FD09E0AC-5BEA-4313-AA1E-799E94F6F431}"/>
     <hyperlink ref="C4" r:id="rId4" display="http://www.dsu.ac.kr/" xr:uid="{AA0DCC80-59FD-4742-908A-7DB7B497C826}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://www.msu.ac.kr/" xr:uid="{CCE9B167-FEEE-4A90-8931-7244745BEADE}"/>
@@ -7233,13 +7288,12 @@
     <hyperlink ref="C8" r:id="rId7" display="http://www.mmu.ac.kr/" xr:uid="{E7781E54-CBD3-497A-AA9C-A98C61C90CDF}"/>
     <hyperlink ref="C10" r:id="rId8" display="http://www.scnu.ac.kr/" xr:uid="{72D4EEAF-1499-4699-9866-DB77AADD66C5}"/>
     <hyperlink ref="C11" r:id="rId9" display="http://www.suncheon.ac.kr/" xr:uid="{98DC32D9-94C4-4EA5-BECB-9BAE17E8A19A}"/>
-    <hyperlink ref="C13" r:id="rId10" display="http://www.jnu.ac.kr/" xr:uid="{F769A8DA-0783-4D9F-8944-7D240DF85E94}"/>
-    <hyperlink ref="C17" r:id="rId11" display="http://www.hanyeong.ac.kr/" xr:uid="{E52A626F-3BC9-448C-AEA8-7C5FA63DDEA2}"/>
-    <hyperlink ref="C12" r:id="rId12" display="http://www.cntu.ac.kr/" xr:uid="{551ACD8F-45E8-42F3-AF01-F6A0FDD9934B}"/>
-    <hyperlink ref="C14" r:id="rId13" display="http://www.dorip.ac.kr/" xr:uid="{D88B0E08-6606-4CCA-B308-64A4F4A6AF2D}"/>
-    <hyperlink ref="C15" r:id="rId14" display="http://www.cdu.ac.kr/" xr:uid="{5A22573F-3BD4-4D3B-ACAA-094809875BB8}"/>
-    <hyperlink ref="C5" r:id="rId15" display="http://www.duh.ac.kr/" xr:uid="{82840781-9669-45EC-8BAB-5976AA280261}"/>
-    <hyperlink ref="C9" r:id="rId16" display="http://www.sehan.ac.kr/" xr:uid="{5A89E27E-7C7B-4904-A742-E945FB545473}"/>
+    <hyperlink ref="C16" r:id="rId10" display="http://www.hanyeong.ac.kr/" xr:uid="{E52A626F-3BC9-448C-AEA8-7C5FA63DDEA2}"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://www.cntu.ac.kr/" xr:uid="{551ACD8F-45E8-42F3-AF01-F6A0FDD9934B}"/>
+    <hyperlink ref="C13" r:id="rId12" display="http://www.dorip.ac.kr/" xr:uid="{D88B0E08-6606-4CCA-B308-64A4F4A6AF2D}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://www.cdu.ac.kr/" xr:uid="{5A22573F-3BD4-4D3B-ACAA-094809875BB8}"/>
+    <hyperlink ref="C5" r:id="rId14" display="http://www.duh.ac.kr/" xr:uid="{82840781-9669-45EC-8BAB-5976AA280261}"/>
+    <hyperlink ref="C9" r:id="rId15" display="http://www.sehan.ac.kr/" xr:uid="{5A89E27E-7C7B-4904-A742-E945FB545473}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7247,10 +7301,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF38D9-4E2F-4E52-B04F-40A66B80F97A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7279,7 +7333,7 @@
         <v>410</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -7293,13 +7347,13 @@
         <v>411</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7321,7 +7375,7 @@
         <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>159</v>
@@ -7335,7 +7389,7 @@
         <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>160</v>
@@ -7363,7 +7417,7 @@
         <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>157</v>
@@ -7377,7 +7431,7 @@
         <v>417</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>158</v>
@@ -7402,10 +7456,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>150</v>
@@ -7416,7 +7470,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
         <v>205</v>
@@ -7430,21 +7484,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
         <v>429</v>
@@ -7456,9 +7510,23 @@
         <v>200</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
+    <sortCondition ref="A15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7475,6 +7543,7 @@
     <hyperlink ref="C5" r:id="rId11" display="http://www.ghu.ac.kr/" xr:uid="{A69CB27F-1BDA-4941-B8E6-C87CA2B786CF}"/>
     <hyperlink ref="C6" r:id="rId12" display="http://www.kwu.ac.kr/" xr:uid="{5C6BE595-0E93-4187-8B11-17DE4A3F6F10}"/>
     <hyperlink ref="C7" r:id="rId13" display="http://www.nambu.ac.kr/" xr:uid="{82295C13-CAB6-472B-9B53-10B0DB134E42}"/>
+    <hyperlink ref="C15" r:id="rId14" display="http://www.jnu.ac.kr/" xr:uid="{F769A8DA-0783-4D9F-8944-7D240DF85E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7485,7 +7554,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7515,7 +7584,7 @@
         <v>423</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>164</v>
@@ -7529,7 +7598,7 @@
         <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>162</v>
@@ -7585,8 +7654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7633,7 +7702,7 @@
         <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
         <v>207</v>
@@ -7656,30 +7725,30 @@
         <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7687,8 +7756,8 @@
         <v>209</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B16" si="1">($B$3)</f>
-        <v>04.14 10시</v>
+        <f>($B$3)</f>
+        <v>04.16 15시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7699,7 +7768,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$33,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$33,F$2)</f>
@@ -7711,7 +7780,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$33,H$2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7719,31 +7788,31 @@
         <v>213</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <f t="shared" ref="B5:B16" si="1">($B$3)</f>
+        <v>04.16 15시</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f>SUM(E5:H5)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$27,통계!E$2)</f>
-        <v>5</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!E$2)</f>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$27,통계!F$2)</f>
-        <v>15</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!F$2)</f>
+        <v>16</v>
       </c>
       <c r="G5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$27,통계!G$2)</f>
-        <v>0</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!G$2)</f>
+        <v>1</v>
       </c>
       <c r="H5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$27,통계!H$2)</f>
-        <v>6</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!H$2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7752,7 +7821,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7763,7 +7832,7 @@
       </c>
       <c r="E6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!F$2)</f>
@@ -7771,7 +7840,7 @@
       </c>
       <c r="G6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!H$2)</f>
@@ -7784,7 +7853,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7816,7 +7885,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7827,7 +7896,7 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!E$2)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!F$2)</f>
@@ -7839,7 +7908,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!H$2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7848,7 +7917,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7880,18 +7949,18 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(경북!$D$2:$D$13,통계!E$2)</f>
-        <v>0</v>
+        <f>COUNTIF(경남!$D$2:$D$20,통계!E$2)</f>
+        <v>3</v>
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$13,통계!F$2)</f>
@@ -7912,22 +7981,22 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$20,통계!E$2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$20,통계!F$2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$20,통계!G$2)</f>
@@ -7944,7 +8013,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7955,7 +8024,7 @@
       </c>
       <c r="E12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!E$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!F$2)</f>
@@ -7967,7 +8036,7 @@
       </c>
       <c r="H12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!H$2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -7976,7 +8045,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7987,7 +8056,7 @@
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
@@ -7999,7 +8068,7 @@
       </c>
       <c r="H13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!H$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -8008,29 +8077,29 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(전남!$D$2:$D$17,통계!E$2)</f>
-        <v>6</v>
+        <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
+        <v>5</v>
       </c>
       <c r="F14">
-        <f>COUNTIF(전남!$D$2:$D$17,통계!F$2)</f>
+        <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
         <v>9</v>
       </c>
       <c r="G14">
-        <f>COUNTIF(전남!$D$2:$D$17,통계!G$2)</f>
+        <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>COUNTIF(전남!$D$2:$D$17,통계!H$2)</f>
+        <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -8040,30 +8109,30 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(광주!$D$2:$D$14,통계!E$2)</f>
+        <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
         <v>6</v>
       </c>
-      <c r="F15">
-        <f>COUNTIF(광주!$D$2:$D$14,통계!F$2)</f>
-        <v>6</v>
-      </c>
       <c r="G15">
-        <f>COUNTIF(광주!$D$2:$D$14,통계!G$2)</f>
+        <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>COUNTIF(광주!$D$2:$D$14,통계!H$2)</f>
-        <v>1</v>
+        <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -8072,7 +8141,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>04.14 10시</v>
+        <v>04.16 15시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8109,8 +8178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8182,7 +8251,7 @@
         <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>193</v>
@@ -8196,13 +8265,13 @@
         <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8224,7 +8293,7 @@
         <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>173</v>
@@ -8252,7 +8321,7 @@
         <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>177</v>
@@ -8266,7 +8335,7 @@
         <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>188</v>
@@ -8280,7 +8349,7 @@
         <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>178</v>
@@ -8294,7 +8363,7 @@
         <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>179</v>
@@ -8336,7 +8405,7 @@
         <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>181</v>
@@ -8434,7 +8503,7 @@
         <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>174</v>
@@ -8448,7 +8517,7 @@
         <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>191</v>
@@ -8476,7 +8545,7 @@
         <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>194</v>
@@ -8504,7 +8573,7 @@
         <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>192</v>
@@ -8546,7 +8615,7 @@
         <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>183</v>
@@ -8574,7 +8643,7 @@
         <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>184</v>
@@ -8632,7 +8701,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8662,13 +8731,13 @@
         <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8690,7 +8759,7 @@
         <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -8704,13 +8773,13 @@
         <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8718,13 +8787,13 @@
         <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8732,7 +8801,7 @@
         <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -8746,7 +8815,7 @@
         <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -8788,7 +8857,7 @@
         <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -8802,7 +8871,7 @@
         <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -8830,7 +8899,7 @@
         <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -8858,7 +8927,7 @@
         <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -8872,7 +8941,7 @@
         <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -8886,13 +8955,13 @@
         <v>267</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8900,7 +8969,7 @@
         <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
@@ -8914,7 +8983,7 @@
         <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -8928,7 +8997,7 @@
         <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -8956,7 +9025,7 @@
         <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -8970,7 +9039,7 @@
         <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -8984,7 +9053,7 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -9009,7 +9078,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="B27" t="s">
         <v>204</v>
@@ -9021,6 +9090,20 @@
         <v>204</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
@@ -9034,8 +9117,8 @@
       <c r="C39" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
+    <sortCondition ref="A28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9065,9 +9148,10 @@
     <hyperlink ref="C18" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
     <hyperlink ref="C19" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
     <hyperlink ref="C2" r:id="rId26" xr:uid="{C17D5B82-699C-440F-A448-8084B4A509EC}"/>
+    <hyperlink ref="C28" r:id="rId27" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -9076,7 +9160,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9106,7 +9190,7 @@
         <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -9134,7 +9218,7 @@
         <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -9162,7 +9246,7 @@
         <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -9176,13 +9260,13 @@
         <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9252,7 +9336,7 @@
         <v>284</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -9266,7 +9350,7 @@
         <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -9308,7 +9392,7 @@
         <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -9416,7 +9500,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9460,7 +9544,7 @@
         <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -9502,7 +9586,7 @@
         <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -9530,7 +9614,7 @@
         <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -9544,7 +9628,7 @@
         <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>51</v>
@@ -9558,7 +9642,7 @@
         <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -9572,7 +9656,7 @@
         <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -9600,13 +9684,13 @@
         <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9614,7 +9698,7 @@
         <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>64</v>
@@ -9628,7 +9712,7 @@
         <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -9642,7 +9726,7 @@
         <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -9712,7 +9796,7 @@
         <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>66</v>
@@ -9768,7 +9852,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>56</v>
@@ -9847,7 +9931,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9875,7 +9959,7 @@
         <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>68</v>
@@ -9889,7 +9973,7 @@
         <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
@@ -9903,7 +9987,7 @@
         <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>72</v>
@@ -9917,7 +10001,7 @@
         <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>70</v>
@@ -9931,7 +10015,7 @@
         <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>197</v>
@@ -9945,7 +10029,7 @@
         <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
@@ -9959,7 +10043,7 @@
         <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>73</v>
@@ -9988,10 +10072,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA9255F-0181-4A63-BA7C-452A7D2515CD}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10021,7 +10105,7 @@
         <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
@@ -10035,7 +10119,7 @@
         <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
@@ -10049,7 +10133,7 @@
         <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -10063,13 +10147,13 @@
         <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10077,7 +10161,7 @@
         <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
@@ -10088,10 +10172,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>79</v>
@@ -10102,10 +10186,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>80</v>
@@ -10116,10 +10200,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>81</v>
@@ -10130,10 +10214,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -10144,10 +10228,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>83</v>
@@ -10158,10 +10242,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>84</v>
@@ -10172,7 +10256,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
         <v>204</v>
@@ -10184,9 +10268,37 @@
         <v>204</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
-    <sortCondition ref="A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10202,7 +10314,10 @@
     <hyperlink ref="C11" r:id="rId10" display="http://www.uu.ac.kr/" xr:uid="{AA271444-2ACE-4396-83B1-AE8AE7DF518D}"/>
     <hyperlink ref="C12" r:id="rId11" display="http://www.postech.ac.kr/" xr:uid="{DC34F963-B240-4AD4-A1E3-6B4B95F38535}"/>
     <hyperlink ref="C13" r:id="rId12" display="http://www.handong.edu/" xr:uid="{2E9D1A22-D88E-4EBA-A41C-9FB9EB463124}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://www.daegu.ac.kr/" xr:uid="{170CC19A-CFBF-4E4E-B2C1-89454399CDE6}"/>
+    <hyperlink ref="C15" r:id="rId14" display="http://www.dhu.ac.kr/" xr:uid="{5A7E45DC-B0B1-4D05-9876-391C75F51631}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1ED308-92B2-47CB-9510-8206BD46CC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834066D5-C7FD-41E1-A5FF-BDF57D07F21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -4526,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
   <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6862,7 +6862,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6892,13 +6892,13 @@
         <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7030,6 +7030,7 @@
     <hyperlink ref="C10" r:id="rId9" display="http://www.howon.ac.kr/" xr:uid="{4C84CA8E-460A-4854-9119-DE073D2E90BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -7654,8 +7655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7736,7 +7737,7 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
@@ -7744,7 +7745,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -8056,7 +8057,7 @@
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
@@ -8064,7 +8065,7 @@
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!H$2)</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834066D5-C7FD-41E1-A5FF-BDF57D07F21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94643725-CC08-4A00-A2E3-850CA2027AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="446">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4015,10 +4015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 2일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5월 11일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4035,14 +4031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월 20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5월 6일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4113,7 +4101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.16 15시</t>
+    <t>04.17 16시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4526,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
   <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4538,7 +4526,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1" t="s">
         <v>241</v>
@@ -5002,7 +4990,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s">
         <v>213</v>
@@ -5458,7 +5446,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B116" t="s">
         <v>212</v>
@@ -5474,7 +5462,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B118" t="s">
         <v>212</v>
@@ -6191,7 +6179,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6221,7 +6209,7 @@
         <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>88</v>
@@ -6235,7 +6223,7 @@
         <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>86</v>
@@ -6263,7 +6251,7 @@
         <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>100</v>
@@ -6291,7 +6279,7 @@
         <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -6305,7 +6293,7 @@
         <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>91</v>
@@ -6319,7 +6307,7 @@
         <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -6333,7 +6321,7 @@
         <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>94</v>
@@ -6347,7 +6335,7 @@
         <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>99</v>
@@ -6375,7 +6363,7 @@
         <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>89</v>
@@ -6403,13 +6391,13 @@
         <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>432</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6445,7 +6433,7 @@
         <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>104</v>
@@ -6459,7 +6447,7 @@
         <v>363</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>97</v>
@@ -6473,7 +6461,7 @@
         <v>364</v>
       </c>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>87</v>
@@ -6518,7 +6506,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6548,7 +6536,7 @@
         <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>116</v>
@@ -6576,7 +6564,7 @@
         <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>122</v>
@@ -6590,7 +6578,7 @@
         <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>110</v>
@@ -6646,7 +6634,7 @@
         <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>113</v>
@@ -6702,7 +6690,7 @@
         <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>120</v>
@@ -6730,7 +6718,7 @@
         <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>121</v>
@@ -6744,13 +6732,13 @@
         <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6758,7 +6746,7 @@
         <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>115</v>
@@ -6772,7 +6760,7 @@
         <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>112</v>
@@ -6862,7 +6850,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6892,13 +6880,13 @@
         <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6934,7 +6922,7 @@
         <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>127</v>
@@ -6976,7 +6964,7 @@
         <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>130</v>
@@ -6990,7 +6978,7 @@
         <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>131</v>
@@ -7004,7 +6992,7 @@
         <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>132</v>
@@ -7039,7 +7027,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7069,7 +7057,7 @@
         <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>135</v>
@@ -7083,7 +7071,7 @@
         <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>133</v>
@@ -7111,7 +7099,7 @@
         <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>147</v>
@@ -7153,7 +7141,7 @@
         <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>139</v>
@@ -7167,7 +7155,7 @@
         <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>148</v>
@@ -7195,7 +7183,7 @@
         <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>141</v>
@@ -7209,7 +7197,7 @@
         <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>144</v>
@@ -7223,7 +7211,7 @@
         <v>406</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>145</v>
@@ -7251,7 +7239,7 @@
         <v>408</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>134</v>
@@ -7265,7 +7253,7 @@
         <v>409</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>143</v>
@@ -7305,7 +7293,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7334,7 +7322,7 @@
         <v>410</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -7376,7 +7364,7 @@
         <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>159</v>
@@ -7390,7 +7378,7 @@
         <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>160</v>
@@ -7418,7 +7406,7 @@
         <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>157</v>
@@ -7432,7 +7420,7 @@
         <v>417</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>158</v>
@@ -7460,7 +7448,7 @@
         <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>150</v>
@@ -7502,13 +7490,13 @@
         <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7555,7 +7543,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7585,7 +7573,7 @@
         <v>423</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>164</v>
@@ -7599,7 +7587,7 @@
         <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>162</v>
@@ -7656,7 +7644,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7703,7 +7691,7 @@
         <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D2" t="s">
         <v>207</v>
@@ -7726,7 +7714,7 @@
         <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -7737,19 +7725,19 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7758,7 +7746,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7790,7 +7778,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7822,7 +7810,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7854,7 +7842,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7886,7 +7874,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7897,11 +7885,11 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!E$2)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!F$2)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!G$2)</f>
@@ -7909,7 +7897,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!H$2)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7918,7 +7906,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7950,29 +7938,29 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(경남!$D$2:$D$20,통계!E$2)</f>
-        <v>3</v>
+        <f>COUNTIF(경북!$D$2:$D$15,통계!E$2)</f>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f>COUNTIF(경북!$D$2:$D$13,통계!F$2)</f>
-        <v>10</v>
+        <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
+        <v>12</v>
       </c>
       <c r="G10">
-        <f>COUNTIF(경북!$D$2:$D$13,통계!G$2)</f>
+        <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>COUNTIF(경북!$D$2:$D$13,통계!H$2)</f>
+        <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -7982,14 +7970,14 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$20,통계!E$2)</f>
@@ -7997,7 +7985,7 @@
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$20,통계!F$2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$20,통계!G$2)</f>
@@ -8014,7 +8002,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8025,7 +8013,7 @@
       </c>
       <c r="E12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!F$2)</f>
@@ -8033,7 +8021,7 @@
       </c>
       <c r="G12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!H$2)</f>
@@ -8046,7 +8034,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8078,7 +8066,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8110,7 +8098,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8121,11 +8109,11 @@
       </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
@@ -8142,7 +8130,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>04.16 15시</v>
+        <v>04.17 16시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8179,8 +8167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8252,7 +8240,7 @@
         <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>193</v>
@@ -8280,7 +8268,7 @@
         <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>176</v>
@@ -8294,7 +8282,7 @@
         <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>173</v>
@@ -8322,7 +8310,7 @@
         <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>177</v>
@@ -8336,7 +8324,7 @@
         <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>188</v>
@@ -8350,7 +8338,7 @@
         <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>178</v>
@@ -8364,7 +8352,7 @@
         <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>179</v>
@@ -8406,7 +8394,7 @@
         <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>181</v>
@@ -8504,7 +8492,7 @@
         <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>174</v>
@@ -8518,7 +8506,7 @@
         <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>191</v>
@@ -8546,7 +8534,7 @@
         <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>194</v>
@@ -8574,7 +8562,7 @@
         <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>192</v>
@@ -8616,7 +8604,7 @@
         <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>183</v>
@@ -8644,7 +8632,7 @@
         <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>184</v>
@@ -8702,7 +8690,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8732,7 +8720,7 @@
         <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -8760,7 +8748,7 @@
         <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -8802,7 +8790,7 @@
         <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -8816,7 +8804,7 @@
         <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -8830,7 +8818,7 @@
         <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -8844,7 +8832,7 @@
         <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -8858,7 +8846,7 @@
         <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -8872,7 +8860,7 @@
         <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -8900,7 +8888,7 @@
         <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -8928,7 +8916,7 @@
         <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -8942,7 +8930,7 @@
         <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -8956,13 +8944,13 @@
         <v>267</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8970,7 +8958,7 @@
         <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
@@ -8984,7 +8972,7 @@
         <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -8998,7 +8986,7 @@
         <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -9026,7 +9014,7 @@
         <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -9040,7 +9028,7 @@
         <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -9054,7 +9042,7 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -9079,7 +9067,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B27" t="s">
         <v>204</v>
@@ -9161,7 +9149,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9191,7 +9179,7 @@
         <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -9219,7 +9207,7 @@
         <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -9247,7 +9235,7 @@
         <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -9261,13 +9249,13 @@
         <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9307,7 +9295,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C30" sqref="C30:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9337,7 +9325,7 @@
         <v>284</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -9351,7 +9339,7 @@
         <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -9393,7 +9381,7 @@
         <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -9501,7 +9489,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9545,13 +9533,13 @@
         <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9559,13 +9547,13 @@
         <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9587,7 +9575,7 @@
         <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -9615,7 +9603,7 @@
         <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -9629,7 +9617,7 @@
         <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>51</v>
@@ -9643,7 +9631,7 @@
         <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -9657,7 +9645,7 @@
         <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -9699,7 +9687,7 @@
         <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>64</v>
@@ -9713,7 +9701,7 @@
         <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -9727,7 +9715,7 @@
         <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -9797,7 +9785,7 @@
         <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>66</v>
@@ -9853,7 +9841,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>56</v>
@@ -9932,7 +9920,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9960,7 +9948,7 @@
         <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>68</v>
@@ -9974,7 +9962,7 @@
         <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
@@ -9988,7 +9976,7 @@
         <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>72</v>
@@ -10002,7 +9990,7 @@
         <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>70</v>
@@ -10016,7 +10004,7 @@
         <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>197</v>
@@ -10030,7 +10018,7 @@
         <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
@@ -10044,7 +10032,7 @@
         <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>73</v>
@@ -10076,7 +10064,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10106,7 +10094,7 @@
         <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
@@ -10120,7 +10108,7 @@
         <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
@@ -10134,7 +10122,7 @@
         <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -10148,13 +10136,13 @@
         <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10162,7 +10150,7 @@
         <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
@@ -10173,10 +10161,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>79</v>
@@ -10190,7 +10178,7 @@
         <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>80</v>
@@ -10201,10 +10189,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>81</v>
@@ -10218,7 +10206,7 @@
         <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -10232,7 +10220,7 @@
         <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>83</v>
@@ -10246,7 +10234,7 @@
         <v>334</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>84</v>
@@ -10274,10 +10262,10 @@
         <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D14" t="s">
         <v>203</v>
@@ -10288,10 +10276,10 @@
         <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D15" t="s">
         <v>203</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94643725-CC08-4A00-A2E3-850CA2027AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6371C5FD-BF9D-4217-B32C-087E93F0E938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="448">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4101,7 +4101,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.17 16시</t>
+    <t>울산과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.uc.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <t>04.20 17시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4512,10 +4533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5550,7 +5571,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B129" t="s">
         <v>214</v>
@@ -5558,7 +5579,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B130" t="s">
         <v>214</v>
@@ -5590,7 +5611,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="B134" t="s">
         <v>214</v>
@@ -5598,7 +5619,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B135" t="s">
         <v>214</v>
@@ -5606,7 +5627,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B136" t="s">
         <v>214</v>
@@ -5614,7 +5635,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B137" t="s">
         <v>214</v>
@@ -5622,7 +5643,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B138" t="s">
         <v>214</v>
@@ -5630,7 +5651,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B139" t="s">
         <v>214</v>
@@ -5638,7 +5659,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B140" t="s">
         <v>214</v>
@@ -5646,7 +5667,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B141" t="s">
         <v>214</v>
@@ -5654,7 +5675,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B142" t="s">
         <v>214</v>
@@ -5662,7 +5683,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B143" t="s">
         <v>214</v>
@@ -5670,15 +5691,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B145" t="s">
         <v>215</v>
@@ -5686,7 +5707,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="B146" t="s">
         <v>215</v>
@@ -5694,7 +5715,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="B147" t="s">
         <v>215</v>
@@ -5702,7 +5723,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B148" t="s">
         <v>215</v>
@@ -5710,7 +5731,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B149" t="s">
         <v>215</v>
@@ -5718,7 +5739,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B150" t="s">
         <v>215</v>
@@ -5726,7 +5747,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B151" t="s">
         <v>215</v>
@@ -5734,7 +5755,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B152" t="s">
         <v>215</v>
@@ -5742,7 +5763,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B153" t="s">
         <v>215</v>
@@ -5750,7 +5771,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B154" t="s">
         <v>215</v>
@@ -5758,7 +5779,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B155" t="s">
         <v>215</v>
@@ -5766,7 +5787,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B156" t="s">
         <v>215</v>
@@ -5774,7 +5795,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B157" t="s">
         <v>215</v>
@@ -5782,7 +5803,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B158" t="s">
         <v>215</v>
@@ -5790,7 +5811,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B159" t="s">
         <v>215</v>
@@ -5798,7 +5819,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B160" t="s">
         <v>215</v>
@@ -5806,7 +5827,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B161" t="s">
         <v>215</v>
@@ -5814,7 +5835,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B162" t="s">
         <v>215</v>
@@ -5822,7 +5843,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B163" t="s">
         <v>215</v>
@@ -5830,15 +5851,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="B165" t="s">
         <v>216</v>
@@ -5846,7 +5867,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="B166" t="s">
         <v>216</v>
@@ -5854,7 +5875,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B167" t="s">
         <v>216</v>
@@ -5862,7 +5883,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B168" t="s">
         <v>216</v>
@@ -5870,7 +5891,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B169" t="s">
         <v>216</v>
@@ -5878,7 +5899,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B170" t="s">
         <v>216</v>
@@ -5886,7 +5907,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B171" t="s">
         <v>216</v>
@@ -5894,7 +5915,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B172" t="s">
         <v>216</v>
@@ -5902,15 +5923,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B174" t="s">
         <v>217</v>
@@ -5918,7 +5939,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B175" t="s">
         <v>217</v>
@@ -5926,7 +5947,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
         <v>217</v>
@@ -5934,7 +5955,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B177" t="s">
         <v>217</v>
@@ -5942,7 +5963,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B178" t="s">
         <v>217</v>
@@ -5950,7 +5971,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B179" t="s">
         <v>217</v>
@@ -5958,7 +5979,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B180" t="s">
         <v>217</v>
@@ -5966,7 +5987,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B181" t="s">
         <v>217</v>
@@ -5974,7 +5995,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B182" t="s">
         <v>217</v>
@@ -5982,7 +6003,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B183" t="s">
         <v>217</v>
@@ -5990,7 +6011,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B184" t="s">
         <v>217</v>
@@ -5998,7 +6019,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B185" t="s">
         <v>217</v>
@@ -6006,7 +6027,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B186" t="s">
         <v>217</v>
@@ -6014,7 +6035,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B187" t="s">
         <v>217</v>
@@ -6022,15 +6043,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B189" t="s">
         <v>218</v>
@@ -6038,7 +6059,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B190" t="s">
         <v>218</v>
@@ -6046,7 +6067,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B191" t="s">
         <v>218</v>
@@ -6054,7 +6075,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B192" t="s">
         <v>218</v>
@@ -6062,7 +6083,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B193" t="s">
         <v>218</v>
@@ -6070,7 +6091,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B194" t="s">
         <v>218</v>
@@ -6078,7 +6099,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B195" t="s">
         <v>218</v>
@@ -6086,7 +6107,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B196" t="s">
         <v>218</v>
@@ -6094,7 +6115,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B197" t="s">
         <v>218</v>
@@ -6102,7 +6123,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B198" t="s">
         <v>218</v>
@@ -6110,7 +6131,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B199" t="s">
         <v>218</v>
@@ -6118,7 +6139,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B200" t="s">
         <v>218</v>
@@ -6126,7 +6147,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B201" t="s">
         <v>218</v>
@@ -6134,15 +6155,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B203" t="s">
         <v>219</v>
@@ -6150,7 +6171,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B204" t="s">
         <v>219</v>
@@ -6158,15 +6179,23 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B205" t="s">
         <v>219</v>
       </c>
     </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>426</v>
+      </c>
+      <c r="B206" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:B124">
-    <sortCondition ref="A111"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A125:A144">
+    <sortCondition ref="A144"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6176,10 +6205,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6332,55 +6361,55 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>446</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>431</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>200</v>
@@ -6388,116 +6417,131 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
         <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
         <v>431</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
         <v>431</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
-    <sortCondition ref="A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+    <sortCondition ref="A23"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=298&amp;sx=216&amp;sy=298&amp;p=Uo14Pdp0Yihssl5pnmlssssstR0-477777&amp;q=%EA%B1%B0%EC%A0%9C%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=2aoPNNnjdRf9lcJ41vZ37w%3D%3D&amp;time=1586317434684&amp;bt=12&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097523&amp;u=http%3A%2F%2Fwww.koje.ac.kr%2F&amp;cr=1" xr:uid="{22FD263B-FDA0-4E59-99D2-6CAFB94C71FE}"/>
-    <hyperlink ref="C20" r:id="rId2" display="http://www.klc.ac.kr/" xr:uid="{451ED048-7662-443C-AF91-FC7E6CA2397F}"/>
+    <hyperlink ref="C21" r:id="rId2" display="http://www.klc.ac.kr/" xr:uid="{451ED048-7662-443C-AF91-FC7E6CA2397F}"/>
     <hyperlink ref="C2" r:id="rId3" display="http://www.kaya.ac.kr/" xr:uid="{C721D6C5-CB46-4CCF-A5A5-D4F8DBF92ACD}"/>
-    <hyperlink ref="C13" r:id="rId4" display="http://www.inje.ac.kr/" xr:uid="{D16C18A6-5C7E-4861-AFB5-48C0A768E6E3}"/>
+    <hyperlink ref="C14" r:id="rId4" display="http://www.inje.ac.kr/" xr:uid="{D16C18A6-5C7E-4861-AFB5-48C0A768E6E3}"/>
     <hyperlink ref="C7" r:id="rId5" display="http://www.namhae.ac.kr/" xr:uid="{6EC8EBF0-F290-4E0A-BDC2-0BB68B32EC96}"/>
     <hyperlink ref="C8" r:id="rId6" display="http://www.dist.ac.kr/" xr:uid="{AFD2F634-C750-47B9-9688-46414DB7D12B}"/>
     <hyperlink ref="C4" r:id="rId7" display="http://www.gntech.ac.kr/" xr:uid="{11D30B98-3D92-48A3-B320-1DB7065E6DAA}"/>
     <hyperlink ref="C6" r:id="rId8" display="http://www.gnu.ac.kr/" xr:uid="{4016E323-F17B-4DD8-B576-178D4306A9D0}"/>
     <hyperlink ref="C10" r:id="rId9" display="http://www.yc.ac.kr/" xr:uid="{4E5C065E-6C60-458D-97A4-8FBF9770BC9C}"/>
-    <hyperlink ref="C14" r:id="rId10" display="http://www.cue.ac.kr/" xr:uid="{1978A0DC-ABC2-4E1D-8B5C-62D14543D9D0}"/>
-    <hyperlink ref="C15" r:id="rId11" display="http://www.jhc.ac.kr/" xr:uid="{6F17F58A-7D26-4ABB-BB6D-BBCF3C8810FA}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{BD44D154-A4B2-433D-AF0F-4443730FAE45}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{A9550298-0674-42A1-B376-BA3D96D0AFE9}"/>
-    <hyperlink ref="C11" r:id="rId14" display="http://www.ulsan.ac.kr/" xr:uid="{C1BD906F-4566-4461-A7B4-263E629EC976}"/>
+    <hyperlink ref="C15" r:id="rId10" display="http://www.cue.ac.kr/" xr:uid="{1978A0DC-ABC2-4E1D-8B5C-62D14543D9D0}"/>
+    <hyperlink ref="C16" r:id="rId11" display="http://www.jhc.ac.kr/" xr:uid="{6F17F58A-7D26-4ABB-BB6D-BBCF3C8810FA}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{BD44D154-A4B2-433D-AF0F-4443730FAE45}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{A9550298-0674-42A1-B376-BA3D96D0AFE9}"/>
+    <hyperlink ref="C12" r:id="rId14" display="http://www.ulsan.ac.kr/" xr:uid="{C1BD906F-4566-4461-A7B4-263E629EC976}"/>
     <hyperlink ref="C5" r:id="rId15" display="http://www.kyungnam.ac.kr/" xr:uid="{3E8AD45D-BB65-41D5-9CD1-B55DB27C6321}"/>
     <hyperlink ref="C9" r:id="rId16" xr:uid="{31DDD70A-67B2-40BA-B220-A1BCD0E70A4B}"/>
-    <hyperlink ref="C16" r:id="rId17" display="http://www.cs.ac.kr/" xr:uid="{EC7B8F31-6BB4-4490-AEC4-BD9FF13DFC44}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{CB78046B-39F2-48C2-BF0D-611D669A8A84}"/>
-    <hyperlink ref="C18" r:id="rId19" display="http://www.cmu.ac.kr/main.do" xr:uid="{25319627-190A-40AB-8D1E-94ACF44EA43E}"/>
+    <hyperlink ref="C17" r:id="rId17" display="http://www.cs.ac.kr/" xr:uid="{EC7B8F31-6BB4-4490-AEC4-BD9FF13DFC44}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{CB78046B-39F2-48C2-BF0D-611D669A8A84}"/>
+    <hyperlink ref="C19" r:id="rId19" display="http://www.cmu.ac.kr/main.do" xr:uid="{25319627-190A-40AB-8D1E-94ACF44EA43E}"/>
+    <hyperlink ref="C11" r:id="rId20" display="http://www.uc.ac.kr/" xr:uid="{F278D11C-CD5D-4B41-AF5A-2BF6ECA0812B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -6506,7 +6550,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6606,13 +6650,13 @@
         <v>371</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6850,7 +6894,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7027,7 +7071,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7085,13 +7129,13 @@
         <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7225,13 +7269,13 @@
         <v>407</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7293,7 +7337,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7392,13 +7436,13 @@
         <v>415</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7434,13 +7478,13 @@
         <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7504,13 +7548,13 @@
         <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -7543,7 +7587,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7643,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7714,30 +7758,30 @@
         <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7746,7 +7790,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7757,11 +7801,11 @@
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$33,통계!E$2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$33,F$2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$33,G$2)</f>
@@ -7769,7 +7813,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$33,H$2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7778,7 +7822,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7810,7 +7854,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7821,7 +7865,7 @@
       </c>
       <c r="E6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!F$2)</f>
@@ -7833,7 +7877,7 @@
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!H$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7842,7 +7886,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7874,7 +7918,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7885,11 +7929,11 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!E$2)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!F$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!G$2)</f>
@@ -7897,7 +7941,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!H$2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7906,7 +7950,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7938,7 +7982,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7970,29 +8014,29 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(경남!$D$2:$D$20,통계!E$2)</f>
+        <f>COUNTIF(경남!$D$2:$D$21,통계!E$2)</f>
         <v>3</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(경남!$D$2:$D$20,통계!F$2)</f>
-        <v>12</v>
+        <f>COUNTIF(경남!$D$2:$D$21,통계!F$2)</f>
+        <v>13</v>
       </c>
       <c r="G11">
-        <f>COUNTIF(경남!$D$2:$D$20,통계!G$2)</f>
+        <f>COUNTIF(경남!$D$2:$D$21,통계!G$2)</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(경남!$D$2:$D$20,통계!H$2)</f>
+        <f>COUNTIF(경남!$D$2:$D$21,통계!H$2)</f>
         <v>3</v>
       </c>
     </row>
@@ -8002,7 +8046,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8013,7 +8057,7 @@
       </c>
       <c r="E12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!F$2)</f>
@@ -8025,7 +8069,7 @@
       </c>
       <c r="H12">
         <f>COUNTIF(부산!$D$2:$D$21,통계!H$2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -8034,7 +8078,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8066,7 +8110,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8077,11 +8121,11 @@
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
@@ -8089,7 +8133,7 @@
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -8098,7 +8142,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8109,15 +8153,15 @@
       </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
@@ -8130,7 +8174,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>04.17 16시</v>
+        <v>04.20 17시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8167,8 +8211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8198,13 +8242,13 @@
         <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8576,13 +8620,13 @@
         <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -8690,7 +8734,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9149,7 +9193,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9193,13 +9237,13 @@
         <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9295,7 +9339,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C32"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9489,7 +9533,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9561,13 +9605,13 @@
         <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9743,13 +9787,13 @@
         <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -9869,13 +9913,13 @@
         <v>318</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -9920,7 +9964,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10064,7 +10108,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6371C5FD-BF9D-4217-B32C-087E93F0E938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15432BD3-DBA3-4ECE-A466-72B5E35682C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="2730" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -4535,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
   <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
@@ -7687,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!E$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!F$2)</f>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!H$2)</f>
@@ -9339,7 +9339,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9453,13 +9453,13 @@
         <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9525,6 +9525,7 @@
     <hyperlink ref="C9" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{74BB9BD4-2DDE-434A-BD2C-A52384072D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -9532,7 +9533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15432BD3-DBA3-4ECE-A466-72B5E35682C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB492E2-A62D-4FF7-A91B-0395D3210FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -4122,7 +4122,7 @@
     </r>
   </si>
   <si>
-    <t>04.20 17시</t>
+    <t>04.21 17시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4535,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
   <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6208,7 +6208,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6294,13 +6294,13 @@
         <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6550,7 +6550,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6748,7 +6748,7 @@
         <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>109</v>
@@ -6894,7 +6894,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6952,13 +6952,13 @@
         <v>387</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7071,7 +7071,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7171,13 +7171,13 @@
         <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7337,7 +7337,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7394,13 +7394,13 @@
         <v>412</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7492,13 +7492,13 @@
         <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7586,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55EAC3E-6231-4C97-AE27-6524D4A1B3A7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7645,13 +7645,13 @@
         <v>425</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7687,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
@@ -7777,11 +7777,11 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7805,11 +7805,11 @@
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$33,F$2)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$33,G$2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$33,H$2)</f>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7869,11 +7869,11 @@
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!F$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!G$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$8,통계!H$2)</f>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7897,11 +7897,11 @@
       </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!E$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!F$2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!G$2)</f>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7929,19 +7929,19 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!E$2)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!F$2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!H$2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7997,11 +7997,11 @@
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!F$2)</f>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!G$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!H$2)</f>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8089,11 +8089,11 @@
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>04.20 17시</v>
+        <v>04.21 17시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="E16">
         <f>COUNTIF(제주도!$D$2:$D$5,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>COUNTIF(제주도!$D$2:$D$5,통계!F$2)</f>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="H16">
         <f>COUNTIF(제주도!$D$2:$D$5,통계!H$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8211,8 +8211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8382,13 +8382,13 @@
         <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8734,7 +8734,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9193,7 +9193,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9279,13 +9279,13 @@
         <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9339,7 +9339,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9481,13 +9481,13 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9533,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9634,13 +9634,13 @@
         <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9774,13 +9774,13 @@
         <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -9844,13 +9844,13 @@
         <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -9965,7 +9965,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10109,7 +10109,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10307,13 +10307,13 @@
         <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB492E2-A62D-4FF7-A91B-0395D3210FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C36499-6C34-4C6E-8E47-BF511F868EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -1162,109 +1162,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://www.daeshin.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.andong.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.yu.ac.kr/ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.uu.ac.kr/ </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.postech.ac.kr/ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.handong.edu/ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>http://www.koje.ac.kr/ </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4059,40 +3956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.daegu.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.dhu.ac.kr/ </t>
-    </r>
-  </si>
-  <si>
     <t>대구한의대학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4122,7 +3985,39 @@
     </r>
   </si>
   <si>
-    <t>04.21 17시</t>
+    <t xml:space="preserve"> http://www.yu.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.daeshin.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.andong.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.handong.edu/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.dgau.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.dhu.ac.kr/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uu.ac.kr/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.postech.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.22 17시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4536,7 +4431,7 @@
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4547,1650 +4442,1650 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B95" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B110" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B160" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B163" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B178" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B181" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B194" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B196" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B200" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B201" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B204" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B206" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6208,7 +6103,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6221,296 +6116,296 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6563,296 +6458,296 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -6894,7 +6789,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6907,142 +6802,142 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7071,7 +6966,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7084,226 +6979,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7337,7 +7232,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7349,212 +7244,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7586,8 +7481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55EAC3E-6231-4C97-AE27-6524D4A1B3A7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7600,72 +7495,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" t="s">
         <v>424</v>
       </c>
-      <c r="B3" t="s">
-        <v>430</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7687,8 +7582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7729,33 +7624,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>447</v>
@@ -7769,28 +7664,28 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7805,11 +7700,11 @@
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$33,F$2)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$33,G$2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$33,H$2)</f>
@@ -7818,11 +7713,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7850,11 +7745,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7882,11 +7777,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7897,15 +7792,15 @@
       </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!E$2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!F$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!G$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f>COUNTIF(대전!$D$2:$D$11,통계!H$2)</f>
@@ -7914,11 +7809,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7929,7 +7824,7 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!F$2)</f>
@@ -7941,16 +7836,16 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$27,통계!H$2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7965,11 +7860,11 @@
       </c>
       <c r="F9">
         <f>COUNTIF(대구!$D$2:$D$8,통계!F$2)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f>COUNTIF(대구!$D$2:$D$8,통계!G$2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f>COUNTIF(대구!$D$2:$D$8,통계!H$2)</f>
@@ -7978,11 +7873,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7997,11 +7892,11 @@
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
@@ -8010,11 +7905,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8025,7 +7920,7 @@
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!E$2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!F$2)</f>
@@ -8037,16 +7932,16 @@
       </c>
       <c r="H11">
         <f>COUNTIF(경남!$D$2:$D$21,통계!H$2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8074,11 +7969,11 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8106,11 +8001,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8121,11 +8016,11 @@
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
@@ -8138,11 +8033,11 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8170,11 +8065,11 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>04.21 17시</v>
+        <v>04.22 17시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8211,8 +8106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8225,464 +8120,464 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8734,7 +8629,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8747,394 +8642,394 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -9193,7 +9088,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9206,114 +9101,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -9339,7 +9234,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9352,156 +9247,156 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9534,7 +9429,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9547,380 +9442,380 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" t="s">
         <v>198</v>
-      </c>
-      <c r="D19" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -9965,7 +9860,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9976,114 +9871,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
         <v>197</v>
-      </c>
-      <c r="D6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -10109,7 +10004,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10122,212 +10017,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>442</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -10347,8 +10242,8 @@
     <hyperlink ref="C10" r:id="rId9" display="http://www.yu.ac.kr/" xr:uid="{0D227FFF-2903-43BE-B70D-AA2FF76DB491}"/>
     <hyperlink ref="C11" r:id="rId10" display="http://www.uu.ac.kr/" xr:uid="{AA271444-2ACE-4396-83B1-AE8AE7DF518D}"/>
     <hyperlink ref="C12" r:id="rId11" display="http://www.postech.ac.kr/" xr:uid="{DC34F963-B240-4AD4-A1E3-6B4B95F38535}"/>
-    <hyperlink ref="C13" r:id="rId12" display="http://www.handong.edu/" xr:uid="{2E9D1A22-D88E-4EBA-A41C-9FB9EB463124}"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://www.daegu.ac.kr/" xr:uid="{170CC19A-CFBF-4E4E-B2C1-89454399CDE6}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{2E9D1A22-D88E-4EBA-A41C-9FB9EB463124}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{170CC19A-CFBF-4E4E-B2C1-89454399CDE6}"/>
     <hyperlink ref="C15" r:id="rId14" display="http://www.dhu.ac.kr/" xr:uid="{5A7E45DC-B0B1-4D05-9876-391C75F51631}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C36499-6C34-4C6E-8E47-BF511F868EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE4074-890C-41AC-8F6C-D8FBDB8D9F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="482">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -2854,1170 +2854,1490 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>http://www.korea.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.yonsei.ac.kr/ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.sogang.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>http://www.konkuk.ac.kr/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.sc.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.chungwoon.ac.kr </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.chongshin.ac.kr/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기한 연기</t>
+  </si>
+  <si>
+    <t>무기한 연기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기, 인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개강일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학기 이후</t>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KC대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건국대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경희대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광운대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단국대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명지대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상명대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서강대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서경대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울과학기술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성균관대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭실대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연세대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한양대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍익대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가천대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대진대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울장신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성결대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예원예술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>을지대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인하대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차의과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평택대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한경대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국산업기술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국항공대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한세대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협성대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경동대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강릉원주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한림대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상지대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전과학기술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대덕대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배재대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우송대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한밭대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전통문화대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건양대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극동대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나사렛대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남서울대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백석대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선문대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세명대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천향대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중부대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청운대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교통대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국기술교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한서대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호서대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계명대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남이공대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영진전문대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경운대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경일대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김천대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구예술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금오공과대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위덕대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항공과대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한동대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕성여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동덕여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성신여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙명여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이화여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이스트(KAIST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국외국어대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가야대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거제대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남과학기술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남도립남해대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동원과학기술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연암공과대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니스트(UNIST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주보건대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원문성대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국국제대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국승강기대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남정보대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경성대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대동대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동서대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부경대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산경상대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산과학기술대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산외국어대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영산대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국해양대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군산대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우석대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원광대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한일장신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구려대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광양보건대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아보건대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목포과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목포대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목포해양대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세한대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천제일대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남도립대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한려대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한영대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주교육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주보건대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주여자대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동강대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서영대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선간호대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선이공대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호남대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주관광대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주국제대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주한라대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 18일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학기 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구한의대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한양대학교ERICA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산과학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.uc.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.yu.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.daeshin.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.andong.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.handong.edu/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.dgau.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.dhu.ac.kr/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uu.ac.kr/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.postech.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감리교신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울기독대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공회대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장로회신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국성서대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울한영대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천가톨릭대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침례신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘해보건대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산가톨릭대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아세아연합신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙승가대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼빈대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://songsin.catholic.ac.kr/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.mtu.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.scu.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.hytu.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.skhu.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.puts.ac.kr/</t>
+  </si>
+  <si>
+    <t>http://www.bible.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.stu.ac.kr/ </t>
+    </r>
+  </si>
+  <si>
+    <t>계명문화대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.acts.ac.kr/ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.iccu.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.sangha.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.calvin.ac.kr/ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>http://www.daejeon.ac.kr/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>대전보건대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.hit.ac.kr/ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.kbtus.ac.kr/ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kmcu.ac.kr/</t>
+  </si>
+  <si>
+    <t>http://www.ch.ac.kr/</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.cup.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.cau.ac.kr/ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>http://www.sookmyung.ac.kr/ </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.cau.ac.kr/ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.korea.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.yonsei.ac.kr/ </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.sogang.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>http://www.konkuk.ac.kr/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.sc.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.chungwoon.ac.kr </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.chongshin.ac.kr/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월</t>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기한 연기</t>
-  </si>
-  <si>
-    <t>무기한 연기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대학 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기, 인천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대학명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개강일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 이후</t>
-  </si>
-  <si>
-    <t>강원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KC대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건국대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경희대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광운대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단국대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명지대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상명대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서강대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서경대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울과학기술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>district</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성균관대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭실대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연세대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한성대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한양대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍익대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가천대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경인교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대진대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울장신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성결대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안양대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예원예술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용인대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>을지대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인하대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차의과학대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평택대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한경대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국산업기술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국항공대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한세대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>협성대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경동대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강릉원주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한라대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한림대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상지대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전과학기술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대덕대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배재대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우송대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한밭대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공주교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전통문화대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건양대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금강대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극동대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나사렛대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남서울대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백석대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선문대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세명대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순천향대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중부대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청운대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충북대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국교원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국교통대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국기술교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한서대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호서대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경북대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계명대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구과학대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수성대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영남이공대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영진전문대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경운대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경일대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김천대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구예술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금오공과대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위덕대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포항공과대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한동대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕성여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동덕여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성신여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙명여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이화여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카이스트(KAIST)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국외국어대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가야대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거제대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남과학기술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남도립남해대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동원과학기술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마산대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연암공과대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니스트(UNIST)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인제대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진주교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진주보건대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창원문성대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국국제대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국승강기대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남정보대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경성대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대동대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동서대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동의과학대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동의대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부경대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산경상대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산과학기술대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산외국어대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신라대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영산대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국해양대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군산대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우석대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원광대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한일장신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구려대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광양보건대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아보건대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목포과학대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목포대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목포해양대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세한대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순천대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순천제일대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전남과학대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전남도립대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초당대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한려대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한영대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광신대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주교육대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주보건대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주여자대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남부대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동강대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서영대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송원대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선간호대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선이공대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호남대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주관광대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주국제대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주한라대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월 27일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 11일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 4일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 13일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 12일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 6일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 8일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 18일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학기 이후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구한의대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한양대학교ERICA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산과학대학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.uc.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://www.yu.ac.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> http://www.daeshin.ac.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> http://www.andong.ac.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> http://www.handong.edu/ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://www.dgau.ac.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://www.dhu.ac.kr/ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.uu.ac.kr/ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.postech.ac.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.22 17시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.23 18시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4428,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4442,543 +4762,543 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>447</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>448</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s">
         <v>204</v>
@@ -4986,7 +5306,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
         <v>204</v>
@@ -4994,7 +5314,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
         <v>204</v>
@@ -5002,7 +5322,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s">
         <v>204</v>
@@ -5010,7 +5330,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s">
         <v>204</v>
@@ -5018,1079 +5338,1223 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s">
-        <v>421</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B81" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>435</v>
+        <v>309</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B134" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B145" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B149" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B153" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B157" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B161" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="B164" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B165" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B168" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B170" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B171" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B172" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B174" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B175" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B176" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B177" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B178" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B179" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B181" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>398</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B186" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B187" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="B188" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B189" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B190" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="B192" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="B196" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B197" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B201" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B202" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B203" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>401</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>403</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>404</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>406</v>
+      </c>
+      <c r="B212" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>407</v>
+      </c>
+      <c r="B213" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>396</v>
+      </c>
+      <c r="B216" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>410</v>
+      </c>
+      <c r="B217" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>411</v>
+      </c>
+      <c r="B218" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>412</v>
+      </c>
+      <c r="B219" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>413</v>
+      </c>
+      <c r="B220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>414</v>
+      </c>
+      <c r="B221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>416</v>
+      </c>
+      <c r="B223" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>417</v>
+      </c>
+      <c r="B224" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A125:A144">
-    <sortCondition ref="A144"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A142:A161">
+    <sortCondition ref="A161"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6100,10 +6564,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6116,306 +6580,320 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>477</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>196</v>
+      <c r="D22" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
-    <sortCondition ref="A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A24"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=298&amp;sx=216&amp;sy=298&amp;p=Uo14Pdp0Yihssl5pnmlssssstR0-477777&amp;q=%EA%B1%B0%EC%A0%9C%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=2aoPNNnjdRf9lcJ41vZ37w%3D%3D&amp;time=1586317434684&amp;bt=12&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097523&amp;u=http%3A%2F%2Fwww.koje.ac.kr%2F&amp;cr=1" xr:uid="{22FD263B-FDA0-4E59-99D2-6CAFB94C71FE}"/>
-    <hyperlink ref="C21" r:id="rId2" display="http://www.klc.ac.kr/" xr:uid="{451ED048-7662-443C-AF91-FC7E6CA2397F}"/>
+    <hyperlink ref="C22" r:id="rId2" display="http://www.klc.ac.kr/" xr:uid="{451ED048-7662-443C-AF91-FC7E6CA2397F}"/>
     <hyperlink ref="C2" r:id="rId3" display="http://www.kaya.ac.kr/" xr:uid="{C721D6C5-CB46-4CCF-A5A5-D4F8DBF92ACD}"/>
     <hyperlink ref="C14" r:id="rId4" display="http://www.inje.ac.kr/" xr:uid="{D16C18A6-5C7E-4861-AFB5-48C0A768E6E3}"/>
     <hyperlink ref="C7" r:id="rId5" display="http://www.namhae.ac.kr/" xr:uid="{6EC8EBF0-F290-4E0A-BDC2-0BB68B32EC96}"/>
@@ -6425,7 +6903,7 @@
     <hyperlink ref="C10" r:id="rId9" display="http://www.yc.ac.kr/" xr:uid="{4E5C065E-6C60-458D-97A4-8FBF9770BC9C}"/>
     <hyperlink ref="C15" r:id="rId10" display="http://www.cue.ac.kr/" xr:uid="{1978A0DC-ABC2-4E1D-8B5C-62D14543D9D0}"/>
     <hyperlink ref="C16" r:id="rId11" display="http://www.jhc.ac.kr/" xr:uid="{6F17F58A-7D26-4ABB-BB6D-BBCF3C8810FA}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{BD44D154-A4B2-433D-AF0F-4443730FAE45}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{BD44D154-A4B2-433D-AF0F-4443730FAE45}"/>
     <hyperlink ref="C13" r:id="rId13" xr:uid="{A9550298-0674-42A1-B376-BA3D96D0AFE9}"/>
     <hyperlink ref="C12" r:id="rId14" display="http://www.ulsan.ac.kr/" xr:uid="{C1BD906F-4566-4461-A7B4-263E629EC976}"/>
     <hyperlink ref="C5" r:id="rId15" display="http://www.kyungnam.ac.kr/" xr:uid="{3E8AD45D-BB65-41D5-9CD1-B55DB27C6321}"/>
@@ -6434,18 +6912,19 @@
     <hyperlink ref="C18" r:id="rId18" xr:uid="{CB78046B-39F2-48C2-BF0D-611D669A8A84}"/>
     <hyperlink ref="C19" r:id="rId19" display="http://www.cmu.ac.kr/main.do" xr:uid="{25319627-190A-40AB-8D1E-94ACF44EA43E}"/>
     <hyperlink ref="C11" r:id="rId20" display="http://www.uc.ac.kr/" xr:uid="{F278D11C-CD5D-4B41-AF5A-2BF6ECA0812B}"/>
+    <hyperlink ref="C20" r:id="rId21" xr:uid="{0D3AE9BC-62B5-482F-87B2-0F8764EC5355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6458,181 +6937,181 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>478</v>
       </c>
       <c r="D13" t="s">
         <v>196</v>
@@ -6640,122 +7119,136 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="A27"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6763,22 +7256,23 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{6C21A802-6095-408D-B05F-C3F0F3750E5A}"/>
     <hyperlink ref="C6" r:id="rId3" display="http://www.tu.ac.kr/" xr:uid="{68FA9B33-DBD8-48E5-955C-B8FE62AFAFF1}"/>
     <hyperlink ref="C12" r:id="rId4" display="http://www.pknu.ac.kr/" xr:uid="{F2B021BE-E7A7-4712-97EB-979CC428EBAB}"/>
-    <hyperlink ref="C14" r:id="rId5" display="http://www.bist.ac.kr/" xr:uid="{DB456F3E-662D-475F-9BD4-F551B1AF067C}"/>
+    <hyperlink ref="C15" r:id="rId5" display="http://www.bist.ac.kr/" xr:uid="{DB456F3E-662D-475F-9BD4-F551B1AF067C}"/>
     <hyperlink ref="C5" r:id="rId6" display="http://www.daedong.ac.kr/" xr:uid="{1D1A2CD6-B1A0-409D-B6DE-BD0CA7932103}"/>
-    <hyperlink ref="C16" r:id="rId7" xr:uid="{17E057E3-3E4F-492D-A1BA-1ABAB421A8DD}"/>
-    <hyperlink ref="C18" r:id="rId8" display="http://www.bufs.ac.kr/" xr:uid="{1DE7D657-380D-43C2-9E83-CC20358E20E8}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{17E057E3-3E4F-492D-A1BA-1ABAB421A8DD}"/>
+    <hyperlink ref="C19" r:id="rId8" display="http://www.bufs.ac.kr/" xr:uid="{1DE7D657-380D-43C2-9E83-CC20358E20E8}"/>
     <hyperlink ref="C9" r:id="rId9" display="http://www.dit.ac.kr/" xr:uid="{8F86E8E9-87D1-4FD1-93AC-DE0FEEC857F9}"/>
     <hyperlink ref="C10" r:id="rId10" display="http://www.deu.ac.kr/" xr:uid="{DB9865C2-78D0-46AD-B355-37F66F42EBF2}"/>
-    <hyperlink ref="C17" r:id="rId11" display="http://www.bwc.ac.kr/" xr:uid="{980AB934-1322-4E59-BBC8-B1CD5E5A76E2}"/>
+    <hyperlink ref="C18" r:id="rId11" display="http://www.bwc.ac.kr/" xr:uid="{980AB934-1322-4E59-BBC8-B1CD5E5A76E2}"/>
     <hyperlink ref="C2" r:id="rId12" display="http://www.kit.ac.kr/" xr:uid="{DED5B1FD-C919-406C-BA7D-34A80FD5647E}"/>
     <hyperlink ref="C7" r:id="rId13" display="http://www.dongseo.ac.kr/" xr:uid="{E4DD3675-99FC-4BAF-9AE3-0F48351CF22F}"/>
-    <hyperlink ref="C19" r:id="rId14" display="http://www.silla.ac.kr/" xr:uid="{78C33AE6-432D-4E92-A1EF-B8BABA345FEA}"/>
+    <hyperlink ref="C20" r:id="rId14" display="http://www.silla.ac.kr/" xr:uid="{78C33AE6-432D-4E92-A1EF-B8BABA345FEA}"/>
     <hyperlink ref="C11" r:id="rId15" display="http://www.dongju.ac.kr/" xr:uid="{CB390B9F-7DA3-4650-97BE-D0707F9CAAA1}"/>
-    <hyperlink ref="C13" r:id="rId16" display="http://www.bsks.ac.kr/" xr:uid="{C18485EE-3922-44BD-B799-99360CEDB550}"/>
-    <hyperlink ref="C15" r:id="rId17" display="http://www.bnue.ac.kr/" xr:uid="{386CEB0F-551E-4B07-B192-1E7E6E0E9872}"/>
+    <hyperlink ref="C14" r:id="rId16" display="http://www.bsks.ac.kr/" xr:uid="{C18485EE-3922-44BD-B799-99360CEDB550}"/>
+    <hyperlink ref="C16" r:id="rId17" display="http://www.bnue.ac.kr/" xr:uid="{386CEB0F-551E-4B07-B192-1E7E6E0E9872}"/>
     <hyperlink ref="C4" r:id="rId18" display="http://www.kosin.ac.kr/" xr:uid="{ED137852-BEFB-4B63-BC76-F3E92DF6BCBA}"/>
-    <hyperlink ref="C21" r:id="rId19" display="http://www.kmou.ac.kr/" xr:uid="{62A1E771-DA33-43E0-8CA1-2ED13A6C6899}"/>
-    <hyperlink ref="C20" r:id="rId20" display="http://www.ysu.ac.kr/" xr:uid="{62D31827-2D38-408B-8A6A-ADBA2168F0DC}"/>
+    <hyperlink ref="C22" r:id="rId19" display="http://www.kmou.ac.kr/" xr:uid="{62A1E771-DA33-43E0-8CA1-2ED13A6C6899}"/>
+    <hyperlink ref="C21" r:id="rId20" display="http://www.ysu.ac.kr/" xr:uid="{62D31827-2D38-408B-8A6A-ADBA2168F0DC}"/>
+    <hyperlink ref="C13" r:id="rId21" display="http://www.cup.ac.kr/" xr:uid="{CB8406F6-5470-47C5-9C00-84616FC57D67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6789,7 +7283,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6802,38 +7296,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -6844,100 +7338,100 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6966,7 +7460,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6979,226 +7473,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7244,212 +7738,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -7495,72 +7989,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7583,7 +8077,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7624,138 +8118,138 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H3" si="0">SUM(F$4:F$16)</f>
-        <v>107</v>
+        <f>SUM(F$4:F$16)</f>
+        <v>122</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>SUM(G$4:G$16)</f>
+        <v>34</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>SUM(H$4:H$16)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.22 17시</v>
+        <v>04.23 18시</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f>SUM(E4:H4)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(서울!$D$2:$D$33,통계!E$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$40,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(서울!$D$2:$D$33,F$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$40,통계!F$2)</f>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(서울!$D$2:$D$40,통계!G$2)</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(서울!$D$2:$D$40,통계!H$2)</f>
         <v>13</v>
-      </c>
-      <c r="G4">
-        <f>COUNTIF(서울!$D$2:$D$33,G$2)</f>
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <f>COUNTIF(서울!$D$2:$D$33,H$2)</f>
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>04.22 17시</v>
+        <f t="shared" ref="B5:B16" si="0">($B$3)</f>
+        <v>04.23 18시</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f>SUM(E5:H5)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!E$2)</f>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!F$2)</f>
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!G$2)</f>
         <v>1</v>
       </c>
-      <c r="F5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!F$2)</f>
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!G$2)</f>
-        <v>1</v>
-      </c>
       <c r="H5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$28,통계!H$2)</f>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!H$2)</f>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D16" si="2">SUM(E6:H6)</f>
+        <f t="shared" ref="D6:D16" si="1">SUM(E6:H6)</f>
         <v>7</v>
       </c>
       <c r="E6">
@@ -7777,49 +8271,49 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(대전!$D$2:$D$11,통계!E$2)</f>
-        <v>1</v>
+        <f>COUNTIF(대전!$D$2:$D$14,통계!E$2)</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(대전!$D$2:$D$11,통계!F$2)</f>
-        <v>5</v>
+        <f>COUNTIF(대전!$D$2:$D$14,통계!F$2)</f>
+        <v>9</v>
       </c>
       <c r="G7">
-        <f>COUNTIF(대전!$D$2:$D$11,통계!G$2)</f>
+        <f>COUNTIF(대전!$D$2:$D$14,통계!G$2)</f>
         <v>2</v>
       </c>
       <c r="H7">
-        <f>COUNTIF(대전!$D$2:$D$11,통계!H$2)</f>
+        <f>COUNTIF(대전!$D$2:$D$14,통계!H$2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E8">
@@ -7841,49 +8335,49 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(대구!$D$2:$D$8,통계!E$2)</f>
+        <f>COUNTIF(대구!$D$2:$D$9,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(대구!$D$2:$D$8,통계!F$2)</f>
-        <v>4</v>
+        <f>COUNTIF(대구!$D$2:$D$9,통계!F$2)</f>
+        <v>5</v>
       </c>
       <c r="G9">
-        <f>COUNTIF(대구!$D$2:$D$8,통계!G$2)</f>
+        <f>COUNTIF(대구!$D$2:$D$9,통계!G$2)</f>
         <v>3</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(대구!$D$2:$D$8,통계!H$2)</f>
+        <f>COUNTIF(대구!$D$2:$D$9,통계!H$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E10">
@@ -7892,11 +8386,11 @@
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
@@ -7905,90 +8399,90 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(경남!$D$2:$D$21,통계!E$2)</f>
+        <f>COUNTIF(경남!$D$2:$D$22,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(경남!$D$2:$D$21,통계!F$2)</f>
-        <v>13</v>
+        <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
+        <v>14</v>
       </c>
       <c r="G11">
-        <f>COUNTIF(경남!$D$2:$D$21,통계!G$2)</f>
+        <f>COUNTIF(경남!$D$2:$D$22,통계!G$2)</f>
         <v>2</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(경남!$D$2:$D$21,통계!H$2)</f>
+        <f>COUNTIF(경남!$D$2:$D$22,통계!H$2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(부산!$D$2:$D$21,통계!E$2)</f>
+        <f>COUNTIF(부산!$D$2:$D$22,통계!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(부산!$D$2:$D$22,통계!F$2)</f>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(부산!$D$2:$D$22,통계!G$2)</f>
         <v>1</v>
       </c>
-      <c r="F12">
-        <f>COUNTIF(부산!$D$2:$D$21,통계!F$2)</f>
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <f>COUNTIF(부산!$D$2:$D$21,통계!G$2)</f>
-        <v>1</v>
-      </c>
       <c r="H12">
-        <f>COUNTIF(부산!$D$2:$D$21,통계!H$2)</f>
-        <v>10</v>
+        <f>COUNTIF(부산!$D$2:$D$22,통계!H$2)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
@@ -8001,22 +8495,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
@@ -8028,22 +8522,22 @@
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E15">
@@ -8065,17 +8559,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>04.22 17시</v>
+        <f t="shared" si="0"/>
+        <v>04.23 18시</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E16">
@@ -8104,10 +8598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8120,111 +8614,111 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>426</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
         <v>196</v>
@@ -8232,41 +8726,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>196</v>
@@ -8274,69 +8768,69 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>429</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
         <v>196</v>
@@ -8344,297 +8838,402 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>426</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="B23" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>160</v>
+        <v>463</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
-        <v>426</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D29" t="s">
         <v>193</v>
-      </c>
-      <c r="D29" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>447</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D33" t="s">
-        <v>196</v>
+      <c r="D40" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C42">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{CA890462-92C6-4EDD-974E-8FC9FFBF2916}"/>
-    <hyperlink ref="C27" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{68619778-09C6-4527-B589-283352564DC1}"/>
-    <hyperlink ref="C19" r:id="rId3" display="http://www.snu.ac.kr/" xr:uid="{A6B584FA-785E-42A8-A3A7-55B08A375219}"/>
-    <hyperlink ref="C32" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
-    <hyperlink ref="C30" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{A9B49AA0-E132-48A9-B46D-5C53D1EAAE96}"/>
-    <hyperlink ref="C4" r:id="rId6" display="http://www.khu.ac.kr/" xr:uid="{33A0EB7E-6BC9-48CE-AADD-78FC8C621D43}"/>
-    <hyperlink ref="C21" r:id="rId7" display="http://www.skku.edu/" xr:uid="{E782C97A-C95D-480E-A523-192DA3F055A2}"/>
-    <hyperlink ref="C8" r:id="rId8" display="http://www.dankook.ac.kr/" xr:uid="{EF528ACB-4A19-45F0-8C1E-DF56536758D1}"/>
-    <hyperlink ref="C23" r:id="rId9" display="http://www.sejong.ac.kr/" xr:uid="{611808D3-BD06-414A-AE98-17C738544500}"/>
-    <hyperlink ref="C6" r:id="rId10" display="http://www.kw.ac.kr/" xr:uid="{DF31A0B6-D4B1-4779-AE27-6D66173EAFF9}"/>
-    <hyperlink ref="C7" r:id="rId11" display="http://www.kookmin.ac.kr/" xr:uid="{FB2A8F9E-979A-4B47-85E1-3B7DAC1A2A9E}"/>
-    <hyperlink ref="C10" r:id="rId12" display="http://www.dongguk.edu/" xr:uid="{4FD6AB8C-6463-4A67-9AA4-CC5149E461D2}"/>
-    <hyperlink ref="C12" r:id="rId13" display="http://www.mju.ac.kr/" xr:uid="{28033778-E97B-4B13-9D8B-45E39F2435A3}"/>
-    <hyperlink ref="C13" r:id="rId14" display="https://new.syu.ac.kr/" xr:uid="{DEAF71C8-8A12-4D17-B681-E13A5A3BFCAF}"/>
-    <hyperlink ref="C14" r:id="rId15" display="http://www.smu.ac.kr/" xr:uid="{3F9A34AC-D269-4E8D-901D-DB0B886567FA}"/>
-    <hyperlink ref="C16" r:id="rId16" display="https://www.skuniv.ac.kr/" xr:uid="{0920E59E-0E48-4BDA-868F-B969EE45D8B0}"/>
-    <hyperlink ref="C17" r:id="rId17" display="http://www.seoultech.ac.kr/" xr:uid="{52BCE29D-209C-4DEF-BD15-2FA5F566F4DD}"/>
-    <hyperlink ref="C29" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{6393596F-F5DB-4244-BA1B-05FA1EA91955}"/>
-    <hyperlink ref="C31" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
-    <hyperlink ref="C33" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
+    <hyperlink ref="C30" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{CA890462-92C6-4EDD-974E-8FC9FFBF2916}"/>
+    <hyperlink ref="C32" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{68619778-09C6-4527-B589-283352564DC1}"/>
+    <hyperlink ref="C22" r:id="rId3" display="http://www.snu.ac.kr/" xr:uid="{A6B584FA-785E-42A8-A3A7-55B08A375219}"/>
+    <hyperlink ref="C39" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
+    <hyperlink ref="C37" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{A9B49AA0-E132-48A9-B46D-5C53D1EAAE96}"/>
+    <hyperlink ref="C6" r:id="rId6" display="http://www.khu.ac.kr/" xr:uid="{33A0EB7E-6BC9-48CE-AADD-78FC8C621D43}"/>
+    <hyperlink ref="C26" r:id="rId7" display="http://www.skku.edu/" xr:uid="{E782C97A-C95D-480E-A523-192DA3F055A2}"/>
+    <hyperlink ref="C10" r:id="rId8" display="http://www.dankook.ac.kr/" xr:uid="{EF528ACB-4A19-45F0-8C1E-DF56536758D1}"/>
+    <hyperlink ref="C28" r:id="rId9" display="http://www.sejong.ac.kr/" xr:uid="{611808D3-BD06-414A-AE98-17C738544500}"/>
+    <hyperlink ref="C8" r:id="rId10" display="http://www.kw.ac.kr/" xr:uid="{DF31A0B6-D4B1-4779-AE27-6D66173EAFF9}"/>
+    <hyperlink ref="C9" r:id="rId11" display="http://www.kookmin.ac.kr/" xr:uid="{FB2A8F9E-979A-4B47-85E1-3B7DAC1A2A9E}"/>
+    <hyperlink ref="C12" r:id="rId12" display="http://www.dongguk.edu/" xr:uid="{4FD6AB8C-6463-4A67-9AA4-CC5149E461D2}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://www.mju.ac.kr/" xr:uid="{28033778-E97B-4B13-9D8B-45E39F2435A3}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://new.syu.ac.kr/" xr:uid="{DEAF71C8-8A12-4D17-B681-E13A5A3BFCAF}"/>
+    <hyperlink ref="C16" r:id="rId15" display="http://www.smu.ac.kr/" xr:uid="{3F9A34AC-D269-4E8D-901D-DB0B886567FA}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://www.skuniv.ac.kr/" xr:uid="{0920E59E-0E48-4BDA-868F-B969EE45D8B0}"/>
+    <hyperlink ref="C19" r:id="rId17" display="http://www.seoultech.ac.kr/" xr:uid="{52BCE29D-209C-4DEF-BD15-2FA5F566F4DD}"/>
+    <hyperlink ref="C35" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{6393596F-F5DB-4244-BA1B-05FA1EA91955}"/>
+    <hyperlink ref="C38" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
+    <hyperlink ref="C40" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
     <hyperlink ref="C2" r:id="rId21" display="http://www.kcu.ac.kr/" xr:uid="{A0E22F32-38CE-435A-850E-0D61E2A6E13D}"/>
-    <hyperlink ref="C18" r:id="rId22" display="http://www.snue.ac.kr/" xr:uid="{67DF2720-EA5B-48C6-9708-75D616832FD9}"/>
-    <hyperlink ref="C9" r:id="rId23" xr:uid="{A4A0B137-AB0D-4F9D-9C7F-1C7434D21C84}"/>
-    <hyperlink ref="C11" r:id="rId24" display="http://www.dongduk.ac.kr/" xr:uid="{26589EF0-642B-48B5-89CF-DF36FB09EC7B}"/>
-    <hyperlink ref="C20" r:id="rId25" display="http://www.swu.ac.kr/" xr:uid="{C84158D2-1943-4F73-8BCE-EAC7F559FDA0}"/>
-    <hyperlink ref="C22" r:id="rId26" display="http://www.sungshin.ac.kr/" xr:uid="{DE100CCF-7B94-4ECD-AFAF-F135545D0663}"/>
-    <hyperlink ref="C24" r:id="rId27" display="http://www.sookmyung.ac.kr/" xr:uid="{428AD00E-1351-41D9-B3B6-4142E312B17D}"/>
-    <hyperlink ref="C28" r:id="rId28" display="http://www.cau.ac.kr/" xr:uid="{67C01243-5DB8-4D5F-B85D-0DA792F6D601}"/>
-    <hyperlink ref="C5" r:id="rId29" display="http://www.korea.ac.kr/" xr:uid="{AD343469-6453-4A2B-9B1A-704162E175A5}"/>
-    <hyperlink ref="C26" r:id="rId30" display="http://www.yonsei.ac.kr/" xr:uid="{337F0036-2C5F-46F7-A8F0-134BB4FE0DEC}"/>
-    <hyperlink ref="C15" r:id="rId31" display="http://www.sogang.ac.kr/" xr:uid="{36C8E4C4-B0C3-460F-A14B-9D93FA55020D}"/>
-    <hyperlink ref="C3" r:id="rId32" display="http://www.konkuk.ac.kr/" xr:uid="{FABB2CAE-2D21-471B-954F-F95B8A124AEA}"/>
+    <hyperlink ref="C20" r:id="rId22" display="http://www.snue.ac.kr/" xr:uid="{67DF2720-EA5B-48C6-9708-75D616832FD9}"/>
+    <hyperlink ref="C11" r:id="rId23" xr:uid="{A4A0B137-AB0D-4F9D-9C7F-1C7434D21C84}"/>
+    <hyperlink ref="C13" r:id="rId24" display="http://www.dongduk.ac.kr/" xr:uid="{26589EF0-642B-48B5-89CF-DF36FB09EC7B}"/>
+    <hyperlink ref="C23" r:id="rId25" display="http://www.swu.ac.kr/" xr:uid="{C84158D2-1943-4F73-8BCE-EAC7F559FDA0}"/>
+    <hyperlink ref="C27" r:id="rId26" display="http://www.sungshin.ac.kr/" xr:uid="{DE100CCF-7B94-4ECD-AFAF-F135545D0663}"/>
+    <hyperlink ref="C29" r:id="rId27" display="http://www.sookmyung.ac.kr/" xr:uid="{428AD00E-1351-41D9-B3B6-4142E312B17D}"/>
+    <hyperlink ref="C34" r:id="rId28" display="http://www.cau.ac.kr/" xr:uid="{67C01243-5DB8-4D5F-B85D-0DA792F6D601}"/>
+    <hyperlink ref="C7" r:id="rId29" display="http://www.korea.ac.kr/" xr:uid="{AD343469-6453-4A2B-9B1A-704162E175A5}"/>
+    <hyperlink ref="C31" r:id="rId30" display="http://www.yonsei.ac.kr/" xr:uid="{337F0036-2C5F-46F7-A8F0-134BB4FE0DEC}"/>
+    <hyperlink ref="C17" r:id="rId31" display="http://www.sogang.ac.kr/" xr:uid="{36C8E4C4-B0C3-460F-A14B-9D93FA55020D}"/>
+    <hyperlink ref="C5" r:id="rId32" display="http://www.konkuk.ac.kr/" xr:uid="{FABB2CAE-2D21-471B-954F-F95B8A124AEA}"/>
+    <hyperlink ref="C3" r:id="rId33" display="http://songsin.catholic.ac.kr/" xr:uid="{1E2C7F6A-80B1-4B45-9EDA-703D1ED4AE8A}"/>
+    <hyperlink ref="C4" r:id="rId34" display="http://www.mtu.ac.kr/" xr:uid="{11674B7B-E7F8-436C-B34A-AFED0699B964}"/>
+    <hyperlink ref="C21" r:id="rId35" display="http://www.scu.ac.kr/" xr:uid="{A8AB3DA8-ACFC-4BBA-B730-27ACA1758698}"/>
+    <hyperlink ref="C24" r:id="rId36" display="http://www.hytu.ac.kr/" xr:uid="{AA360027-3A67-4EC8-8C1A-64FADE5BDC44}"/>
+    <hyperlink ref="C25" r:id="rId37" display="http://www.skhu.ac.kr/" xr:uid="{832908FA-F062-4F47-9A29-A9B88F1EF5B2}"/>
+    <hyperlink ref="C33" r:id="rId38" xr:uid="{FBBB5CA9-B6CB-432E-8CAE-584937B44C0F}"/>
+    <hyperlink ref="C36" r:id="rId39" xr:uid="{44D44942-F435-433E-8E27-AB63D7CE1B97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
@@ -8642,411 +9241,481 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>466</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>468</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
         <v>424</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>470</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
         <v>424</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>471</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>421</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>436</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
+      <c r="D33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
-    <sortCondition ref="A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A35">
+    <sortCondition ref="A35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9055,31 +9724,36 @@
     <hyperlink ref="C5" r:id="rId3" display="http://www.ginue.ac.kr/" xr:uid="{39DE477A-8744-47F0-A810-6139F50AEF01}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{51109036-7622-44FB-BDB4-7C957D9FD583}"/>
     <hyperlink ref="C7" r:id="rId5" display="http://www.dyu.ac.kr/" xr:uid="{ADCBACF2-7900-4671-9B46-94CF9BBA3853}"/>
-    <hyperlink ref="C8" r:id="rId6" display="http://www.sjs.ac.kr/" xr:uid="{FF1C11B0-A41C-4740-997B-E509282EA8E3}"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=192&amp;py=319&amp;sx=192&amp;sy=319&amp;p=UoxuUsprvxZsssy1Ohwssssssj0-520898&amp;q=%EC%84%B1%EA%B2%B0%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=sySfsv8HrLjFir7%2F1E2OwA%3D%3D&amp;time=1586250333258&amp;bt=2&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097461&amp;u=http%3A%2F%2Fwww.sungkyul.ac.kr%2F&amp;cr=1" xr:uid="{5F4427F4-0271-4D32-9471-AFDB8653F710}"/>
-    <hyperlink ref="C10" r:id="rId8" display="http://www.suwon.ac.kr/" xr:uid="{4CB01427-1A0C-4DF8-ABE9-D3BAD1E80140}"/>
-    <hyperlink ref="C11" r:id="rId9" display="http://www.sgu.ac.kr/" xr:uid="{5129238F-8C32-4582-ABEE-B99D0C0A0342}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{43080C81-2BD2-439A-B01E-DBB2F8AC931A}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{D2E6A38D-6E54-4AF0-AD5E-0D85540710C1}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{5D94EC56-303A-4758-9F25-49F05E389523}"/>
-    <hyperlink ref="C15" r:id="rId13" display="http://www.yewon.ac.kr/" xr:uid="{5FF351E9-CDFA-45E9-8535-07B4F018B627}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{18265E56-BA80-4A84-9FCC-0D2592FF3936}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{CE2E2F78-BC25-46A5-AD3F-BB429654EA0C}"/>
-    <hyperlink ref="C20" r:id="rId16" display="http://www.cha.ac.kr/" xr:uid="{3B4F6DE7-43E5-4512-9AB9-63691B6B83D5}"/>
-    <hyperlink ref="C21" r:id="rId17" display="http://www.ptu.ac.kr/" xr:uid="{1942865B-F937-426C-9DB2-BD210AB61A4B}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{2106A05C-9314-49B3-88EE-AB4385350EA6}"/>
-    <hyperlink ref="C23" r:id="rId19" display="http://www.kpu.ac.kr/" xr:uid="{91E5F6EF-D06B-4451-9661-731FD8DF10FC}"/>
-    <hyperlink ref="C24" r:id="rId20" display="http://www.kau.ac.kr/" xr:uid="{EE218B0D-47CA-4F1C-AE52-90DD2E1F1A64}"/>
-    <hyperlink ref="C25" r:id="rId21" display="https://search.naver.com/p/crd/rd?m=1&amp;px=227&amp;py=318&amp;sx=227&amp;sy=318&amp;p=Uoy%2Fswp0Yidssu3o0Fhssssss2R-517501&amp;q=%ED%95%9C%EC%84%B8%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=Ot70LUQnfWG9e%2B3iILSwXg%3D%3D&amp;time=1586282245967&amp;bt=18&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973A6&amp;u=http%3A%2F%2Fwww.hansei.ac.kr%2F&amp;cr=1" xr:uid="{DCD8E381-F49B-47AF-ACA9-06B2125FDCEC}"/>
-    <hyperlink ref="C26" r:id="rId22" xr:uid="{1409A9FB-81AF-4A08-A6C4-A24578DE2B31}"/>
-    <hyperlink ref="C27" r:id="rId23" display="https://www.uhs.ac.kr/" xr:uid="{5AB25DC6-4759-4515-BBBB-DD9CD22AF838}"/>
-    <hyperlink ref="C18" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
-    <hyperlink ref="C19" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://www.sjs.ac.kr/" xr:uid="{FF1C11B0-A41C-4740-997B-E509282EA8E3}"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=192&amp;py=319&amp;sx=192&amp;sy=319&amp;p=UoxuUsprvxZsssy1Ohwssssssj0-520898&amp;q=%EC%84%B1%EA%B2%B0%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=sySfsv8HrLjFir7%2F1E2OwA%3D%3D&amp;time=1586250333258&amp;bt=2&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097461&amp;u=http%3A%2F%2Fwww.sungkyul.ac.kr%2F&amp;cr=1" xr:uid="{5F4427F4-0271-4D32-9471-AFDB8653F710}"/>
+    <hyperlink ref="C11" r:id="rId8" display="http://www.suwon.ac.kr/" xr:uid="{4CB01427-1A0C-4DF8-ABE9-D3BAD1E80140}"/>
+    <hyperlink ref="C12" r:id="rId9" display="http://www.sgu.ac.kr/" xr:uid="{5129238F-8C32-4582-ABEE-B99D0C0A0342}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{43080C81-2BD2-439A-B01E-DBB2F8AC931A}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{D2E6A38D-6E54-4AF0-AD5E-0D85540710C1}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{5D94EC56-303A-4758-9F25-49F05E389523}"/>
+    <hyperlink ref="C17" r:id="rId13" display="http://www.yewon.ac.kr/" xr:uid="{5FF351E9-CDFA-45E9-8535-07B4F018B627}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{18265E56-BA80-4A84-9FCC-0D2592FF3936}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{CE2E2F78-BC25-46A5-AD3F-BB429654EA0C}"/>
+    <hyperlink ref="C24" r:id="rId16" display="http://www.cha.ac.kr/" xr:uid="{3B4F6DE7-43E5-4512-9AB9-63691B6B83D5}"/>
+    <hyperlink ref="C26" r:id="rId17" display="http://www.ptu.ac.kr/" xr:uid="{1942865B-F937-426C-9DB2-BD210AB61A4B}"/>
+    <hyperlink ref="C27" r:id="rId18" xr:uid="{2106A05C-9314-49B3-88EE-AB4385350EA6}"/>
+    <hyperlink ref="C28" r:id="rId19" display="http://www.kpu.ac.kr/" xr:uid="{91E5F6EF-D06B-4451-9661-731FD8DF10FC}"/>
+    <hyperlink ref="C29" r:id="rId20" display="http://www.kau.ac.kr/" xr:uid="{EE218B0D-47CA-4F1C-AE52-90DD2E1F1A64}"/>
+    <hyperlink ref="C30" r:id="rId21" display="https://search.naver.com/p/crd/rd?m=1&amp;px=227&amp;py=318&amp;sx=227&amp;sy=318&amp;p=Uoy%2Fswp0Yidssu3o0Fhssssss2R-517501&amp;q=%ED%95%9C%EC%84%B8%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=Ot70LUQnfWG9e%2B3iILSwXg%3D%3D&amp;time=1586282245967&amp;bt=18&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973A6&amp;u=http%3A%2F%2Fwww.hansei.ac.kr%2F&amp;cr=1" xr:uid="{DCD8E381-F49B-47AF-ACA9-06B2125FDCEC}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{1409A9FB-81AF-4A08-A6C4-A24578DE2B31}"/>
+    <hyperlink ref="C32" r:id="rId23" display="https://www.uhs.ac.kr/" xr:uid="{5AB25DC6-4759-4515-BBBB-DD9CD22AF838}"/>
+    <hyperlink ref="C21" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
+    <hyperlink ref="C22" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
     <hyperlink ref="C2" r:id="rId26" xr:uid="{C17D5B82-699C-440F-A448-8084B4A509EC}"/>
-    <hyperlink ref="C28" r:id="rId27" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
+    <hyperlink ref="C33" r:id="rId27" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
+    <hyperlink ref="C8" r:id="rId28" display="https://www.stu.ac.kr/" xr:uid="{FF25DE5A-B30D-4547-9886-F19255D37A4D}"/>
+    <hyperlink ref="C14" r:id="rId29" display="http://www.acts.ac.kr/" xr:uid="{926083F2-5580-42D2-BA71-8C5D5CEE3ABE}"/>
+    <hyperlink ref="C20" r:id="rId30" display="https://www.iccu.ac.kr/" xr:uid="{3EB9D6BF-AEF1-4738-9B4B-D18FF5DC18D5}"/>
+    <hyperlink ref="C23" r:id="rId31" display="http://www.sangha.ac.kr/" xr:uid="{BD12DACE-8567-4F3D-88F5-67A8B0CE47B1}"/>
+    <hyperlink ref="C25" r:id="rId32" display="http://www.calvin.ac.kr/" xr:uid="{023579C3-0719-43AE-A87B-7BD2B77E1FE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -9088,7 +9762,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9101,114 +9775,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -9231,10 +9905,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368E20-86BE-4DEF-B0E2-CB3404E96A87}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9247,97 +9921,97 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>194</v>
@@ -9345,82 +10019,127 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
-    <sortCondition ref="A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+    <sortCondition ref="A15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="http://www.hannam.ac.kr/" xr:uid="{324EC0CF-20F0-4CE0-A203-1B97AB67B1E5}"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://www.hannam.ac.kr/" xr:uid="{324EC0CF-20F0-4CE0-A203-1B97AB67B1E5}"/>
     <hyperlink ref="C2" r:id="rId2" display="http://www.dst.ac.kr/" xr:uid="{21748C97-E379-49F0-AF41-4968BD0ED22E}"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://www.mokwon.ac.kr/" xr:uid="{B6C26F9F-D8DB-4AD4-9918-57A3AC71AA44}"/>
-    <hyperlink ref="C6" r:id="rId4" display="http://www.pcu.ac.kr/" xr:uid="{BA33615B-877E-44EE-9101-EA09CA380DC7}"/>
-    <hyperlink ref="C4" r:id="rId5" display="http://www.dju.ac.kr/" xr:uid="{C0151C77-94C5-4669-849E-533ADEF5C4A3}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://www.wsu.ac.kr/" xr:uid="{ABBD4BD7-7EFF-47B7-A2BE-D182882AB348}"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://www.mokwon.ac.kr/" xr:uid="{B6C26F9F-D8DB-4AD4-9918-57A3AC71AA44}"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://www.pcu.ac.kr/" xr:uid="{BA33615B-877E-44EE-9101-EA09CA380DC7}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.dju.ac.kr/" xr:uid="{C0151C77-94C5-4669-849E-533ADEF5C4A3}"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://www.wsu.ac.kr/" xr:uid="{ABBD4BD7-7EFF-47B7-A2BE-D182882AB348}"/>
     <hyperlink ref="C3" r:id="rId7" display="http://www.ddu.ac.kr/" xr:uid="{D3FB0BD2-63DA-4B4E-AAB8-BEBBA87BD5B4}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{6FC081ED-E575-4C04-B0F4-B5713E6B7364}"/>
-    <hyperlink ref="C11" r:id="rId9" display="http://www.hanbat.ac.kr/" xr:uid="{493FEEE2-5F05-4754-BA28-7F7C5D43D070}"/>
-    <hyperlink ref="C9" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{74BB9BD4-2DDE-434A-BD2C-A52384072D66}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{6FC081ED-E575-4C04-B0F4-B5713E6B7364}"/>
+    <hyperlink ref="C14" r:id="rId9" display="http://www.hanbat.ac.kr/" xr:uid="{493FEEE2-5F05-4754-BA28-7F7C5D43D070}"/>
+    <hyperlink ref="C12" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{74BB9BD4-2DDE-434A-BD2C-A52384072D66}"/>
+    <hyperlink ref="C5" r:id="rId11" display="http://www.daejeon.ac.kr/" xr:uid="{01198AF4-1EAD-4A47-B5F4-F6B581BAC42B}"/>
+    <hyperlink ref="C4" r:id="rId12" display="http://www.hit.ac.kr/" xr:uid="{EF35BEBE-7FE7-4023-A436-7A0F2E02F0EE}"/>
+    <hyperlink ref="C11" r:id="rId13" display="http://www.kbtus.ac.kr/" xr:uid="{64EA3C61-AE36-43E5-BA61-7983C42CB37A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -9442,380 +10161,380 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -9857,10 +10576,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675867A-3BC7-4ACA-8EEE-97C6BDE6DB8F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9871,114 +10590,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="D3" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
-        <v>196</v>
+      <c r="D9" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -9988,12 +10721,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D0D248-DFC7-44BF-A7BF-AE09F5491836}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://www.kmu.ac.kr/" xr:uid="{3E79C645-5544-42C5-9F84-3CCC4A63C6B8}"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://www.dnue.ac.kr/" xr:uid="{410C7F61-94E3-4F52-B7F7-DB1DF2F52E24}"/>
-    <hyperlink ref="C7" r:id="rId4" display="http://www.ync.ac.kr/" xr:uid="{C8BF19CC-4B15-4E46-A70C-450FF941C7DF}"/>
-    <hyperlink ref="C4" r:id="rId5" display="http://www.tsu.ac.kr/" xr:uid="{A9D1FB8E-9AD3-4C49-9205-1C481F69B7E3}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{C26702D2-4367-4497-909A-B3472D5FEFC3}"/>
-    <hyperlink ref="C6" r:id="rId7" display="http://www.sc.ac.kr/" xr:uid="{F1FF73AA-D38E-4768-8145-8837CC912F33}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://www.kmu.ac.kr/" xr:uid="{3E79C645-5544-42C5-9F84-3CCC4A63C6B8}"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://www.dnue.ac.kr/" xr:uid="{410C7F61-94E3-4F52-B7F7-DB1DF2F52E24}"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://www.ync.ac.kr/" xr:uid="{C8BF19CC-4B15-4E46-A70C-450FF941C7DF}"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://www.tsu.ac.kr/" xr:uid="{A9D1FB8E-9AD3-4C49-9205-1C481F69B7E3}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{C26702D2-4367-4497-909A-B3472D5FEFC3}"/>
+    <hyperlink ref="C7" r:id="rId7" display="http://www.sc.ac.kr/" xr:uid="{F1FF73AA-D38E-4768-8145-8837CC912F33}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{11F39806-349D-4A62-B207-1CAF6F0F4EF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10004,7 +10738,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10017,212 +10751,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE4074-890C-41AC-8F6C-D8FBDB8D9F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6E73F-895C-4242-A943-1577ABE95413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="484">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4339,6 +4339,27 @@
   <si>
     <t>04.23 18시</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구가톨릭대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.cu.ac.kr/ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4748,9 +4769,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
@@ -5730,7 +5751,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>312</v>
+        <v>482</v>
       </c>
       <c r="B122" t="s">
         <v>202</v>
@@ -5738,7 +5759,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
         <v>202</v>
@@ -5746,7 +5767,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B124" t="s">
         <v>202</v>
@@ -5754,7 +5775,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B125" t="s">
         <v>202</v>
@@ -5762,7 +5783,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
         <v>202</v>
@@ -5770,15 +5791,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B128" t="s">
         <v>203</v>
@@ -5786,7 +5807,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B129" t="s">
         <v>203</v>
@@ -5794,7 +5815,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B130" t="s">
         <v>203</v>
@@ -5802,7 +5823,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B131" t="s">
         <v>203</v>
@@ -5810,7 +5831,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="B132" t="s">
         <v>203</v>
@@ -5818,7 +5839,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>321</v>
+        <v>430</v>
       </c>
       <c r="B133" t="s">
         <v>203</v>
@@ -5826,7 +5847,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="B134" t="s">
         <v>203</v>
@@ -5834,7 +5855,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="B135" t="s">
         <v>203</v>
@@ -5842,7 +5863,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" t="s">
         <v>203</v>
@@ -5850,7 +5871,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B137" t="s">
         <v>203</v>
@@ -5858,7 +5879,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B138" t="s">
         <v>203</v>
@@ -5866,7 +5887,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B139" t="s">
         <v>203</v>
@@ -5874,7 +5895,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B140" t="s">
         <v>203</v>
@@ -5882,15 +5903,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B142" t="s">
         <v>205</v>
@@ -5898,7 +5919,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B143" t="s">
         <v>205</v>
@@ -5906,7 +5927,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B144" t="s">
         <v>205</v>
@@ -5914,7 +5935,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
         <v>205</v>
@@ -5922,7 +5943,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B146" t="s">
         <v>205</v>
@@ -5930,7 +5951,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B147" t="s">
         <v>205</v>
@@ -5938,7 +5959,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B148" t="s">
         <v>205</v>
@@ -5946,7 +5967,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B149" t="s">
         <v>205</v>
@@ -5954,7 +5975,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="B150" t="s">
         <v>205</v>
@@ -5962,7 +5983,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B151" t="s">
         <v>205</v>
@@ -5970,7 +5991,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B152" t="s">
         <v>205</v>
@@ -5978,7 +5999,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B153" t="s">
         <v>205</v>
@@ -5986,7 +6007,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B154" t="s">
         <v>205</v>
@@ -5994,7 +6015,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B155" t="s">
         <v>205</v>
@@ -6002,7 +6023,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B156" t="s">
         <v>205</v>
@@ -6010,7 +6031,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B157" t="s">
         <v>205</v>
@@ -6018,7 +6039,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B158" t="s">
         <v>205</v>
@@ -6026,7 +6047,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="B159" t="s">
         <v>205</v>
@@ -6034,7 +6055,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>453</v>
       </c>
       <c r="B160" t="s">
         <v>205</v>
@@ -6042,7 +6063,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B161" t="s">
         <v>205</v>
@@ -6050,15 +6071,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B163" t="s">
         <v>206</v>
@@ -6066,7 +6087,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="B164" t="s">
         <v>206</v>
@@ -6074,7 +6095,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="B165" t="s">
         <v>206</v>
@@ -6082,7 +6103,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B166" t="s">
         <v>206</v>
@@ -6090,7 +6111,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B167" t="s">
         <v>206</v>
@@ -6098,7 +6119,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B168" t="s">
         <v>206</v>
@@ -6106,7 +6127,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B169" t="s">
         <v>206</v>
@@ -6114,7 +6135,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B170" t="s">
         <v>206</v>
@@ -6122,7 +6143,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B171" t="s">
         <v>206</v>
@@ -6130,7 +6151,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B172" t="s">
         <v>206</v>
@@ -6138,7 +6159,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="B173" t="s">
         <v>206</v>
@@ -6146,7 +6167,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="B174" t="s">
         <v>206</v>
@@ -6154,7 +6175,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B175" t="s">
         <v>206</v>
@@ -6162,7 +6183,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B176" t="s">
         <v>206</v>
@@ -6170,7 +6191,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B177" t="s">
         <v>206</v>
@@ -6178,7 +6199,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B178" t="s">
         <v>206</v>
@@ -6186,7 +6207,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B179" t="s">
         <v>206</v>
@@ -6194,7 +6215,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B180" t="s">
         <v>206</v>
@@ -6202,7 +6223,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B181" t="s">
         <v>206</v>
@@ -6210,7 +6231,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B182" t="s">
         <v>206</v>
@@ -6218,15 +6239,15 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B183" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="B184" t="s">
         <v>207</v>
@@ -6234,7 +6255,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
         <v>207</v>
@@ -6242,7 +6263,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B186" t="s">
         <v>207</v>
@@ -6250,7 +6271,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B187" t="s">
         <v>207</v>
@@ -6258,7 +6279,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B188" t="s">
         <v>207</v>
@@ -6266,7 +6287,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B189" t="s">
         <v>207</v>
@@ -6274,7 +6295,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B190" t="s">
         <v>207</v>
@@ -6282,7 +6303,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B191" t="s">
         <v>207</v>
@@ -6290,15 +6311,15 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B193" t="s">
         <v>208</v>
@@ -6306,7 +6327,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" t="s">
         <v>208</v>
@@ -6314,7 +6335,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B195" t="s">
         <v>208</v>
@@ -6322,7 +6343,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B196" t="s">
         <v>208</v>
@@ -6330,7 +6351,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B197" t="s">
         <v>208</v>
@@ -6338,7 +6359,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
         <v>208</v>
@@ -6346,7 +6367,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
         <v>208</v>
@@ -6354,7 +6375,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B200" t="s">
         <v>208</v>
@@ -6362,7 +6383,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B201" t="s">
         <v>208</v>
@@ -6370,7 +6391,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B202" t="s">
         <v>208</v>
@@ -6378,7 +6399,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B203" t="s">
         <v>208</v>
@@ -6386,7 +6407,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B204" t="s">
         <v>208</v>
@@ -6394,7 +6415,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B205" t="s">
         <v>208</v>
@@ -6402,7 +6423,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B206" t="s">
         <v>208</v>
@@ -6410,15 +6431,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -6426,7 +6447,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
@@ -6434,7 +6455,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
@@ -6442,7 +6463,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B211" t="s">
         <v>209</v>
@@ -6450,7 +6471,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B212" t="s">
         <v>209</v>
@@ -6458,7 +6479,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B213" t="s">
         <v>209</v>
@@ -6466,7 +6487,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B214" t="s">
         <v>209</v>
@@ -6474,7 +6495,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B215" t="s">
         <v>209</v>
@@ -6482,7 +6503,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B216" t="s">
         <v>209</v>
@@ -6490,7 +6511,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B217" t="s">
         <v>209</v>
@@ -6498,7 +6519,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B218" t="s">
         <v>209</v>
@@ -6506,7 +6527,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B219" t="s">
         <v>209</v>
@@ -6514,7 +6535,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B220" t="s">
         <v>209</v>
@@ -6522,15 +6543,15 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B221" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B222" t="s">
         <v>210</v>
@@ -6538,7 +6559,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B223" t="s">
         <v>210</v>
@@ -6546,15 +6567,23 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B224" t="s">
         <v>210</v>
       </c>
     </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>417</v>
+      </c>
+      <c r="B225" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A142:A161">
-    <sortCondition ref="A161"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A143:A162">
+    <sortCondition ref="A162"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6923,8 +6952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8076,8 +8105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8154,7 +8183,7 @@
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
@@ -8166,7 +8195,7 @@
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
@@ -8193,15 +8222,15 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!F$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$40,F$2)</f>
         <v>16</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!G$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$40,G$2)</f>
         <v>10</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!H$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$40,H$2)</f>
         <v>13</v>
       </c>
     </row>
@@ -8346,22 +8375,22 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(대구!$D$2:$D$9,통계!E$2)</f>
+        <f>COUNTIF(대구!$D$2:$D$10,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(대구!$D$2:$D$9,통계!F$2)</f>
+        <f>COUNTIF(대구!$D$2:$D$10,통계!F$2)</f>
         <v>5</v>
       </c>
       <c r="G9">
-        <f>COUNTIF(대구!$D$2:$D$9,통계!G$2)</f>
-        <v>3</v>
+        <f>COUNTIF(대구!$D$2:$D$10,통계!G$2)</f>
+        <v>4</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(대구!$D$2:$D$9,통계!H$2)</f>
+        <f>COUNTIF(대구!$D$2:$D$10,통계!H$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -8601,7 +8630,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9228,7 +9257,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9908,7 +9937,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10042,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10576,10 +10605,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675867A-3BC7-4ACA-8EEE-97C6BDE6DB8F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10646,71 +10675,85 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
         <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
         <v>421</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -10722,12 +10765,13 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D0D248-DFC7-44BF-A7BF-AE09F5491836}"/>
     <hyperlink ref="C4" r:id="rId2" display="http://www.kmu.ac.kr/" xr:uid="{3E79C645-5544-42C5-9F84-3CCC4A63C6B8}"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://www.dnue.ac.kr/" xr:uid="{410C7F61-94E3-4F52-B7F7-DB1DF2F52E24}"/>
-    <hyperlink ref="C8" r:id="rId4" display="http://www.ync.ac.kr/" xr:uid="{C8BF19CC-4B15-4E46-A70C-450FF941C7DF}"/>
-    <hyperlink ref="C5" r:id="rId5" display="http://www.tsu.ac.kr/" xr:uid="{A9D1FB8E-9AD3-4C49-9205-1C481F69B7E3}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{C26702D2-4367-4497-909A-B3472D5FEFC3}"/>
-    <hyperlink ref="C7" r:id="rId7" display="http://www.sc.ac.kr/" xr:uid="{F1FF73AA-D38E-4768-8145-8837CC912F33}"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://www.dnue.ac.kr/" xr:uid="{410C7F61-94E3-4F52-B7F7-DB1DF2F52E24}"/>
+    <hyperlink ref="C9" r:id="rId4" display="http://www.ync.ac.kr/" xr:uid="{C8BF19CC-4B15-4E46-A70C-450FF941C7DF}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.tsu.ac.kr/" xr:uid="{A9D1FB8E-9AD3-4C49-9205-1C481F69B7E3}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{C26702D2-4367-4497-909A-B3472D5FEFC3}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://www.sc.ac.kr/" xr:uid="{F1FF73AA-D38E-4768-8145-8837CC912F33}"/>
     <hyperlink ref="C3" r:id="rId8" xr:uid="{11F39806-349D-4A62-B207-1CAF6F0F4EF2}"/>
+    <hyperlink ref="C5" r:id="rId9" display="http://www.cu.ac.kr/" xr:uid="{1900E1A9-424C-4EF0-9794-378CC8335D6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10738,7 +10782,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C24" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2181D3E9-E0B3-4C76-AC0A-70461C776BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3692A47D-EC48-4F9E-8708-6CC4659F1674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="490">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4373,10 +4373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.24 18시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신성대학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4396,6 +4392,39 @@
       </rPr>
       <t>http://www.shinsung.ac.kr/</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.uos.ac.kr/</t>
+    </r>
+  </si>
+  <si>
+    <t>서울시립대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.26 22시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4805,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4995,7 +5024,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
@@ -5003,7 +5032,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
         <v>185</v>
@@ -5011,7 +5040,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B25" t="s">
         <v>185</v>
@@ -5019,7 +5048,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>431</v>
       </c>
       <c r="B26" t="s">
         <v>185</v>
@@ -5027,7 +5056,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
         <v>185</v>
@@ -5035,7 +5064,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
         <v>185</v>
@@ -5043,7 +5072,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
         <v>185</v>
@@ -5051,7 +5080,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s">
         <v>185</v>
@@ -5059,7 +5088,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
         <v>185</v>
@@ -5067,7 +5096,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
         <v>185</v>
@@ -5075,7 +5104,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s">
         <v>185</v>
@@ -5083,7 +5112,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>432</v>
       </c>
       <c r="B34" t="s">
         <v>185</v>
@@ -5091,7 +5120,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
         <v>185</v>
@@ -5099,7 +5128,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
         <v>185</v>
@@ -5107,7 +5136,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="B37" t="s">
         <v>185</v>
@@ -5115,7 +5144,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
         <v>185</v>
@@ -5123,7 +5152,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
         <v>185</v>
@@ -5131,7 +5160,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
         <v>185</v>
@@ -5139,15 +5168,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
         <v>189</v>
@@ -5155,7 +5184,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
         <v>189</v>
@@ -5163,7 +5192,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
         <v>189</v>
@@ -5171,7 +5200,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
         <v>189</v>
@@ -5179,7 +5208,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
         <v>189</v>
@@ -5187,7 +5216,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
         <v>189</v>
@@ -5195,7 +5224,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s">
         <v>189</v>
@@ -5203,7 +5232,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
         <v>189</v>
@@ -5211,7 +5240,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
         <v>189</v>
@@ -5219,7 +5248,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" t="s">
         <v>189</v>
@@ -5227,7 +5256,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
         <v>189</v>
@@ -5235,7 +5264,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
         <v>189</v>
@@ -5243,7 +5272,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s">
         <v>189</v>
@@ -5251,7 +5280,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
         <v>189</v>
@@ -5259,7 +5288,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
         <v>189</v>
@@ -5267,7 +5296,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
         <v>189</v>
@@ -5275,7 +5304,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
         <v>189</v>
@@ -5283,7 +5312,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
         <v>189</v>
@@ -5291,7 +5320,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s">
         <v>189</v>
@@ -5299,7 +5328,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>189</v>
@@ -5307,7 +5336,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>442</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
         <v>189</v>
@@ -5315,7 +5344,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s">
         <v>189</v>
@@ -5323,7 +5352,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
         <v>189</v>
@@ -5331,7 +5360,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>246</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s">
         <v>189</v>
@@ -5339,7 +5368,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
         <v>189</v>
@@ -5347,7 +5376,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
         <v>189</v>
@@ -5355,7 +5384,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s">
         <v>189</v>
@@ -5363,7 +5392,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
         <v>189</v>
@@ -5371,7 +5400,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
         <v>189</v>
@@ -5379,7 +5408,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s">
         <v>189</v>
@@ -5387,7 +5416,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>417</v>
       </c>
       <c r="B72" t="s">
         <v>189</v>
@@ -5395,15 +5424,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>466</v>
+        <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s">
         <v>200</v>
@@ -5411,7 +5440,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
         <v>200</v>
@@ -5419,7 +5448,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
         <v>200</v>
@@ -5427,7 +5456,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
         <v>200</v>
@@ -5435,7 +5464,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
         <v>200</v>
@@ -5443,7 +5472,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
         <v>200</v>
@@ -5451,7 +5480,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
         <v>200</v>
@@ -5459,15 +5488,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
         <v>186</v>
@@ -5475,7 +5504,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>458</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
         <v>186</v>
@@ -5483,7 +5512,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B84" t="s">
         <v>186</v>
@@ -5491,7 +5520,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s">
         <v>186</v>
@@ -5499,7 +5528,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
         <v>186</v>
@@ -5507,7 +5536,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
         <v>186</v>
@@ -5515,7 +5544,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B88" t="s">
         <v>186</v>
@@ -5523,7 +5552,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B89" t="s">
         <v>186</v>
@@ -5531,7 +5560,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
         <v>186</v>
@@ -5539,7 +5568,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s">
         <v>186</v>
@@ -5547,7 +5576,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s">
         <v>186</v>
@@ -5555,7 +5584,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B93" t="s">
         <v>186</v>
@@ -5563,15 +5592,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B94" t="s">
-        <v>403</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B95" t="s">
         <v>403</v>
@@ -5579,7 +5608,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
         <v>403</v>
@@ -5587,7 +5616,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
         <v>403</v>
@@ -5595,7 +5624,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
         <v>403</v>
@@ -5603,7 +5632,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
         <v>403</v>
@@ -5611,7 +5640,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B100" t="s">
         <v>403</v>
@@ -5619,7 +5648,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
         <v>403</v>
@@ -5627,7 +5656,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B102" t="s">
         <v>403</v>
@@ -5635,7 +5664,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B103" t="s">
         <v>403</v>
@@ -5643,7 +5672,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
         <v>403</v>
@@ -5651,7 +5680,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
         <v>403</v>
@@ -5659,7 +5688,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s">
         <v>403</v>
@@ -5667,7 +5696,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
         <v>403</v>
@@ -5675,7 +5704,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>484</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>403</v>
@@ -5683,7 +5712,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="B109" t="s">
         <v>403</v>
@@ -5691,7 +5720,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110" t="s">
         <v>403</v>
@@ -5699,7 +5728,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
         <v>403</v>
@@ -5707,7 +5736,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B112" t="s">
         <v>403</v>
@@ -5715,7 +5744,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s">
         <v>403</v>
@@ -5723,7 +5752,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B114" t="s">
         <v>403</v>
@@ -5731,7 +5760,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B115" t="s">
         <v>403</v>
@@ -5739,7 +5768,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B116" t="s">
         <v>403</v>
@@ -5747,7 +5776,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B117" t="s">
         <v>403</v>
@@ -5755,7 +5784,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B118" t="s">
         <v>403</v>
@@ -5763,7 +5792,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B119" t="s">
         <v>403</v>
@@ -5771,7 +5800,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B120" t="s">
         <v>403</v>
@@ -5779,15 +5808,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>452</v>
+        <v>295</v>
       </c>
       <c r="B122" t="s">
         <v>187</v>
@@ -5795,7 +5824,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="B123" t="s">
         <v>187</v>
@@ -5803,7 +5832,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
         <v>187</v>
@@ -5811,7 +5840,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
         <v>187</v>
@@ -5819,7 +5848,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B126" t="s">
         <v>187</v>
@@ -5827,7 +5856,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B127" t="s">
         <v>187</v>
@@ -5835,7 +5864,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B128" t="s">
         <v>187</v>
@@ -5843,15 +5872,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B130" t="s">
         <v>188</v>
@@ -5859,7 +5888,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s">
         <v>188</v>
@@ -5867,7 +5896,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
         <v>188</v>
@@ -5875,7 +5904,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s">
         <v>188</v>
@@ -5883,7 +5912,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="B134" t="s">
         <v>188</v>
@@ -5891,7 +5920,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="B135" t="s">
         <v>188</v>
@@ -5899,7 +5928,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
         <v>188</v>
@@ -5907,7 +5936,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="B137" t="s">
         <v>188</v>
@@ -5915,7 +5944,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B138" t="s">
         <v>188</v>
@@ -5923,7 +5952,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B139" t="s">
         <v>188</v>
@@ -5931,7 +5960,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B140" t="s">
         <v>188</v>
@@ -5939,7 +5968,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B141" t="s">
         <v>188</v>
@@ -5947,7 +5976,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B142" t="s">
         <v>188</v>
@@ -5955,15 +5984,15 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B144" t="s">
         <v>190</v>
@@ -5971,7 +6000,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B145" t="s">
         <v>190</v>
@@ -5979,7 +6008,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B146" t="s">
         <v>190</v>
@@ -5987,7 +6016,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B147" t="s">
         <v>190</v>
@@ -5995,7 +6024,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B148" t="s">
         <v>190</v>
@@ -6003,7 +6032,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B149" t="s">
         <v>190</v>
@@ -6011,7 +6040,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B150" t="s">
         <v>190</v>
@@ -6019,7 +6048,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B151" t="s">
         <v>190</v>
@@ -6027,7 +6056,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="B152" t="s">
         <v>190</v>
@@ -6035,7 +6064,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="B153" t="s">
         <v>190</v>
@@ -6043,7 +6072,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B154" t="s">
         <v>190</v>
@@ -6051,7 +6080,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B155" t="s">
         <v>190</v>
@@ -6059,7 +6088,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B156" t="s">
         <v>190</v>
@@ -6067,7 +6096,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B157" t="s">
         <v>190</v>
@@ -6075,7 +6104,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B158" t="s">
         <v>190</v>
@@ -6083,7 +6112,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B159" t="s">
         <v>190</v>
@@ -6091,7 +6120,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B160" t="s">
         <v>190</v>
@@ -6099,7 +6128,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="B161" t="s">
         <v>190</v>
@@ -6107,7 +6136,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B162" t="s">
         <v>190</v>
@@ -6115,7 +6144,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B163" t="s">
         <v>190</v>
@@ -6123,15 +6152,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B165" t="s">
         <v>191</v>
@@ -6139,7 +6168,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="B166" t="s">
         <v>191</v>
@@ -6147,7 +6176,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>191</v>
@@ -6155,7 +6184,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B168" t="s">
         <v>191</v>
@@ -6163,7 +6192,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s">
         <v>191</v>
@@ -6171,7 +6200,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s">
         <v>191</v>
@@ -6179,7 +6208,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s">
         <v>191</v>
@@ -6187,7 +6216,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s">
         <v>191</v>
@@ -6195,7 +6224,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
         <v>191</v>
@@ -6203,7 +6232,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B174" t="s">
         <v>191</v>
@@ -6211,7 +6240,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s">
         <v>191</v>
@@ -6219,7 +6248,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="B176" t="s">
         <v>191</v>
@@ -6227,7 +6256,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B177" t="s">
         <v>191</v>
@@ -6235,7 +6264,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
         <v>191</v>
@@ -6243,7 +6272,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
         <v>191</v>
@@ -6251,7 +6280,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B180" t="s">
         <v>191</v>
@@ -6259,7 +6288,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
         <v>191</v>
@@ -6267,7 +6296,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
         <v>191</v>
@@ -6275,7 +6304,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
         <v>191</v>
@@ -6283,7 +6312,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
@@ -6291,15 +6320,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="B186" t="s">
         <v>192</v>
@@ -6307,7 +6336,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="B187" t="s">
         <v>192</v>
@@ -6315,7 +6344,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B188" t="s">
         <v>192</v>
@@ -6323,7 +6352,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B189" t="s">
         <v>192</v>
@@ -6331,7 +6360,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B190" t="s">
         <v>192</v>
@@ -6339,7 +6368,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -6347,7 +6376,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
@@ -6355,7 +6384,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
@@ -6363,15 +6392,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
@@ -6379,7 +6408,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
@@ -6387,7 +6416,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
@@ -6395,7 +6424,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
@@ -6403,7 +6432,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
         <v>193</v>
@@ -6411,7 +6440,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
@@ -6419,7 +6448,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B201" t="s">
         <v>193</v>
@@ -6427,7 +6456,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
@@ -6435,7 +6464,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
@@ -6443,7 +6472,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B204" t="s">
         <v>193</v>
@@ -6451,7 +6480,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B205" t="s">
         <v>193</v>
@@ -6459,7 +6488,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B206" t="s">
         <v>193</v>
@@ -6467,7 +6496,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B207" t="s">
         <v>193</v>
@@ -6475,7 +6504,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B208" t="s">
         <v>193</v>
@@ -6483,15 +6512,15 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B209" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B210" t="s">
         <v>194</v>
@@ -6499,7 +6528,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B211" t="s">
         <v>194</v>
@@ -6507,7 +6536,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B212" t="s">
         <v>194</v>
@@ -6515,7 +6544,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B213" t="s">
         <v>194</v>
@@ -6523,7 +6552,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B214" t="s">
         <v>194</v>
@@ -6531,7 +6560,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B215" t="s">
         <v>194</v>
@@ -6539,7 +6568,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B216" t="s">
         <v>194</v>
@@ -6547,7 +6576,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B217" t="s">
         <v>194</v>
@@ -6555,7 +6584,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B218" t="s">
         <v>194</v>
@@ -6563,7 +6592,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B219" t="s">
         <v>194</v>
@@ -6571,7 +6600,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B220" t="s">
         <v>194</v>
@@ -6579,7 +6608,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B221" t="s">
         <v>194</v>
@@ -6587,7 +6616,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B222" t="s">
         <v>194</v>
@@ -6595,15 +6624,15 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B223" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B224" t="s">
         <v>195</v>
@@ -6611,7 +6640,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B225" t="s">
         <v>195</v>
@@ -6619,9 +6648,17 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>401</v>
+      </c>
+      <c r="B226" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>402</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6637,10 +6674,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6651,7 +6688,7 @@
     <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -6664,8 +6701,11 @@
       <c r="D1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -6679,7 +6719,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -6693,7 +6733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -6707,7 +6747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -6721,7 +6761,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>326</v>
       </c>
@@ -6735,7 +6775,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>327</v>
       </c>
@@ -6749,7 +6789,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -6763,7 +6803,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>329</v>
       </c>
@@ -6777,7 +6817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -6791,7 +6831,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>418</v>
       </c>
@@ -6805,7 +6845,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -6819,7 +6859,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -6833,7 +6873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -6847,7 +6887,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -6861,7 +6901,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -6875,7 +6915,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -6889,7 +6929,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -6903,7 +6943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>338</v>
       </c>
@@ -6917,7 +6957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>438</v>
       </c>
@@ -6931,7 +6971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>339</v>
       </c>
@@ -6945,18 +6985,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>340</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>178</v>
+      </c>
+      <c r="E22" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6994,10 +7037,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7008,7 +7051,7 @@
     <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -7021,8 +7064,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -7036,7 +7082,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -7050,7 +7096,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>273</v>
       </c>
@@ -7064,12 +7110,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -7077,8 +7123,11 @@
       <c r="D5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -7092,7 +7141,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>347</v>
       </c>
@@ -7106,7 +7155,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -7120,7 +7169,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>349</v>
       </c>
@@ -7134,7 +7183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>350</v>
       </c>
@@ -7148,7 +7197,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>351</v>
       </c>
@@ -7162,7 +7211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>352</v>
       </c>
@@ -7176,7 +7225,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -7190,7 +7239,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>353</v>
       </c>
@@ -7204,7 +7253,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>354</v>
       </c>
@@ -7218,7 +7267,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>355</v>
       </c>
@@ -7232,7 +7281,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>356</v>
       </c>
@@ -7246,21 +7295,24 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="E18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>358</v>
       </c>
@@ -7274,7 +7326,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>359</v>
       </c>
@@ -7288,7 +7340,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>360</v>
       </c>
@@ -7302,7 +7354,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -7316,7 +7368,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -7353,10 +7405,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210BE4CD-4E6E-4BDE-AEFE-66E407052FA6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7367,7 +7419,7 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -7380,8 +7432,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>362</v>
       </c>
@@ -7395,7 +7450,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -7409,7 +7464,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>363</v>
       </c>
@@ -7423,7 +7478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>364</v>
       </c>
@@ -7437,7 +7492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>365</v>
       </c>
@@ -7451,7 +7506,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -7465,7 +7520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -7479,7 +7534,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -7493,7 +7548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>369</v>
       </c>
@@ -7530,7 +7585,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4745446-AA4D-485D-BF63-540CC4A6ED8E}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -7544,7 +7599,7 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -7557,8 +7612,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -7572,7 +7630,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>371</v>
       </c>
@@ -7586,7 +7644,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -7600,7 +7658,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>373</v>
       </c>
@@ -7614,7 +7672,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>374</v>
       </c>
@@ -7628,7 +7686,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>375</v>
       </c>
@@ -7642,7 +7700,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>376</v>
       </c>
@@ -7656,7 +7714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>377</v>
       </c>
@@ -7670,7 +7728,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>378</v>
       </c>
@@ -7684,7 +7742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -7698,7 +7756,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>380</v>
       </c>
@@ -7712,7 +7770,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>382</v>
       </c>
@@ -7726,7 +7784,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>383</v>
       </c>
@@ -7740,7 +7798,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>384</v>
       </c>
@@ -7754,7 +7812,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>385</v>
       </c>
@@ -7796,10 +7854,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF38D9-4E2F-4E52-B04F-40A66B80F97A}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7809,7 +7867,7 @@
     <col min="3" max="3" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -7822,8 +7880,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>386</v>
       </c>
@@ -7837,7 +7898,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -7851,7 +7912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>388</v>
       </c>
@@ -7865,7 +7926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -7879,7 +7940,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>390</v>
       </c>
@@ -7893,7 +7954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>391</v>
       </c>
@@ -7907,7 +7968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>392</v>
       </c>
@@ -7921,7 +7982,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>393</v>
       </c>
@@ -7935,7 +7996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>394</v>
       </c>
@@ -7949,7 +8010,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>381</v>
       </c>
@@ -7963,7 +8024,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>395</v>
       </c>
@@ -7977,7 +8038,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>396</v>
       </c>
@@ -7991,7 +8052,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -8005,7 +8066,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>398</v>
       </c>
@@ -8046,10 +8107,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55EAC3E-6231-4C97-AE27-6524D4A1B3A7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8060,7 +8121,7 @@
     <col min="4" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -8073,8 +8134,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -8088,7 +8152,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -8102,7 +8166,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>401</v>
       </c>
@@ -8116,7 +8180,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>402</v>
       </c>
@@ -8150,7 +8214,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8220,14 +8284,14 @@
         <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
@@ -8235,15 +8299,15 @@
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8252,29 +8316,29 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f>SUM(E4:H4)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!E$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$41,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!F$2)</f>
-        <v>15</v>
+        <f>COUNTIF(서울!$D$2:$D$41,통계!F$2)</f>
+        <v>14</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!G$2)</f>
-        <v>11</v>
+        <f>COUNTIF(서울!$D$2:$D$41,통계!G$2)</f>
+        <v>13</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(서울!$D$2:$D$40,통계!H$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$41,통계!H$2)</f>
         <v>13</v>
       </c>
     </row>
@@ -8284,7 +8348,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8316,7 +8380,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8348,7 +8412,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8363,7 +8427,7 @@
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!F$2)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!G$2)</f>
@@ -8371,7 +8435,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!H$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -8380,7 +8444,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8412,7 +8476,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8427,11 +8491,11 @@
       </c>
       <c r="F9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!F$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!G$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!H$2)</f>
@@ -8444,7 +8508,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8476,7 +8540,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8508,7 +8572,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8523,7 +8587,7 @@
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!F$2)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!G$2)</f>
@@ -8531,7 +8595,7 @@
       </c>
       <c r="H12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!H$2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -8540,7 +8604,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8572,7 +8636,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8604,7 +8668,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8636,7 +8700,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>04.24 18시</v>
+        <v>04.26 22시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8671,10 +8735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8685,7 +8749,7 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -8698,8 +8762,11 @@
       <c r="D1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -8713,21 +8780,24 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>429</v>
       </c>
@@ -8741,7 +8811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -8755,7 +8825,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -8769,7 +8839,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -8783,7 +8853,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -8797,7 +8867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -8811,7 +8881,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -8825,7 +8895,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>314</v>
       </c>
@@ -8839,7 +8909,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -8853,7 +8923,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>315</v>
       </c>
@@ -8867,7 +8937,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -8881,7 +8951,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -8895,7 +8965,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -8909,7 +8979,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -8923,7 +8993,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -8937,7 +9007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -8951,7 +9021,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -8965,7 +9035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>430</v>
       </c>
@@ -8979,7 +9049,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>216</v>
       </c>
@@ -8993,211 +9063,214 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="D23" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>434</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>405</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>431</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>219</v>
-      </c>
-      <c r="B28" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>318</v>
       </c>
       <c r="B29" t="s">
         <v>414</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>465</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>220</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>221</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>407</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>449</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>432</v>
       </c>
       <c r="B34" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>464</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>405</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>450</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="D37" t="s">
         <v>180</v>
@@ -9205,61 +9278,75 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>414</v>
+        <v>180</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>226</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>405</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C43">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{CA890462-92C6-4EDD-974E-8FC9FFBF2916}"/>
-    <hyperlink ref="C32" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{68619778-09C6-4527-B589-283352564DC1}"/>
+    <hyperlink ref="C31" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{CA890462-92C6-4EDD-974E-8FC9FFBF2916}"/>
+    <hyperlink ref="C33" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{68619778-09C6-4527-B589-283352564DC1}"/>
     <hyperlink ref="C22" r:id="rId3" display="http://www.snu.ac.kr/" xr:uid="{A6B584FA-785E-42A8-A3A7-55B08A375219}"/>
-    <hyperlink ref="C39" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
-    <hyperlink ref="C37" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{A9B49AA0-E132-48A9-B46D-5C53D1EAAE96}"/>
+    <hyperlink ref="C40" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
+    <hyperlink ref="C38" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{A9B49AA0-E132-48A9-B46D-5C53D1EAAE96}"/>
     <hyperlink ref="C6" r:id="rId6" display="http://www.khu.ac.kr/" xr:uid="{33A0EB7E-6BC9-48CE-AADD-78FC8C621D43}"/>
-    <hyperlink ref="C26" r:id="rId7" display="http://www.skku.edu/" xr:uid="{E782C97A-C95D-480E-A523-192DA3F055A2}"/>
+    <hyperlink ref="C27" r:id="rId7" display="http://www.skku.edu/" xr:uid="{E782C97A-C95D-480E-A523-192DA3F055A2}"/>
     <hyperlink ref="C10" r:id="rId8" display="http://www.dankook.ac.kr/" xr:uid="{EF528ACB-4A19-45F0-8C1E-DF56536758D1}"/>
-    <hyperlink ref="C28" r:id="rId9" display="http://www.sejong.ac.kr/" xr:uid="{611808D3-BD06-414A-AE98-17C738544500}"/>
+    <hyperlink ref="C29" r:id="rId9" display="http://www.sejong.ac.kr/" xr:uid="{611808D3-BD06-414A-AE98-17C738544500}"/>
     <hyperlink ref="C8" r:id="rId10" display="http://www.kw.ac.kr/" xr:uid="{DF31A0B6-D4B1-4779-AE27-6D66173EAFF9}"/>
     <hyperlink ref="C9" r:id="rId11" display="http://www.kookmin.ac.kr/" xr:uid="{FB2A8F9E-979A-4B47-85E1-3B7DAC1A2A9E}"/>
     <hyperlink ref="C12" r:id="rId12" display="http://www.dongguk.edu/" xr:uid="{4FD6AB8C-6463-4A67-9AA4-CC5149E461D2}"/>
@@ -9268,40 +9355,41 @@
     <hyperlink ref="C16" r:id="rId15" display="http://www.smu.ac.kr/" xr:uid="{3F9A34AC-D269-4E8D-901D-DB0B886567FA}"/>
     <hyperlink ref="C18" r:id="rId16" display="https://www.skuniv.ac.kr/" xr:uid="{0920E59E-0E48-4BDA-868F-B969EE45D8B0}"/>
     <hyperlink ref="C19" r:id="rId17" display="http://www.seoultech.ac.kr/" xr:uid="{52BCE29D-209C-4DEF-BD15-2FA5F566F4DD}"/>
-    <hyperlink ref="C35" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{6393596F-F5DB-4244-BA1B-05FA1EA91955}"/>
-    <hyperlink ref="C38" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
-    <hyperlink ref="C40" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
+    <hyperlink ref="C36" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{6393596F-F5DB-4244-BA1B-05FA1EA91955}"/>
+    <hyperlink ref="C39" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
+    <hyperlink ref="C41" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
     <hyperlink ref="C2" r:id="rId21" display="http://www.kcu.ac.kr/" xr:uid="{A0E22F32-38CE-435A-850E-0D61E2A6E13D}"/>
     <hyperlink ref="C20" r:id="rId22" display="http://www.snue.ac.kr/" xr:uid="{67DF2720-EA5B-48C6-9708-75D616832FD9}"/>
     <hyperlink ref="C11" r:id="rId23" xr:uid="{A4A0B137-AB0D-4F9D-9C7F-1C7434D21C84}"/>
     <hyperlink ref="C13" r:id="rId24" display="http://www.dongduk.ac.kr/" xr:uid="{26589EF0-642B-48B5-89CF-DF36FB09EC7B}"/>
-    <hyperlink ref="C23" r:id="rId25" display="http://www.swu.ac.kr/" xr:uid="{C84158D2-1943-4F73-8BCE-EAC7F559FDA0}"/>
-    <hyperlink ref="C27" r:id="rId26" display="http://www.sungshin.ac.kr/" xr:uid="{DE100CCF-7B94-4ECD-AFAF-F135545D0663}"/>
-    <hyperlink ref="C29" r:id="rId27" display="http://www.sookmyung.ac.kr/" xr:uid="{428AD00E-1351-41D9-B3B6-4142E312B17D}"/>
-    <hyperlink ref="C34" r:id="rId28" display="http://www.cau.ac.kr/" xr:uid="{67C01243-5DB8-4D5F-B85D-0DA792F6D601}"/>
+    <hyperlink ref="C24" r:id="rId25" display="http://www.swu.ac.kr/" xr:uid="{C84158D2-1943-4F73-8BCE-EAC7F559FDA0}"/>
+    <hyperlink ref="C28" r:id="rId26" display="http://www.sungshin.ac.kr/" xr:uid="{DE100CCF-7B94-4ECD-AFAF-F135545D0663}"/>
+    <hyperlink ref="C30" r:id="rId27" display="http://www.sookmyung.ac.kr/" xr:uid="{428AD00E-1351-41D9-B3B6-4142E312B17D}"/>
+    <hyperlink ref="C35" r:id="rId28" display="http://www.cau.ac.kr/" xr:uid="{67C01243-5DB8-4D5F-B85D-0DA792F6D601}"/>
     <hyperlink ref="C7" r:id="rId29" display="http://www.korea.ac.kr/" xr:uid="{AD343469-6453-4A2B-9B1A-704162E175A5}"/>
-    <hyperlink ref="C31" r:id="rId30" display="http://www.yonsei.ac.kr/" xr:uid="{337F0036-2C5F-46F7-A8F0-134BB4FE0DEC}"/>
+    <hyperlink ref="C32" r:id="rId30" display="http://www.yonsei.ac.kr/" xr:uid="{337F0036-2C5F-46F7-A8F0-134BB4FE0DEC}"/>
     <hyperlink ref="C17" r:id="rId31" display="http://www.sogang.ac.kr/" xr:uid="{36C8E4C4-B0C3-460F-A14B-9D93FA55020D}"/>
     <hyperlink ref="C5" r:id="rId32" display="http://www.konkuk.ac.kr/" xr:uid="{FABB2CAE-2D21-471B-954F-F95B8A124AEA}"/>
     <hyperlink ref="C3" r:id="rId33" display="http://songsin.catholic.ac.kr/" xr:uid="{1E2C7F6A-80B1-4B45-9EDA-703D1ED4AE8A}"/>
     <hyperlink ref="C4" r:id="rId34" display="http://www.mtu.ac.kr/" xr:uid="{11674B7B-E7F8-436C-B34A-AFED0699B964}"/>
     <hyperlink ref="C21" r:id="rId35" display="http://www.scu.ac.kr/" xr:uid="{A8AB3DA8-ACFC-4BBA-B730-27ACA1758698}"/>
-    <hyperlink ref="C24" r:id="rId36" display="http://www.hytu.ac.kr/" xr:uid="{AA360027-3A67-4EC8-8C1A-64FADE5BDC44}"/>
-    <hyperlink ref="C25" r:id="rId37" display="http://www.skhu.ac.kr/" xr:uid="{832908FA-F062-4F47-9A29-A9B88F1EF5B2}"/>
-    <hyperlink ref="C33" r:id="rId38" xr:uid="{FBBB5CA9-B6CB-432E-8CAE-584937B44C0F}"/>
-    <hyperlink ref="C36" r:id="rId39" xr:uid="{44D44942-F435-433E-8E27-AB63D7CE1B97}"/>
+    <hyperlink ref="C25" r:id="rId36" display="http://www.hytu.ac.kr/" xr:uid="{AA360027-3A67-4EC8-8C1A-64FADE5BDC44}"/>
+    <hyperlink ref="C26" r:id="rId37" display="http://www.skhu.ac.kr/" xr:uid="{832908FA-F062-4F47-9A29-A9B88F1EF5B2}"/>
+    <hyperlink ref="C34" r:id="rId38" xr:uid="{FBBB5CA9-B6CB-432E-8CAE-584937B44C0F}"/>
+    <hyperlink ref="C37" r:id="rId39" xr:uid="{44D44942-F435-433E-8E27-AB63D7CE1B97}"/>
+    <hyperlink ref="C23" r:id="rId40" display="http://www.uos.ac.kr/" xr:uid="{04861031-B3BA-4312-99F0-52F0F6BBC859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9312,7 +9400,7 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -9325,8 +9413,11 @@
       <c r="D1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -9340,7 +9431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>228</v>
       </c>
@@ -9354,7 +9445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>229</v>
       </c>
@@ -9368,7 +9459,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -9382,7 +9473,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>231</v>
       </c>
@@ -9396,7 +9487,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -9410,7 +9501,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>440</v>
       </c>
@@ -9424,7 +9515,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -9438,7 +9529,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -9452,7 +9543,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9466,7 +9557,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -9480,7 +9571,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -9494,7 +9585,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>441</v>
       </c>
@@ -9508,7 +9599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -9522,7 +9613,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -9832,10 +9923,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF74F4-3890-4AC5-9177-01D64768D9F8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9846,7 +9937,7 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -9859,8 +9950,11 @@
       <c r="D1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>466</v>
       </c>
@@ -9874,7 +9968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -9888,7 +9982,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -9902,7 +9996,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -9916,7 +10010,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -9930,7 +10024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -9944,7 +10038,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -9958,7 +10052,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -9993,10 +10087,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368E20-86BE-4DEF-B0E2-CB3404E96A87}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10007,7 +10101,7 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -10020,8 +10114,11 @@
       <c r="D1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -10035,12 +10132,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -10048,8 +10145,11 @@
       <c r="D3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -10063,7 +10163,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -10077,7 +10177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -10091,7 +10191,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -10105,21 +10205,24 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -10133,7 +10236,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -10147,7 +10250,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>437</v>
       </c>
@@ -10161,7 +10264,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -10175,7 +10278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -10189,7 +10292,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -10203,7 +10306,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
   </sheetData>
@@ -10233,10 +10336,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10247,7 +10350,7 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -10260,8 +10363,11 @@
       <c r="D1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -10275,7 +10381,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>270</v>
       </c>
@@ -10289,7 +10395,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -10303,7 +10409,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -10317,7 +10423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>273</v>
       </c>
@@ -10331,7 +10437,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -10345,7 +10451,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -10359,7 +10465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -10373,7 +10479,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -10387,12 +10493,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>278</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -10400,8 +10506,11 @@
       <c r="D11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>279</v>
       </c>
@@ -10415,7 +10524,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -10429,7 +10538,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -10443,7 +10552,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -10457,15 +10566,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B16" t="s">
         <v>409</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D16" t="s">
         <v>179</v>
@@ -10679,10 +10788,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675867A-3BC7-4ACA-8EEE-97C6BDE6DB8F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10690,9 +10799,10 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -10705,8 +10815,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>295</v>
       </c>
@@ -10720,7 +10833,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>452</v>
       </c>
@@ -10734,7 +10847,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>296</v>
       </c>
@@ -10748,7 +10861,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -10762,7 +10875,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>298</v>
       </c>
@@ -10776,21 +10889,24 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -10804,7 +10920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -10839,10 +10955,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA9255F-0181-4A63-BA7C-452A7D2515CD}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10853,7 +10969,7 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -10866,8 +10982,11 @@
       <c r="D1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -10881,7 +11000,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -10895,7 +11014,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -10909,7 +11028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>307</v>
       </c>
@@ -10923,7 +11042,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -10937,7 +11056,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -10951,7 +11070,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10965,7 +11084,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>416</v>
       </c>
@@ -10979,7 +11098,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -10993,7 +11112,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -11007,7 +11126,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>310</v>
       </c>
@@ -11021,7 +11140,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>311</v>
       </c>
@@ -11035,7 +11154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -11049,7 +11168,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>313</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3692A47D-EC48-4F9E-8708-6CC4659F1674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED124A-6CCC-4D54-895E-473403689E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="492">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4423,7 +4423,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.26 22시</t>
+    <t>여주대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://www.yit.ac.kr/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>04.28 14시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4834,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5296,7 +5317,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s">
         <v>189</v>
@@ -5304,7 +5325,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
         <v>189</v>
@@ -5312,7 +5333,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
         <v>189</v>
@@ -5320,7 +5341,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
         <v>189</v>
@@ -5328,7 +5349,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s">
         <v>189</v>
@@ -5336,7 +5357,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
         <v>189</v>
@@ -5344,7 +5365,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>442</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
         <v>189</v>
@@ -5352,7 +5373,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s">
         <v>189</v>
@@ -5360,7 +5381,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
         <v>189</v>
@@ -5368,7 +5389,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s">
         <v>189</v>
@@ -5376,7 +5397,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
         <v>189</v>
@@ -5384,7 +5405,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
         <v>189</v>
@@ -5392,7 +5413,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B69" t="s">
         <v>189</v>
@@ -5400,7 +5421,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s">
         <v>189</v>
@@ -5408,7 +5429,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s">
         <v>189</v>
@@ -5416,7 +5437,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="B72" t="s">
         <v>189</v>
@@ -5424,7 +5445,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>417</v>
       </c>
       <c r="B73" t="s">
         <v>189</v>
@@ -5432,15 +5453,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>466</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s">
         <v>200</v>
@@ -5448,7 +5469,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76" t="s">
         <v>200</v>
@@ -5456,7 +5477,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
         <v>200</v>
@@ -5464,7 +5485,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>200</v>
@@ -5472,7 +5493,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
         <v>200</v>
@@ -5480,7 +5501,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
         <v>200</v>
@@ -5488,7 +5509,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B81" t="s">
         <v>200</v>
@@ -5496,15 +5517,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B83" t="s">
         <v>186</v>
@@ -5512,7 +5533,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>458</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
         <v>186</v>
@@ -5520,7 +5541,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B85" t="s">
         <v>186</v>
@@ -5528,7 +5549,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s">
         <v>186</v>
@@ -5536,7 +5557,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87" t="s">
         <v>186</v>
@@ -5544,7 +5565,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
         <v>186</v>
@@ -5552,7 +5573,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
         <v>186</v>
@@ -5560,7 +5581,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
         <v>186</v>
@@ -5568,7 +5589,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s">
         <v>186</v>
@@ -5576,7 +5597,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="B92" t="s">
         <v>186</v>
@@ -5584,7 +5605,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s">
         <v>186</v>
@@ -5592,7 +5613,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B94" t="s">
         <v>186</v>
@@ -5600,15 +5621,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>403</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" t="s">
         <v>403</v>
@@ -5616,7 +5637,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
         <v>403</v>
@@ -5624,7 +5645,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B98" t="s">
         <v>403</v>
@@ -5632,7 +5653,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B99" t="s">
         <v>403</v>
@@ -5640,7 +5661,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
         <v>403</v>
@@ -5648,7 +5669,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s">
         <v>403</v>
@@ -5656,7 +5677,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B102" t="s">
         <v>403</v>
@@ -5664,7 +5685,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
         <v>403</v>
@@ -5672,7 +5693,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B104" t="s">
         <v>403</v>
@@ -5680,7 +5701,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
         <v>403</v>
@@ -5688,7 +5709,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
         <v>403</v>
@@ -5696,7 +5717,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s">
         <v>403</v>
@@ -5704,7 +5725,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B108" t="s">
         <v>403</v>
@@ -5712,7 +5733,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>483</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s">
         <v>403</v>
@@ -5720,7 +5741,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="B110" t="s">
         <v>403</v>
@@ -5728,7 +5749,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B111" t="s">
         <v>403</v>
@@ -5736,7 +5757,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
         <v>403</v>
@@ -5744,7 +5765,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B113" t="s">
         <v>403</v>
@@ -5752,7 +5773,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B114" t="s">
         <v>403</v>
@@ -5760,7 +5781,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B115" t="s">
         <v>403</v>
@@ -5768,7 +5789,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B116" t="s">
         <v>403</v>
@@ -5776,7 +5797,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B117" t="s">
         <v>403</v>
@@ -5784,7 +5805,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B118" t="s">
         <v>403</v>
@@ -5792,7 +5813,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B119" t="s">
         <v>403</v>
@@ -5800,7 +5821,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B120" t="s">
         <v>403</v>
@@ -5808,7 +5829,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B121" t="s">
         <v>403</v>
@@ -5816,15 +5837,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>295</v>
       </c>
       <c r="B123" t="s">
         <v>187</v>
@@ -5832,7 +5853,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="B124" t="s">
         <v>187</v>
@@ -5840,7 +5861,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B125" t="s">
         <v>187</v>
@@ -5848,7 +5869,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B126" t="s">
         <v>187</v>
@@ -5856,7 +5877,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B127" t="s">
         <v>187</v>
@@ -5864,7 +5885,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B128" t="s">
         <v>187</v>
@@ -5872,7 +5893,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B129" t="s">
         <v>187</v>
@@ -5880,15 +5901,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B131" t="s">
         <v>188</v>
@@ -5896,7 +5917,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B132" t="s">
         <v>188</v>
@@ -5904,7 +5925,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B133" t="s">
         <v>188</v>
@@ -5912,7 +5933,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B134" t="s">
         <v>188</v>
@@ -5920,7 +5941,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="B135" t="s">
         <v>188</v>
@@ -5928,7 +5949,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="B136" t="s">
         <v>188</v>
@@ -5936,7 +5957,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B137" t="s">
         <v>188</v>
@@ -5944,7 +5965,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="B138" t="s">
         <v>188</v>
@@ -5952,7 +5973,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B139" t="s">
         <v>188</v>
@@ -5960,7 +5981,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B140" t="s">
         <v>188</v>
@@ -5968,7 +5989,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s">
         <v>188</v>
@@ -5976,7 +5997,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B142" t="s">
         <v>188</v>
@@ -5984,7 +6005,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B143" t="s">
         <v>188</v>
@@ -5992,15 +6013,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B145" t="s">
         <v>190</v>
@@ -6008,7 +6029,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B146" t="s">
         <v>190</v>
@@ -6016,7 +6037,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B147" t="s">
         <v>190</v>
@@ -6024,7 +6045,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B148" t="s">
         <v>190</v>
@@ -6032,7 +6053,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B149" t="s">
         <v>190</v>
@@ -6040,7 +6061,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B150" t="s">
         <v>190</v>
@@ -6048,7 +6069,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B151" t="s">
         <v>190</v>
@@ -6056,7 +6077,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B152" t="s">
         <v>190</v>
@@ -6064,7 +6085,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="B153" t="s">
         <v>190</v>
@@ -6072,7 +6093,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="B154" t="s">
         <v>190</v>
@@ -6080,7 +6101,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B155" t="s">
         <v>190</v>
@@ -6088,7 +6109,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B156" t="s">
         <v>190</v>
@@ -6096,7 +6117,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B157" t="s">
         <v>190</v>
@@ -6104,7 +6125,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B158" t="s">
         <v>190</v>
@@ -6112,7 +6133,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B159" t="s">
         <v>190</v>
@@ -6120,7 +6141,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B160" t="s">
         <v>190</v>
@@ -6128,7 +6149,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
         <v>190</v>
@@ -6136,7 +6157,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
         <v>190</v>
@@ -6144,7 +6165,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B163" t="s">
         <v>190</v>
@@ -6152,7 +6173,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B164" t="s">
         <v>190</v>
@@ -6160,15 +6181,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B166" t="s">
         <v>191</v>
@@ -6176,7 +6197,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
         <v>191</v>
@@ -6184,7 +6205,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
         <v>191</v>
@@ -6192,7 +6213,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s">
         <v>191</v>
@@ -6200,7 +6221,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B170" t="s">
         <v>191</v>
@@ -6208,7 +6229,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B171" t="s">
         <v>191</v>
@@ -6216,7 +6237,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B172" t="s">
         <v>191</v>
@@ -6224,7 +6245,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B173" t="s">
         <v>191</v>
@@ -6232,7 +6253,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B174" t="s">
         <v>191</v>
@@ -6240,7 +6261,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B175" t="s">
         <v>191</v>
@@ -6248,7 +6269,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
         <v>191</v>
@@ -6256,7 +6277,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="B177" t="s">
         <v>191</v>
@@ -6264,7 +6285,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B178" t="s">
         <v>191</v>
@@ -6272,7 +6293,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B179" t="s">
         <v>191</v>
@@ -6280,7 +6301,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
         <v>191</v>
@@ -6288,7 +6309,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
         <v>191</v>
@@ -6296,7 +6317,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B182" t="s">
         <v>191</v>
@@ -6304,7 +6325,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" t="s">
         <v>191</v>
@@ -6312,7 +6333,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
@@ -6320,7 +6341,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B185" t="s">
         <v>191</v>
@@ -6328,15 +6349,15 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="B187" t="s">
         <v>192</v>
@@ -6344,7 +6365,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="B188" t="s">
         <v>192</v>
@@ -6352,7 +6373,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B189" t="s">
         <v>192</v>
@@ -6360,7 +6381,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B190" t="s">
         <v>192</v>
@@ -6368,7 +6389,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -6376,7 +6397,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
@@ -6384,7 +6405,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
@@ -6392,7 +6413,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
         <v>192</v>
@@ -6400,15 +6421,15 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
@@ -6416,7 +6437,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
@@ -6424,7 +6445,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
@@ -6432,7 +6453,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B199" t="s">
         <v>193</v>
@@ -6440,7 +6461,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
@@ -6448,7 +6469,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B201" t="s">
         <v>193</v>
@@ -6456,7 +6477,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
@@ -6464,7 +6485,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
@@ -6472,7 +6493,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B204" t="s">
         <v>193</v>
@@ -6480,7 +6501,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B205" t="s">
         <v>193</v>
@@ -6488,7 +6509,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B206" t="s">
         <v>193</v>
@@ -6496,7 +6517,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B207" t="s">
         <v>193</v>
@@ -6504,7 +6525,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B208" t="s">
         <v>193</v>
@@ -6512,7 +6533,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B209" t="s">
         <v>193</v>
@@ -6520,15 +6541,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B210" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B211" t="s">
         <v>194</v>
@@ -6536,7 +6557,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B212" t="s">
         <v>194</v>
@@ -6544,7 +6565,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B213" t="s">
         <v>194</v>
@@ -6552,7 +6573,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B214" t="s">
         <v>194</v>
@@ -6560,7 +6581,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B215" t="s">
         <v>194</v>
@@ -6568,7 +6589,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B216" t="s">
         <v>194</v>
@@ -6576,7 +6597,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B217" t="s">
         <v>194</v>
@@ -6584,7 +6605,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B218" t="s">
         <v>194</v>
@@ -6592,7 +6613,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B219" t="s">
         <v>194</v>
@@ -6600,7 +6621,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B220" t="s">
         <v>194</v>
@@ -6608,7 +6629,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B221" t="s">
         <v>194</v>
@@ -6616,7 +6637,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B222" t="s">
         <v>194</v>
@@ -6624,7 +6645,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B223" t="s">
         <v>194</v>
@@ -6632,15 +6653,15 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B224" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B225" t="s">
         <v>195</v>
@@ -6648,7 +6669,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B226" t="s">
         <v>195</v>
@@ -6656,15 +6677,23 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B227" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>402</v>
+      </c>
+      <c r="B228" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A144:A163">
-    <sortCondition ref="A163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A145:A164">
+    <sortCondition ref="A164"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6677,7 +6706,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6878,13 +6907,16 @@
         <v>333</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6915,7 +6947,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -6929,7 +6961,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -6943,7 +6975,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>338</v>
       </c>
@@ -6957,7 +6989,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>438</v>
       </c>
@@ -6971,7 +7003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>339</v>
       </c>
@@ -6985,7 +7017,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>340</v>
       </c>
@@ -6997,9 +7029,6 @@
       </c>
       <c r="D22" t="s">
         <v>178</v>
-      </c>
-      <c r="E22" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7040,7 +7069,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7123,9 +7152,6 @@
       <c r="D5" t="s">
         <v>178</v>
       </c>
-      <c r="E5" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7281,7 +7307,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>356</v>
       </c>
@@ -7295,7 +7321,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>357</v>
       </c>
@@ -7308,11 +7334,8 @@
       <c r="D18" t="s">
         <v>180</v>
       </c>
-      <c r="E18" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>358</v>
       </c>
@@ -7326,7 +7349,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>359</v>
       </c>
@@ -7340,7 +7363,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>360</v>
       </c>
@@ -7354,7 +7377,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -7368,7 +7391,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -7408,7 +7431,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7525,13 +7548,16 @@
         <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D8" t="s">
         <v>178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7588,7 +7614,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7775,13 +7801,16 @@
         <v>382</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D13" t="s">
         <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8213,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8284,14 +8313,14 @@
         <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
@@ -8299,15 +8328,15 @@
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8316,7 +8345,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8331,7 +8360,7 @@
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$41,통계!F$2)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$41,통계!G$2)</f>
@@ -8339,7 +8368,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$41,통계!H$2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -8348,30 +8377,30 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f>SUM(E5:H5)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!E$2)</f>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!F$2)</f>
-        <v>19</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
+        <v>17</v>
       </c>
       <c r="G5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!G$2)</f>
-        <v>2</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!G$2)</f>
+        <v>4</v>
       </c>
       <c r="H5">
-        <f>COUNTIF('경기, 인천'!$D$2:$D$33,통계!H$2)</f>
-        <v>11</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -8380,7 +8409,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8412,7 +8441,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8444,7 +8473,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8476,7 +8505,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8491,7 +8520,7 @@
       </c>
       <c r="F9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!F$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!G$2)</f>
@@ -8499,7 +8528,7 @@
       </c>
       <c r="H9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!H$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -8508,7 +8537,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8523,11 +8552,11 @@
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
@@ -8540,7 +8569,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8555,11 +8584,11 @@
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!G$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!H$2)</f>
@@ -8572,7 +8601,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8604,7 +8633,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8636,7 +8665,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8668,7 +8697,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8700,7 +8729,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>04.26 22시</v>
+        <v>04.28 14시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8737,8 +8766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8793,9 +8822,6 @@
       <c r="D3" t="s">
         <v>199</v>
       </c>
-      <c r="E3" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8956,13 +8982,16 @@
         <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="E15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8979,7 +9008,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -8993,7 +9022,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -9007,7 +9036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -9021,7 +9050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -9035,7 +9064,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>430</v>
       </c>
@@ -9049,7 +9078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>216</v>
       </c>
@@ -9063,7 +9092,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>486</v>
       </c>
@@ -9076,11 +9105,8 @@
       <c r="D23" t="s">
         <v>199</v>
       </c>
-      <c r="E23" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>316</v>
       </c>
@@ -9094,7 +9120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>434</v>
       </c>
@@ -9108,7 +9134,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>431</v>
       </c>
@@ -9122,7 +9148,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>218</v>
       </c>
@@ -9136,7 +9162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -9150,7 +9176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -9164,7 +9190,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -9178,7 +9204,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -9192,7 +9218,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>221</v>
       </c>
@@ -9386,10 +9412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9450,13 +9476,16 @@
         <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9627,225 +9656,234 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>240</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>242</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>405</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>435</v>
-      </c>
-      <c r="B20" t="s">
-        <v>406</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>414</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>244</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>405</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>442</v>
-      </c>
-      <c r="B23" t="s">
-        <v>406</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>245</v>
       </c>
       <c r="B24" t="s">
         <v>406</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>443</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>409</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="D25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>247</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>248</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>405</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>249</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>250</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>251</v>
-      </c>
-      <c r="B31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>417</v>
       </c>
       <c r="B32" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>180</v>
@@ -9853,33 +9891,47 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>252</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A35">
-    <sortCondition ref="A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A36">
+    <sortCondition ref="A36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9895,29 +9947,30 @@
     <hyperlink ref="C13" r:id="rId10" xr:uid="{43080C81-2BD2-439A-B01E-DBB2F8AC931A}"/>
     <hyperlink ref="C15" r:id="rId11" xr:uid="{D2E6A38D-6E54-4AF0-AD5E-0D85540710C1}"/>
     <hyperlink ref="C16" r:id="rId12" xr:uid="{5D94EC56-303A-4758-9F25-49F05E389523}"/>
-    <hyperlink ref="C17" r:id="rId13" display="http://www.yewon.ac.kr/" xr:uid="{5FF351E9-CDFA-45E9-8535-07B4F018B627}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{18265E56-BA80-4A84-9FCC-0D2592FF3936}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{CE2E2F78-BC25-46A5-AD3F-BB429654EA0C}"/>
-    <hyperlink ref="C24" r:id="rId16" display="http://www.cha.ac.kr/" xr:uid="{3B4F6DE7-43E5-4512-9AB9-63691B6B83D5}"/>
-    <hyperlink ref="C26" r:id="rId17" display="http://www.ptu.ac.kr/" xr:uid="{1942865B-F937-426C-9DB2-BD210AB61A4B}"/>
-    <hyperlink ref="C27" r:id="rId18" xr:uid="{2106A05C-9314-49B3-88EE-AB4385350EA6}"/>
-    <hyperlink ref="C28" r:id="rId19" display="http://www.kpu.ac.kr/" xr:uid="{91E5F6EF-D06B-4451-9661-731FD8DF10FC}"/>
-    <hyperlink ref="C29" r:id="rId20" display="http://www.kau.ac.kr/" xr:uid="{EE218B0D-47CA-4F1C-AE52-90DD2E1F1A64}"/>
-    <hyperlink ref="C30" r:id="rId21" display="https://search.naver.com/p/crd/rd?m=1&amp;px=227&amp;py=318&amp;sx=227&amp;sy=318&amp;p=Uoy%2Fswp0Yidssu3o0Fhssssss2R-517501&amp;q=%ED%95%9C%EC%84%B8%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=Ot70LUQnfWG9e%2B3iILSwXg%3D%3D&amp;time=1586282245967&amp;bt=18&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973A6&amp;u=http%3A%2F%2Fwww.hansei.ac.kr%2F&amp;cr=1" xr:uid="{DCD8E381-F49B-47AF-ACA9-06B2125FDCEC}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{1409A9FB-81AF-4A08-A6C4-A24578DE2B31}"/>
-    <hyperlink ref="C32" r:id="rId23" display="https://www.uhs.ac.kr/" xr:uid="{5AB25DC6-4759-4515-BBBB-DD9CD22AF838}"/>
-    <hyperlink ref="C21" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
-    <hyperlink ref="C22" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
+    <hyperlink ref="C18" r:id="rId13" display="http://www.yewon.ac.kr/" xr:uid="{5FF351E9-CDFA-45E9-8535-07B4F018B627}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{18265E56-BA80-4A84-9FCC-0D2592FF3936}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{CE2E2F78-BC25-46A5-AD3F-BB429654EA0C}"/>
+    <hyperlink ref="C25" r:id="rId16" display="http://www.cha.ac.kr/" xr:uid="{3B4F6DE7-43E5-4512-9AB9-63691B6B83D5}"/>
+    <hyperlink ref="C27" r:id="rId17" display="http://www.ptu.ac.kr/" xr:uid="{1942865B-F937-426C-9DB2-BD210AB61A4B}"/>
+    <hyperlink ref="C28" r:id="rId18" xr:uid="{2106A05C-9314-49B3-88EE-AB4385350EA6}"/>
+    <hyperlink ref="C29" r:id="rId19" display="http://www.kpu.ac.kr/" xr:uid="{91E5F6EF-D06B-4451-9661-731FD8DF10FC}"/>
+    <hyperlink ref="C30" r:id="rId20" display="http://www.kau.ac.kr/" xr:uid="{EE218B0D-47CA-4F1C-AE52-90DD2E1F1A64}"/>
+    <hyperlink ref="C31" r:id="rId21" display="https://search.naver.com/p/crd/rd?m=1&amp;px=227&amp;py=318&amp;sx=227&amp;sy=318&amp;p=Uoy%2Fswp0Yidssu3o0Fhssssss2R-517501&amp;q=%ED%95%9C%EC%84%B8%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=Ot70LUQnfWG9e%2B3iILSwXg%3D%3D&amp;time=1586282245967&amp;bt=18&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973A6&amp;u=http%3A%2F%2Fwww.hansei.ac.kr%2F&amp;cr=1" xr:uid="{DCD8E381-F49B-47AF-ACA9-06B2125FDCEC}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{1409A9FB-81AF-4A08-A6C4-A24578DE2B31}"/>
+    <hyperlink ref="C33" r:id="rId23" display="https://www.uhs.ac.kr/" xr:uid="{5AB25DC6-4759-4515-BBBB-DD9CD22AF838}"/>
+    <hyperlink ref="C22" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
+    <hyperlink ref="C23" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
     <hyperlink ref="C2" r:id="rId26" xr:uid="{C17D5B82-699C-440F-A448-8084B4A509EC}"/>
-    <hyperlink ref="C33" r:id="rId27" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
+    <hyperlink ref="C34" r:id="rId27" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
     <hyperlink ref="C8" r:id="rId28" display="https://www.stu.ac.kr/" xr:uid="{FF25DE5A-B30D-4547-9886-F19255D37A4D}"/>
     <hyperlink ref="C14" r:id="rId29" display="http://www.acts.ac.kr/" xr:uid="{926083F2-5580-42D2-BA71-8C5D5CEE3ABE}"/>
-    <hyperlink ref="C20" r:id="rId30" display="https://www.iccu.ac.kr/" xr:uid="{3EB9D6BF-AEF1-4738-9B4B-D18FF5DC18D5}"/>
-    <hyperlink ref="C23" r:id="rId31" display="http://www.sangha.ac.kr/" xr:uid="{BD12DACE-8567-4F3D-88F5-67A8B0CE47B1}"/>
-    <hyperlink ref="C25" r:id="rId32" display="http://www.calvin.ac.kr/" xr:uid="{023579C3-0719-43AE-A87B-7BD2B77E1FE5}"/>
+    <hyperlink ref="C21" r:id="rId30" display="https://www.iccu.ac.kr/" xr:uid="{3EB9D6BF-AEF1-4738-9B4B-D18FF5DC18D5}"/>
+    <hyperlink ref="C24" r:id="rId31" display="http://www.sangha.ac.kr/" xr:uid="{BD12DACE-8567-4F3D-88F5-67A8B0CE47B1}"/>
+    <hyperlink ref="C26" r:id="rId32" display="http://www.calvin.ac.kr/" xr:uid="{023579C3-0719-43AE-A87B-7BD2B77E1FE5}"/>
+    <hyperlink ref="C17" r:id="rId33" display="http://www.yit.ac.kr/" xr:uid="{1B6E54B7-EEE3-4762-99CE-C0CD33CBBC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -9925,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF74F4-3890-4AC5-9177-01D64768D9F8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9979,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10007,7 +10060,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10021,7 +10074,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10063,7 +10116,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -10082,6 +10135,7 @@
     <hyperlink ref="C2" r:id="rId8" display="https://search.naver.com/p/crd/rd?m=1&amp;px=217&amp;py=314&amp;sx=217&amp;sy=314&amp;p=Uq6dZwprvhGssuC2hjKssssstqK-355298&amp;q=%EA%B0%80%ED%86%A8%EB%A6%AD+%EA%B4%80%EB%8F%99%EB%8C%80%ED%95%99%EA%B5%90&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=HHoAB%2FfqP%2FiC73xuO7nv%2BQ%3D%3D&amp;time=1587712135325&amp;bt=10&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000974F6&amp;u=http%3A%2F%2Fwww.cku.ac.kr%2F&amp;cr=1" xr:uid="{693DA728-A43D-4A3F-97D9-990A2BE61284}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -10090,7 +10144,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10145,16 +10199,13 @@
       <c r="D3" t="s">
         <v>178</v>
       </c>
-      <c r="E3" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>459</v>
@@ -10217,9 +10268,6 @@
       </c>
       <c r="D8" t="s">
         <v>180</v>
-      </c>
-      <c r="E8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10339,7 +10387,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10505,9 +10553,6 @@
       </c>
       <c r="D11" t="s">
         <v>178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10791,7 +10836,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10866,13 +10911,16 @@
         <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10901,9 +10949,6 @@
       </c>
       <c r="D7" t="s">
         <v>199</v>
-      </c>
-      <c r="E7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10958,7 +11003,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10991,13 +11036,16 @@
         <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E961A-B02E-47EB-AFAE-0D9D6FA35F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983F866-E4A8-4860-978A-81921608E2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="496">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4464,7 +4464,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.29 19시</t>
+    <r>
+      <t>http://www.knsu.ac.kr/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>한국체육대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.30 18시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4875,10 +4900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5193,7 +5218,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>493</v>
       </c>
       <c r="B39" t="s">
         <v>169</v>
@@ -5201,7 +5226,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
         <v>169</v>
@@ -5209,7 +5234,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
         <v>169</v>
@@ -5217,15 +5242,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
         <v>173</v>
@@ -5233,7 +5258,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
         <v>173</v>
@@ -5241,7 +5266,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
         <v>173</v>
@@ -5249,7 +5274,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
         <v>173</v>
@@ -5257,7 +5282,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
         <v>173</v>
@@ -5265,7 +5290,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
         <v>173</v>
@@ -5273,7 +5298,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s">
         <v>173</v>
@@ -5281,7 +5306,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
         <v>173</v>
@@ -5289,7 +5314,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
         <v>173</v>
@@ -5297,7 +5322,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
         <v>173</v>
@@ -5305,7 +5330,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
         <v>173</v>
@@ -5313,7 +5338,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
         <v>173</v>
@@ -5321,7 +5346,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s">
         <v>173</v>
@@ -5329,7 +5354,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s">
         <v>173</v>
@@ -5337,7 +5362,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>473</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
         <v>173</v>
@@ -5345,7 +5370,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>473</v>
       </c>
       <c r="B58" t="s">
         <v>173</v>
@@ -5353,7 +5378,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -5361,7 +5386,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
         <v>173</v>
@@ -5369,7 +5394,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>419</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
         <v>173</v>
@@ -5377,7 +5402,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
         <v>173</v>
@@ -5385,7 +5410,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
         <v>173</v>
@@ -5393,7 +5418,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>173</v>
@@ -5401,7 +5426,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s">
         <v>173</v>
@@ -5409,7 +5434,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>427</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s">
         <v>173</v>
@@ -5417,7 +5442,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s">
         <v>173</v>
@@ -5425,7 +5450,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
         <v>173</v>
@@ -5433,7 +5458,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
         <v>173</v>
@@ -5441,7 +5466,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
         <v>173</v>
@@ -5449,7 +5474,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
         <v>173</v>
@@ -5457,7 +5482,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
         <v>173</v>
@@ -5465,7 +5490,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>401</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -5473,7 +5498,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s">
         <v>173</v>
@@ -5481,15 +5506,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>450</v>
       </c>
       <c r="B76" t="s">
         <v>184</v>
@@ -5497,7 +5522,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>184</v>
@@ -5505,7 +5530,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
         <v>184</v>
@@ -5513,7 +5538,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
         <v>184</v>
@@ -5521,7 +5546,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
         <v>184</v>
@@ -5529,7 +5554,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
         <v>184</v>
@@ -5537,7 +5562,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s">
         <v>184</v>
@@ -5545,15 +5570,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
         <v>170</v>
@@ -5561,7 +5586,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
         <v>170</v>
@@ -5569,7 +5594,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B86" t="s">
         <v>170</v>
@@ -5577,7 +5602,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>246</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
@@ -5585,7 +5610,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
         <v>170</v>
@@ -5593,7 +5618,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
         <v>170</v>
@@ -5601,7 +5626,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
         <v>170</v>
@@ -5609,7 +5634,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B91" t="s">
         <v>170</v>
@@ -5617,7 +5642,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>170</v>
@@ -5625,7 +5650,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>421</v>
       </c>
       <c r="B93" t="s">
         <v>170</v>
@@ -5633,7 +5658,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
         <v>170</v>
@@ -5641,7 +5666,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
         <v>170</v>
@@ -5649,15 +5674,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B96" t="s">
-        <v>387</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
         <v>387</v>
@@ -5665,7 +5690,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
         <v>387</v>
@@ -5673,7 +5698,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
         <v>387</v>
@@ -5681,7 +5706,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
         <v>387</v>
@@ -5689,7 +5714,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B101" t="s">
         <v>387</v>
@@ -5697,7 +5722,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B102" t="s">
         <v>387</v>
@@ -5705,7 +5730,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B103" t="s">
         <v>387</v>
@@ -5713,7 +5738,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B104" t="s">
         <v>387</v>
@@ -5721,7 +5746,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B105" t="s">
         <v>387</v>
@@ -5729,7 +5754,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B106" t="s">
         <v>387</v>
@@ -5737,7 +5762,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B107" t="s">
         <v>387</v>
@@ -5745,7 +5770,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B108" t="s">
         <v>387</v>
@@ -5753,7 +5778,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B109" t="s">
         <v>387</v>
@@ -5761,7 +5786,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="B110" t="s">
         <v>387</v>
@@ -5769,7 +5794,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="B111" t="s">
         <v>387</v>
@@ -5777,7 +5802,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B112" t="s">
         <v>387</v>
@@ -5785,7 +5810,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B113" t="s">
         <v>387</v>
@@ -5793,7 +5818,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s">
         <v>387</v>
@@ -5801,7 +5826,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B115" t="s">
         <v>387</v>
@@ -5809,7 +5834,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
         <v>387</v>
@@ -5817,7 +5842,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
         <v>387</v>
@@ -5825,7 +5850,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B118" t="s">
         <v>387</v>
@@ -5833,7 +5858,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B119" t="s">
         <v>387</v>
@@ -5841,7 +5866,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B120" t="s">
         <v>387</v>
@@ -5849,7 +5874,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B121" t="s">
         <v>387</v>
@@ -5857,7 +5882,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B122" t="s">
         <v>387</v>
@@ -5865,15 +5890,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>436</v>
+        <v>279</v>
       </c>
       <c r="B124" t="s">
         <v>171</v>
@@ -5881,7 +5906,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="B125" t="s">
         <v>171</v>
@@ -5889,7 +5914,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B126" t="s">
         <v>171</v>
@@ -5897,7 +5922,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B127" t="s">
         <v>171</v>
@@ -5905,7 +5930,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B128" t="s">
         <v>171</v>
@@ -5913,7 +5938,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B129" t="s">
         <v>171</v>
@@ -5921,7 +5946,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B130" t="s">
         <v>171</v>
@@ -5929,15 +5954,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B132" t="s">
         <v>172</v>
@@ -5945,7 +5970,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B133" t="s">
         <v>172</v>
@@ -5953,7 +5978,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B134" t="s">
         <v>172</v>
@@ -5961,7 +5986,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
         <v>172</v>
@@ -5969,7 +5994,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="B136" t="s">
         <v>172</v>
@@ -5977,7 +6002,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s">
         <v>172</v>
@@ -5985,7 +6010,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="B138" t="s">
         <v>172</v>
@@ -5993,7 +6018,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="B139" t="s">
         <v>172</v>
@@ -6001,7 +6026,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s">
         <v>172</v>
@@ -6009,7 +6034,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
         <v>172</v>
@@ -6017,7 +6042,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
         <v>172</v>
@@ -6025,7 +6050,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s">
         <v>172</v>
@@ -6033,7 +6058,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s">
         <v>172</v>
@@ -6041,15 +6066,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B146" t="s">
         <v>174</v>
@@ -6057,7 +6082,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B147" t="s">
         <v>174</v>
@@ -6065,7 +6090,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B148" t="s">
         <v>174</v>
@@ -6073,7 +6098,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B149" t="s">
         <v>174</v>
@@ -6081,7 +6106,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
         <v>174</v>
@@ -6089,7 +6114,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B151" t="s">
         <v>174</v>
@@ -6097,7 +6122,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B152" t="s">
         <v>174</v>
@@ -6105,7 +6130,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B153" t="s">
         <v>174</v>
@@ -6113,7 +6138,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="B154" t="s">
         <v>174</v>
@@ -6121,7 +6146,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s">
         <v>174</v>
@@ -6129,7 +6154,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B156" t="s">
         <v>174</v>
@@ -6137,7 +6162,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B157" t="s">
         <v>174</v>
@@ -6145,7 +6170,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s">
         <v>174</v>
@@ -6153,7 +6178,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
         <v>174</v>
@@ -6161,7 +6186,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B160" t="s">
         <v>174</v>
@@ -6169,7 +6194,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
         <v>174</v>
@@ -6177,7 +6202,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B162" t="s">
         <v>174</v>
@@ -6185,7 +6210,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="B163" t="s">
         <v>174</v>
@@ -6193,7 +6218,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="B164" t="s">
         <v>174</v>
@@ -6201,7 +6226,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
         <v>174</v>
@@ -6209,15 +6234,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s">
         <v>175</v>
@@ -6225,7 +6250,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="B168" t="s">
         <v>175</v>
@@ -6233,7 +6258,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>175</v>
@@ -6241,7 +6266,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170" t="s">
         <v>175</v>
@@ -6249,7 +6274,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B171" t="s">
         <v>175</v>
@@ -6257,7 +6282,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B172" t="s">
         <v>175</v>
@@ -6265,7 +6290,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B173" t="s">
         <v>175</v>
@@ -6273,7 +6298,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -6281,7 +6306,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
@@ -6289,7 +6314,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
@@ -6297,7 +6322,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="B177" t="s">
         <v>175</v>
@@ -6305,7 +6330,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="B178" t="s">
         <v>175</v>
@@ -6313,7 +6338,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B179" t="s">
         <v>175</v>
@@ -6321,7 +6346,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B180" t="s">
         <v>175</v>
@@ -6329,7 +6354,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B181" t="s">
         <v>175</v>
@@ -6337,7 +6362,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B182" t="s">
         <v>175</v>
@@ -6345,7 +6370,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B183" t="s">
         <v>175</v>
@@ -6353,7 +6378,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B184" t="s">
         <v>175</v>
@@ -6361,7 +6386,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B185" t="s">
         <v>175</v>
@@ -6369,7 +6394,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B186" t="s">
         <v>175</v>
@@ -6377,15 +6402,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="B188" t="s">
         <v>176</v>
@@ -6393,7 +6418,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="B189" t="s">
         <v>176</v>
@@ -6401,7 +6426,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B190" t="s">
         <v>176</v>
@@ -6409,7 +6434,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B191" t="s">
         <v>176</v>
@@ -6417,7 +6442,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B192" t="s">
         <v>176</v>
@@ -6425,7 +6450,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B193" t="s">
         <v>176</v>
@@ -6433,7 +6458,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B194" t="s">
         <v>176</v>
@@ -6441,7 +6466,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B195" t="s">
         <v>176</v>
@@ -6449,15 +6474,15 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B196" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B197" t="s">
         <v>177</v>
@@ -6465,7 +6490,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B198" t="s">
         <v>177</v>
@@ -6473,7 +6498,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B199" t="s">
         <v>177</v>
@@ -6481,7 +6506,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B200" t="s">
         <v>177</v>
@@ -6489,7 +6514,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B201" t="s">
         <v>177</v>
@@ -6497,7 +6522,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B202" t="s">
         <v>177</v>
@@ -6505,7 +6530,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B203" t="s">
         <v>177</v>
@@ -6513,7 +6538,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B204" t="s">
         <v>177</v>
@@ -6521,7 +6546,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B205" t="s">
         <v>177</v>
@@ -6529,7 +6554,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B206" t="s">
         <v>177</v>
@@ -6537,7 +6562,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B207" t="s">
         <v>177</v>
@@ -6545,7 +6570,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B208" t="s">
         <v>177</v>
@@ -6553,7 +6578,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B209" t="s">
         <v>177</v>
@@ -6561,7 +6586,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B210" t="s">
         <v>177</v>
@@ -6569,15 +6594,15 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B211" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B212" t="s">
         <v>178</v>
@@ -6585,7 +6610,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B213" t="s">
         <v>178</v>
@@ -6593,7 +6618,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B214" t="s">
         <v>178</v>
@@ -6601,7 +6626,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B215" t="s">
         <v>178</v>
@@ -6609,7 +6634,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B216" t="s">
         <v>178</v>
@@ -6617,7 +6642,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B217" t="s">
         <v>178</v>
@@ -6625,7 +6650,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B218" t="s">
         <v>178</v>
@@ -6633,7 +6658,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B219" t="s">
         <v>178</v>
@@ -6641,7 +6666,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B220" t="s">
         <v>178</v>
@@ -6649,7 +6674,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B221" t="s">
         <v>178</v>
@@ -6657,7 +6682,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B222" t="s">
         <v>178</v>
@@ -6665,7 +6690,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B223" t="s">
         <v>178</v>
@@ -6673,7 +6698,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B224" t="s">
         <v>178</v>
@@ -6681,15 +6706,15 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B225" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B226" t="s">
         <v>179</v>
@@ -6697,7 +6722,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B227" t="s">
         <v>179</v>
@@ -6705,15 +6730,23 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B228" t="s">
         <v>179</v>
       </c>
     </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>386</v>
+      </c>
+      <c r="B229" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A145:A164">
-    <sortCondition ref="A164"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A146:A165">
+    <sortCondition ref="A165"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6767,9 +6800,6 @@
       <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6832,13 +6862,16 @@
         <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6854,9 +6887,6 @@
       <c r="D8" t="s">
         <v>164</v>
       </c>
-      <c r="E8" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6871,9 +6901,6 @@
       <c r="D9" t="s">
         <v>183</v>
       </c>
-      <c r="E9" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6902,9 +6929,6 @@
       <c r="D11" t="s">
         <v>183</v>
       </c>
-      <c r="E11" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6975,9 +6999,6 @@
       <c r="D16" t="s">
         <v>163</v>
       </c>
-      <c r="E16" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -7020,22 +7041,22 @@
       <c r="D19" t="s">
         <v>164</v>
       </c>
-      <c r="E19" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>422</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>398</v>
+      </c>
+      <c r="E20" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7050,9 +7071,6 @@
       </c>
       <c r="D21" t="s">
         <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -7107,7 +7125,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7238,13 +7256,16 @@
         <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7344,11 +7365,8 @@
       <c r="D16" t="s">
         <v>164</v>
       </c>
-      <c r="E16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>340</v>
       </c>
@@ -7362,7 +7380,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>341</v>
       </c>
@@ -7376,7 +7394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>342</v>
       </c>
@@ -7389,11 +7407,8 @@
       <c r="D19" t="s">
         <v>183</v>
       </c>
-      <c r="E19" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -7407,7 +7422,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -7421,7 +7436,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -7435,7 +7450,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -7614,9 +7629,6 @@
       <c r="D9" t="s">
         <v>162</v>
       </c>
-      <c r="E9" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7658,7 +7670,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7713,9 +7725,6 @@
       <c r="D3" t="s">
         <v>183</v>
       </c>
-      <c r="E3" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7828,9 +7837,6 @@
       <c r="D11" t="s">
         <v>164</v>
       </c>
-      <c r="E11" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7845,9 +7851,6 @@
       <c r="D12" t="s">
         <v>162</v>
       </c>
-      <c r="E12" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7890,9 +7893,6 @@
       <c r="D15" t="s">
         <v>162</v>
       </c>
-      <c r="E15" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7906,9 +7906,6 @@
       </c>
       <c r="D16" t="s">
         <v>162</v>
-      </c>
-      <c r="E16" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7983,9 +7980,6 @@
       <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8014,9 +8008,6 @@
       <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8031,9 +8022,6 @@
       <c r="D5" t="s">
         <v>164</v>
       </c>
-      <c r="E5" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8076,9 +8064,6 @@
       <c r="D8" t="s">
         <v>162</v>
       </c>
-      <c r="E8" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8092,9 +8077,6 @@
       </c>
       <c r="D9" t="s">
         <v>162</v>
-      </c>
-      <c r="E9" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -8211,7 +8193,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8317,8 +8299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8388,14 +8370,14 @@
         <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>SUM(D4:D16)</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
@@ -8403,15 +8385,15 @@
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8420,30 +8402,30 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f>SUM(E4:H4)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(서울!$D$2:$D$41,통계!E$2)</f>
+        <f>COUNTIF(서울!$D$2:$D$42,통계!E$2)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(서울!$D$2:$D$41,통계!F$2)</f>
-        <v>11</v>
+        <f>COUNTIF(서울!$D$2:$D$42,통계!F$2)</f>
+        <v>8</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(서울!$D$2:$D$41,통계!G$2)</f>
-        <v>15</v>
+        <f>COUNTIF(서울!$D$2:$D$42,통계!G$2)</f>
+        <v>17</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(서울!$D$2:$D$41,통계!H$2)</f>
-        <v>14</v>
+        <f>COUNTIF(서울!$D$2:$D$42,통계!H$2)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -8452,7 +8434,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8484,7 +8466,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8516,7 +8498,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8548,7 +8530,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8580,7 +8562,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8612,7 +8594,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8627,7 +8609,7 @@
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
@@ -8635,7 +8617,7 @@
       </c>
       <c r="H10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -8644,7 +8626,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8659,11 +8641,11 @@
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!G$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!H$2)</f>
@@ -8676,7 +8658,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8691,7 +8673,7 @@
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!F$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!G$2)</f>
@@ -8699,7 +8681,7 @@
       </c>
       <c r="H12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!H$2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -8708,7 +8690,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8740,7 +8722,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8772,7 +8754,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8804,7 +8786,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>04.29 19시</v>
+        <v>04.30 18시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8839,10 +8821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8981,9 +8963,6 @@
       <c r="D9" t="s">
         <v>183</v>
       </c>
-      <c r="E9" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9018,13 +8997,16 @@
         <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -9040,9 +9022,6 @@
       <c r="D13" t="s">
         <v>183</v>
       </c>
-      <c r="E13" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -9071,9 +9050,6 @@
       <c r="D15" t="s">
         <v>164</v>
       </c>
-      <c r="E15" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9313,7 +9289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -9327,7 +9303,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -9341,7 +9317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -9355,21 +9331,24 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>417</v>
       </c>
@@ -9383,7 +9362,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>305</v>
       </c>
@@ -9397,50 +9376,70 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>493</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>208</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>210</v>
       </c>
-      <c r="B41" t="s">
-        <v>389</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D41" t="s">
-        <v>162</v>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C44">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9448,7 +9447,7 @@
     <hyperlink ref="C31" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{CA890462-92C6-4EDD-974E-8FC9FFBF2916}"/>
     <hyperlink ref="C33" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{68619778-09C6-4527-B589-283352564DC1}"/>
     <hyperlink ref="C22" r:id="rId3" display="http://www.snu.ac.kr/" xr:uid="{A6B584FA-785E-42A8-A3A7-55B08A375219}"/>
-    <hyperlink ref="C40" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
+    <hyperlink ref="C41" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
     <hyperlink ref="C38" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{A9B49AA0-E132-48A9-B46D-5C53D1EAAE96}"/>
     <hyperlink ref="C6" r:id="rId6" display="http://www.khu.ac.kr/" xr:uid="{33A0EB7E-6BC9-48CE-AADD-78FC8C621D43}"/>
     <hyperlink ref="C27" r:id="rId7" display="http://www.skku.edu/" xr:uid="{E782C97A-C95D-480E-A523-192DA3F055A2}"/>
@@ -9463,8 +9462,8 @@
     <hyperlink ref="C18" r:id="rId16" display="https://www.skuniv.ac.kr/" xr:uid="{0920E59E-0E48-4BDA-868F-B969EE45D8B0}"/>
     <hyperlink ref="C19" r:id="rId17" display="http://www.seoultech.ac.kr/" xr:uid="{52BCE29D-209C-4DEF-BD15-2FA5F566F4DD}"/>
     <hyperlink ref="C36" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{6393596F-F5DB-4244-BA1B-05FA1EA91955}"/>
-    <hyperlink ref="C39" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
-    <hyperlink ref="C41" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
+    <hyperlink ref="C40" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
+    <hyperlink ref="C42" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
     <hyperlink ref="C2" r:id="rId21" display="http://www.kcu.ac.kr/" xr:uid="{A0E22F32-38CE-435A-850E-0D61E2A6E13D}"/>
     <hyperlink ref="C20" r:id="rId22" display="http://www.snue.ac.kr/" xr:uid="{67DF2720-EA5B-48C6-9708-75D616832FD9}"/>
     <hyperlink ref="C11" r:id="rId23" xr:uid="{A4A0B137-AB0D-4F9D-9C7F-1C7434D21C84}"/>
@@ -9485,9 +9484,10 @@
     <hyperlink ref="C34" r:id="rId38" xr:uid="{FBBB5CA9-B6CB-432E-8CAE-584937B44C0F}"/>
     <hyperlink ref="C37" r:id="rId39" xr:uid="{44D44942-F435-433E-8E27-AB63D7CE1B97}"/>
     <hyperlink ref="C23" r:id="rId40" display="http://www.uos.ac.kr/" xr:uid="{04861031-B3BA-4312-99F0-52F0F6BBC859}"/>
+    <hyperlink ref="C39" r:id="rId41" display="http://www.knsu.ac.kr/" xr:uid="{505A1D7D-41FE-4AB0-9A39-7F7C7389D6EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -9495,8 +9495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9565,9 +9565,6 @@
       <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9602,13 +9599,16 @@
         <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9638,9 +9638,6 @@
       <c r="D9" t="s">
         <v>162</v>
       </c>
-      <c r="E9" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9655,9 +9652,6 @@
       <c r="D10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9686,9 +9680,6 @@
       <c r="D12" t="s">
         <v>162</v>
       </c>
-      <c r="E12" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9751,13 +9742,16 @@
         <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>474</v>
       </c>
       <c r="D17" t="s">
         <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9843,9 +9837,6 @@
       <c r="D23" t="s">
         <v>183</v>
       </c>
-      <c r="E23" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -9902,9 +9893,6 @@
       <c r="D27" t="s">
         <v>162</v>
       </c>
-      <c r="E27" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -9960,9 +9948,6 @@
       </c>
       <c r="D31" t="s">
         <v>164</v>
-      </c>
-      <c r="E31" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -10069,7 +10054,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10233,7 +10218,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10491,7 +10476,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10574,9 +10559,6 @@
       <c r="D5" t="s">
         <v>183</v>
       </c>
-      <c r="E5" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -10647,9 +10629,6 @@
       <c r="D10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -10735,7 +10714,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -10748,11 +10727,8 @@
       <c r="D17" t="s">
         <v>183</v>
       </c>
-      <c r="E17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -10766,7 +10742,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -10780,7 +10756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -10794,7 +10770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>271</v>
       </c>
@@ -10808,7 +10784,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>272</v>
       </c>
@@ -10821,11 +10797,8 @@
       <c r="D22" t="s">
         <v>164</v>
       </c>
-      <c r="E22" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>273</v>
       </c>
@@ -10839,7 +10812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -10853,7 +10826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -10867,7 +10840,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -10881,7 +10854,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>277</v>
       </c>
@@ -10895,7 +10868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -10952,7 +10925,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11035,9 +11008,6 @@
       <c r="D5" t="s">
         <v>164</v>
       </c>
-      <c r="E5" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -11093,9 +11063,6 @@
       </c>
       <c r="D9" t="s">
         <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -11122,7 +11089,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11163,9 +11130,6 @@
       <c r="D2" t="s">
         <v>183</v>
       </c>
-      <c r="E2" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11186,13 +11150,16 @@
         <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983F866-E4A8-4860-978A-81921608E2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB10968-41C5-4E18-A083-B446CAC63E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="497">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4489,7 +4489,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.30 18시</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.01 18시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4902,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6759,7 +6763,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6870,9 +6874,6 @@
       <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="E7" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7000,7 +7001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>320</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>321</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>322</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>422</v>
       </c>
@@ -7055,11 +7056,8 @@
       <c r="D20" t="s">
         <v>398</v>
       </c>
-      <c r="E20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -7073,7 +7071,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -7264,9 +7262,6 @@
       <c r="D9" t="s">
         <v>165</v>
       </c>
-      <c r="E9" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7565,13 +7560,16 @@
         <v>348</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7857,13 +7855,16 @@
         <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7939,7 +7940,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8028,13 +8029,16 @@
         <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8193,7 +8197,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8247,9 +8251,6 @@
       </c>
       <c r="D3" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -8297,10 +8298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8370,7 +8371,7 @@
         <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -8385,7 +8386,7 @@
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
@@ -8393,7 +8394,7 @@
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8402,7 +8403,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8434,7 +8435,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8498,7 +8499,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8513,7 +8514,7 @@
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!F$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!G$2)</f>
@@ -8521,7 +8522,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!H$2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -8530,7 +8531,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8562,7 +8563,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8594,7 +8595,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8626,7 +8627,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8658,7 +8659,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8690,7 +8691,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8722,7 +8723,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8737,7 +8738,7 @@
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
@@ -8745,7 +8746,7 @@
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -8754,7 +8755,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8769,7 +8770,7 @@
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
@@ -8777,7 +8778,7 @@
       </c>
       <c r="H15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -8786,7 +8787,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>04.30 18시</v>
+        <v>05.01 18시</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8810,6 +8811,11 @@
       <c r="H16">
         <f>COUNTIF(제주도!$D$2:$D$5,통계!H$2)</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8823,8 +8829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9005,9 +9011,6 @@
       <c r="D12" t="s">
         <v>164</v>
       </c>
-      <c r="E12" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9289,7 +9292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -9344,11 +9347,8 @@
       <c r="D36" t="s">
         <v>183</v>
       </c>
-      <c r="E36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>417</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>305</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>493</v>
       </c>
@@ -9389,11 +9389,8 @@
       <c r="D39" t="s">
         <v>164</v>
       </c>
-      <c r="E39" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -9407,7 +9404,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -9421,7 +9418,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -9433,9 +9430,6 @@
       </c>
       <c r="D42" t="s">
         <v>183</v>
-      </c>
-      <c r="E42" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -9495,8 +9489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9607,9 +9601,6 @@
       <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="E7" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -9737,7 +9728,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>473</v>
       </c>
@@ -9750,11 +9741,8 @@
       <c r="D17" t="s">
         <v>163</v>
       </c>
-      <c r="E17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -9768,7 +9756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -9782,7 +9770,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -9796,7 +9784,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>419</v>
       </c>
@@ -9810,7 +9798,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -9824,7 +9812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -9838,7 +9826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>426</v>
       </c>
@@ -9852,7 +9840,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>229</v>
       </c>
@@ -9866,7 +9854,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>427</v>
       </c>
@@ -9880,7 +9868,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -9894,7 +9882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -9908,7 +9896,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -9922,7 +9910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -9936,7 +9924,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -9950,7 +9938,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -10054,7 +10042,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10218,7 +10206,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10250,14 +10238,17 @@
       <c r="A2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>390</v>
+      <c r="B2" t="s">
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10287,9 +10278,6 @@
       <c r="D4" t="s">
         <v>164</v>
       </c>
-      <c r="E4" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -10332,9 +10320,6 @@
       <c r="D7" t="s">
         <v>164</v>
       </c>
-      <c r="E7" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -10363,9 +10348,6 @@
       <c r="D9" t="s">
         <v>163</v>
       </c>
-      <c r="E9" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -10394,9 +10376,6 @@
       <c r="D11" t="s">
         <v>164</v>
       </c>
-      <c r="E11" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -10424,9 +10403,6 @@
       </c>
       <c r="D13" t="s">
         <v>164</v>
-      </c>
-      <c r="E13" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10476,7 +10452,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11089,7 +11065,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11157,9 +11133,6 @@
       </c>
       <c r="D4" t="s">
         <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB10968-41C5-4E18-A083-B446CAC63E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CC2DC-F0C6-4C0F-A40A-FC3D77F8B60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="14" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="서울" sheetId="1" r:id="rId3"/>
     <sheet name="경기, 인천" sheetId="2" r:id="rId4"/>
     <sheet name="강원" sheetId="3" r:id="rId5"/>
-    <sheet name="대전" sheetId="4" r:id="rId6"/>
-    <sheet name="충청" sheetId="5" r:id="rId7"/>
+    <sheet name="충청" sheetId="5" r:id="rId6"/>
+    <sheet name="대전" sheetId="4" r:id="rId7"/>
     <sheet name="대구" sheetId="6" r:id="rId8"/>
     <sheet name="경북" sheetId="7" r:id="rId9"/>
     <sheet name="경남" sheetId="8" r:id="rId10"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="500">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -994,23 +994,6 @@
   </si>
   <si>
     <r>
-      <t>http://www.dgau.ac.kr/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t> </t>
     </r>
     <r>
@@ -1718,23 +1701,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://www.jnu.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>http://www.dorip.ac.kr/ </t>
     </r>
   </si>
@@ -1854,23 +1820,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://www.honam.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>http://www.gnue.ac.kr/ </t>
     </r>
   </si>
@@ -2478,10 +2427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5월</t>
   </si>
   <si>
@@ -3406,10 +3351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 8일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5월 18일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4493,8 +4434,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.01 18시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한적 대면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.daegu.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> http://www.honam.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.cst.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.05 18시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한적 대면</t>
   </si>
 </sst>
 </file>
@@ -4906,7 +4878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4918,1834 +4890,1834 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B99" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B101" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B104" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B105" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B106" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B108" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B109" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B110" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B111" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B112" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B113" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B116" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B117" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B118" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B119" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B122" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B123" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B133" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B137" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B143" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B144" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B145" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B183" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B184" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B191" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B192" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B193" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B194" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B195" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B196" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B197" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B198" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B201" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B202" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B204" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B205" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B206" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B207" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B212" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B214" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B215" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B216" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B217" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B218" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B219" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B220" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B221" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B222" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B223" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B224" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B226" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B227" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B228" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6760,10 +6732,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6774,315 +6746,363 @@
     <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>306</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>321</v>
-      </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>422</v>
-      </c>
-      <c r="B20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7120,10 +7140,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7134,318 +7154,375 @@
     <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>325</v>
       </c>
-      <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>327</v>
       </c>
-      <c r="B2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>328</v>
       </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>341</v>
-      </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -7482,10 +7559,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210BE4CD-4E6E-4BDE-AEFE-66E407052FA6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7496,150 +7573,174 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>347</v>
       </c>
-      <c r="B4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>348</v>
       </c>
-      <c r="B5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>349</v>
       </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7665,10 +7766,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4745446-AA4D-485D-BF63-540CC4A6ED8E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7679,234 +7780,255 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>354</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>357</v>
       </c>
-      <c r="B5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>358</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" t="s">
         <v>390</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" t="s">
-        <v>485</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" t="s">
-        <v>393</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -7937,10 +8059,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF38D9-4E2F-4E52-B04F-40A66B80F97A}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7951,220 +8073,241 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>370</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>371</v>
       </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>372</v>
       </c>
-      <c r="B4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>373</v>
       </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>374</v>
       </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>375</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>376</v>
       </c>
-      <c r="B8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>377</v>
       </c>
-      <c r="B9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>378</v>
       </c>
-      <c r="B10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>382</v>
-      </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -8194,10 +8337,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55EAC3E-6231-4C97-AE27-6524D4A1B3A7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8208,77 +8351,83 @@
     <col min="4" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -8300,15 +8449,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
@@ -8342,55 +8491,56 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>SUM(C4:C16)</f>
+        <v>228</v>
       </c>
       <c r="D3">
-        <f>SUM(D4:D16)</f>
-        <v>228</v>
+        <f>SUM(D$4:D$16)</f>
+        <v>3</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
@@ -8399,58 +8549,60 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" t="str">
-        <f>($B$3)</f>
-        <v>05.01 18시</v>
+        <f t="shared" ref="B4:B16" si="0">($B$3)</f>
+        <v>05.05 18시</v>
       </c>
       <c r="C4">
+        <f>SUM(D4:H4)</f>
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(서울!$D$2:$D$42,통계!D$2)</f>
         <v>0</v>
-      </c>
-      <c r="D4">
-        <f>SUM(E4:H4)</f>
-        <v>41</v>
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!E$2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!F$2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!G$2)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!H$2)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>05.01 18시</v>
+        <f t="shared" si="0"/>
+        <v>05.05 18시</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" ref="C5:C16" si="1">SUM(D5:H5)</f>
+        <v>33</v>
       </c>
       <c r="D5">
-        <f>SUM(E5:H5)</f>
-        <v>33</v>
+        <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!D$2)</f>
+        <v>1</v>
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!G$2)</f>
@@ -8463,26 +8615,27 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(강원!$D$2:$D$9,통계!D$2)</f>
         <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D16" si="1">SUM(E6:H6)</f>
-        <v>8</v>
       </c>
       <c r="E6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!E$2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!F$2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!G$2)</f>
@@ -8495,26 +8648,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="D7">
+        <f>COUNTIF(대전!$D$2:$D$14,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!E$2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!F$2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!G$2)</f>
@@ -8527,26 +8681,27 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
+      <c r="D8">
+        <f>COUNTIF(충청!$D$2:$D$28,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!E$2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!F$2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!G$2)</f>
@@ -8554,31 +8709,32 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!H$2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="D9">
+        <f>COUNTIF(대구!$D$2:$D$9,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!E$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!F$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!G$2)</f>
@@ -8591,26 +8747,27 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="D10">
+        <f>COUNTIF(경북!$D$2:$D$15,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!E$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!F$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>COUNTIF(경북!$D$2:$D$15,통계!G$2)</f>
@@ -8623,26 +8780,27 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="D11">
+        <f>COUNTIF(경남!$D$2:$D$22,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!E$2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!G$2)</f>
@@ -8655,26 +8813,27 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="D12">
+        <f>COUNTIF(부산!$D$2:$D$22,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!E$2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!F$2)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!G$2)</f>
@@ -8687,26 +8846,27 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="D13">
+        <f>COUNTIF(전북!$D$2:$D$10,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
@@ -8719,26 +8879,27 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="D14">
+        <f>COUNTIF(전남!$D$2:$D$16,통계!D$2)</f>
+        <v>2</v>
+      </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
@@ -8746,31 +8907,32 @@
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="D15">
+        <f>COUNTIF(광주!$D$2:$D$15,통계!D$2)</f>
+        <v>0</v>
+      </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
@@ -8778,23 +8940,24 @@
       </c>
       <c r="H15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>05.01 18시</v>
+        <v>05.05 18시</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(제주도!$D$2:$D$5,통계!D$2)</f>
+        <v>0</v>
       </c>
       <c r="E16">
         <f>COUNTIF(제주도!$D$2:$D$5,통계!E$2)</f>
@@ -8813,9 +8976,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>495</v>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -8827,10 +8990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8839,597 +9002,679 @@
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>181</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" t="s">
+        <v>467</v>
+      </c>
+      <c r="F34" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D35" t="s">
+        <v>393</v>
+      </c>
+      <c r="F35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>412</v>
       </c>
-      <c r="B3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>488</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>414</v>
-      </c>
-      <c r="B21" t="s">
-        <v>395</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>470</v>
-      </c>
-      <c r="B23" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>418</v>
-      </c>
-      <c r="B25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>415</v>
-      </c>
-      <c r="B26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>303</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" t="s">
-        <v>398</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D35" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>417</v>
-      </c>
-      <c r="B37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>305</v>
-      </c>
-      <c r="B38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>493</v>
-      </c>
-      <c r="B39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" t="s">
-        <v>398</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="F42" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -9487,10 +9732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9501,495 +9746,558 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
         <v>389</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>393</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
         <v>390</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>427</v>
-      </c>
-      <c r="B26" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" t="s">
-        <v>395</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
   </sheetData>
@@ -10024,13 +10332,13 @@
     <hyperlink ref="C22" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
     <hyperlink ref="C23" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
     <hyperlink ref="C2" r:id="rId26" xr:uid="{C17D5B82-699C-440F-A448-8084B4A509EC}"/>
-    <hyperlink ref="C34" r:id="rId27" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
-    <hyperlink ref="C8" r:id="rId28" display="https://www.stu.ac.kr/" xr:uid="{FF25DE5A-B30D-4547-9886-F19255D37A4D}"/>
-    <hyperlink ref="C14" r:id="rId29" display="http://www.acts.ac.kr/" xr:uid="{926083F2-5580-42D2-BA71-8C5D5CEE3ABE}"/>
-    <hyperlink ref="C21" r:id="rId30" display="https://www.iccu.ac.kr/" xr:uid="{3EB9D6BF-AEF1-4738-9B4B-D18FF5DC18D5}"/>
-    <hyperlink ref="C24" r:id="rId31" display="http://www.sangha.ac.kr/" xr:uid="{BD12DACE-8567-4F3D-88F5-67A8B0CE47B1}"/>
-    <hyperlink ref="C26" r:id="rId32" display="http://www.calvin.ac.kr/" xr:uid="{023579C3-0719-43AE-A87B-7BD2B77E1FE5}"/>
-    <hyperlink ref="C17" r:id="rId33" display="http://www.yit.ac.kr/" xr:uid="{1B6E54B7-EEE3-4762-99CE-C0CD33CBBC7F}"/>
+    <hyperlink ref="C8" r:id="rId27" display="https://www.stu.ac.kr/" xr:uid="{FF25DE5A-B30D-4547-9886-F19255D37A4D}"/>
+    <hyperlink ref="C14" r:id="rId28" display="http://www.acts.ac.kr/" xr:uid="{926083F2-5580-42D2-BA71-8C5D5CEE3ABE}"/>
+    <hyperlink ref="C21" r:id="rId29" display="https://www.iccu.ac.kr/" xr:uid="{3EB9D6BF-AEF1-4738-9B4B-D18FF5DC18D5}"/>
+    <hyperlink ref="C24" r:id="rId30" display="http://www.sangha.ac.kr/" xr:uid="{BD12DACE-8567-4F3D-88F5-67A8B0CE47B1}"/>
+    <hyperlink ref="C26" r:id="rId31" display="http://www.calvin.ac.kr/" xr:uid="{023579C3-0719-43AE-A87B-7BD2B77E1FE5}"/>
+    <hyperlink ref="C17" r:id="rId32" display="http://www.yit.ac.kr/" xr:uid="{1B6E54B7-EEE3-4762-99CE-C0CD33CBBC7F}"/>
+    <hyperlink ref="C34" r:id="rId33" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>
@@ -10039,10 +10347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF74F4-3890-4AC5-9177-01D64768D9F8}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10053,133 +10361,151 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -10202,257 +10528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368E20-86BE-4DEF-B0E2-CB3404E96A87}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
-    <sortCondition ref="A15"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="http://www.hannam.ac.kr/" xr:uid="{324EC0CF-20F0-4CE0-A203-1B97AB67B1E5}"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://www.dst.ac.kr/" xr:uid="{21748C97-E379-49F0-AF41-4968BD0ED22E}"/>
-    <hyperlink ref="C7" r:id="rId3" display="http://www.mokwon.ac.kr/" xr:uid="{B6C26F9F-D8DB-4AD4-9918-57A3AC71AA44}"/>
-    <hyperlink ref="C8" r:id="rId4" display="http://www.pcu.ac.kr/" xr:uid="{BA33615B-877E-44EE-9101-EA09CA380DC7}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://www.dju.ac.kr/" xr:uid="{C0151C77-94C5-4669-849E-533ADEF5C4A3}"/>
-    <hyperlink ref="C9" r:id="rId6" display="http://www.wsu.ac.kr/" xr:uid="{ABBD4BD7-7EFF-47B7-A2BE-D182882AB348}"/>
-    <hyperlink ref="C3" r:id="rId7" display="http://www.ddu.ac.kr/" xr:uid="{D3FB0BD2-63DA-4B4E-AAB8-BEBBA87BD5B4}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{6FC081ED-E575-4C04-B0F4-B5713E6B7364}"/>
-    <hyperlink ref="C14" r:id="rId9" display="http://www.hanbat.ac.kr/" xr:uid="{493FEEE2-5F05-4754-BA28-7F7C5D43D070}"/>
-    <hyperlink ref="C12" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{74BB9BD4-2DDE-434A-BD2C-A52384072D66}"/>
-    <hyperlink ref="C5" r:id="rId11" display="http://www.daejeon.ac.kr/" xr:uid="{01198AF4-1EAD-4A47-B5F4-F6B581BAC42B}"/>
-    <hyperlink ref="C4" r:id="rId12" display="http://www.hit.ac.kr/" xr:uid="{EF35BEBE-7FE7-4023-A436-7A0F2E02F0EE}"/>
-    <hyperlink ref="C11" r:id="rId13" display="http://www.kbtus.ac.kr/" xr:uid="{64EA3C61-AE36-43E5-BA61-7983C42CB37A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10463,399 +10543,471 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>467</v>
+      </c>
+      <c r="F14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>398</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>467</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="F28" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -10896,12 +11048,288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368E20-86BE-4DEF-B0E2-CB3404E96A87}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+    <sortCondition ref="A15"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" display="http://www.hannam.ac.kr/" xr:uid="{324EC0CF-20F0-4CE0-A203-1B97AB67B1E5}"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://www.dst.ac.kr/" xr:uid="{21748C97-E379-49F0-AF41-4968BD0ED22E}"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://www.mokwon.ac.kr/" xr:uid="{B6C26F9F-D8DB-4AD4-9918-57A3AC71AA44}"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://www.pcu.ac.kr/" xr:uid="{BA33615B-877E-44EE-9101-EA09CA380DC7}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.dju.ac.kr/" xr:uid="{C0151C77-94C5-4669-849E-533ADEF5C4A3}"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://www.wsu.ac.kr/" xr:uid="{ABBD4BD7-7EFF-47B7-A2BE-D182882AB348}"/>
+    <hyperlink ref="C3" r:id="rId7" display="http://www.ddu.ac.kr/" xr:uid="{D3FB0BD2-63DA-4B4E-AAB8-BEBBA87BD5B4}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{6FC081ED-E575-4C04-B0F4-B5713E6B7364}"/>
+    <hyperlink ref="C14" r:id="rId9" display="http://www.hanbat.ac.kr/" xr:uid="{493FEEE2-5F05-4754-BA28-7F7C5D43D070}"/>
+    <hyperlink ref="C12" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{74BB9BD4-2DDE-434A-BD2C-A52384072D66}"/>
+    <hyperlink ref="C5" r:id="rId11" display="http://www.daejeon.ac.kr/" xr:uid="{01198AF4-1EAD-4A47-B5F4-F6B581BAC42B}"/>
+    <hyperlink ref="C4" r:id="rId12" display="http://www.hit.ac.kr/" xr:uid="{EF35BEBE-7FE7-4023-A436-7A0F2E02F0EE}"/>
+    <hyperlink ref="C11" r:id="rId13" display="http://www.kbtus.ac.kr/" xr:uid="{64EA3C61-AE36-43E5-BA61-7983C42CB37A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675867A-3BC7-4ACA-8EEE-97C6BDE6DB8F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10912,133 +11340,160 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -11062,10 +11517,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA9255F-0181-4A63-BA7C-452A7D2515CD}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11076,217 +11531,253 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>289</v>
       </c>
-      <c r="B6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D12" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>292</v>
       </c>
-      <c r="B10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>293</v>
       </c>
-      <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>297</v>
-      </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298B19B-AE1D-4F29-8371-EFF5DD9F3593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82604215-8591-4A79-ACD0-5B7DBAF1BA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="4830" yWindow="4125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="502">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4489,7 +4489,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.06 16시</t>
+    <t>05.07 17시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4900,10 +4900,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5082E1-4AE7-4EE0-9C2C-14D6F78D01A2}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -6757,11 +6756,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
-  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6814,13 +6812,19 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>391</v>
+      </c>
+      <c r="E3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,11 +7167,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
-  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7580,7 +7583,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210BE4CD-4E6E-4BDE-AEFE-66E407052FA6}">
-  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7785,11 +7787,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4745446-AA4D-485D-BF63-540CC4A6ED8E}">
-  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8076,11 +8077,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF38D9-4E2F-4E52-B04F-40A66B80F97A}">
-  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8223,13 +8223,19 @@
         <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>391</v>
+      </c>
+      <c r="E9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8237,13 +8243,19 @@
         <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D10" t="s">
         <v>158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8273,9 +8285,6 @@
       <c r="D12" t="s">
         <v>390</v>
       </c>
-      <c r="E12" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8299,13 +8308,16 @@
         <v>376</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>465</v>
       </c>
       <c r="F14" t="s">
         <v>489</v>
@@ -8355,11 +8367,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55EAC3E-6231-4C97-AE27-6524D4A1B3A7}">
-  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8466,11 +8477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8552,7 +8562,7 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
@@ -8560,11 +8570,11 @@
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8573,7 +8583,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8585,7 +8595,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!E$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!F$2)</f>
@@ -8593,7 +8603,7 @@
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!G$2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!H$2)</f>
@@ -8606,7 +8616,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="1">SUM(D5:H5)</f>
@@ -8639,7 +8649,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -8672,7 +8682,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -8705,7 +8715,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -8738,7 +8748,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -8771,7 +8781,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -8804,7 +8814,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -8816,7 +8826,7 @@
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!E$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
@@ -8824,7 +8834,7 @@
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!G$2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!H$2)</f>
@@ -8837,7 +8847,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -8870,7 +8880,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -8903,7 +8913,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -8936,7 +8946,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -8948,7 +8958,7 @@
       </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
@@ -8956,11 +8966,11 @@
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -8969,7 +8979,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>05.06 16시</v>
+        <v>05.07 17시</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -9010,11 +9020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9186,9 +9195,6 @@
       <c r="D10" t="s">
         <v>391</v>
       </c>
-      <c r="E10" t="s">
-        <v>465</v>
-      </c>
       <c r="F10" t="s">
         <v>489</v>
       </c>
@@ -9418,13 +9424,19 @@
         <v>411</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9528,13 +9540,19 @@
         <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>465</v>
+      </c>
+      <c r="F32" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9566,9 +9584,6 @@
       </c>
       <c r="D34" t="s">
         <v>178</v>
-      </c>
-      <c r="E34" t="s">
-        <v>465</v>
       </c>
       <c r="F34" t="s">
         <v>489</v>
@@ -9759,11 +9774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9971,9 +9985,6 @@
       <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="E12" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9987,9 +9998,6 @@
       </c>
       <c r="D13" t="s">
         <v>159</v>
-      </c>
-      <c r="E13" t="s">
-        <v>465</v>
       </c>
       <c r="F13" t="s">
         <v>489</v>
@@ -10384,11 +10392,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF74F4-3890-4AC5-9177-01D64768D9F8}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10432,9 +10439,6 @@
       <c r="D2" t="s">
         <v>391</v>
       </c>
-      <c r="E2" t="s">
-        <v>465</v>
-      </c>
       <c r="F2" t="s">
         <v>489</v>
       </c>
@@ -10451,9 +10455,6 @@
       </c>
       <c r="D3" t="s">
         <v>493</v>
-      </c>
-      <c r="E3" t="s">
-        <v>465</v>
       </c>
       <c r="F3" t="s">
         <v>489</v>
@@ -10576,11 +10577,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368E20-86BE-4DEF-B0E2-CB3404E96A87}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10641,9 +10641,6 @@
       <c r="D3" t="s">
         <v>157</v>
       </c>
-      <c r="E3" t="s">
-        <v>465</v>
-      </c>
       <c r="F3" t="s">
         <v>489</v>
       </c>
@@ -10742,9 +10739,6 @@
       </c>
       <c r="D9" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" t="s">
-        <v>465</v>
       </c>
       <c r="F9" t="s">
         <v>489</v>
@@ -10859,11 +10853,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11369,7 +11362,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675867A-3BC7-4ACA-8EEE-97C6BDE6DB8F}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11561,7 +11553,6 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA9255F-0181-4A63-BA7C-452A7D2515CD}">
-  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82604215-8591-4A79-ACD0-5B7DBAF1BA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81273D3B-9AA9-4899-856E-8AC24BD6C68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="501">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4286,10 +4286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 22일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t> </t>
     </r>
@@ -4489,7 +4485,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.07 17시</t>
+    <t>05.11 00시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5218,7 +5214,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B39" t="s">
         <v>164</v>
@@ -6759,7 +6755,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6787,7 +6783,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6804,7 +6800,7 @@
         <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6820,11 +6816,8 @@
       <c r="D3" t="s">
         <v>391</v>
       </c>
-      <c r="E3" t="s">
-        <v>465</v>
-      </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6855,7 +6848,7 @@
         <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6872,7 +6865,7 @@
         <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6880,7 +6873,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
@@ -6903,7 +6896,7 @@
         <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6920,7 +6913,7 @@
         <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6951,7 +6944,7 @@
         <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6968,7 +6961,7 @@
         <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6999,7 +6992,7 @@
         <v>178</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7016,7 +7009,7 @@
         <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7030,10 +7023,7 @@
         <v>473</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" t="s">
-        <v>489</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7064,7 +7054,7 @@
         <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7081,7 +7071,7 @@
         <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7098,7 +7088,7 @@
         <v>391</v>
       </c>
       <c r="F20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7115,7 +7105,7 @@
         <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7129,7 +7119,7 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -7170,7 +7160,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" activeCellId="1" sqref="D14 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7198,7 +7188,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7206,13 +7196,19 @@
         <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7228,6 +7224,9 @@
       <c r="D3" t="s">
         <v>159</v>
       </c>
+      <c r="F3" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7243,7 +7242,7 @@
         <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,7 +7259,7 @@
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7277,7 +7276,7 @@
         <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7294,7 +7293,7 @@
         <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7311,7 +7310,7 @@
         <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7328,7 +7327,7 @@
         <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7345,7 +7344,7 @@
         <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7376,7 +7375,7 @@
         <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7393,7 +7392,7 @@
         <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7407,10 +7406,10 @@
         <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7424,7 +7423,7 @@
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7441,7 +7440,7 @@
         <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7458,7 +7457,7 @@
         <v>391</v>
       </c>
       <c r="F17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7475,7 +7474,7 @@
         <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7492,7 +7491,7 @@
         <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7509,7 +7508,7 @@
         <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7526,7 +7525,7 @@
         <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7543,7 +7542,7 @@
         <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,7 +7585,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7614,7 +7613,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7631,7 +7630,7 @@
         <v>391</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7653,7 +7652,7 @@
         <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -7662,7 +7661,7 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7670,7 +7669,7 @@
         <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>104</v>
@@ -7679,7 +7678,7 @@
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7696,7 +7695,7 @@
         <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7713,7 +7712,7 @@
         <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7730,7 +7729,7 @@
         <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7744,10 +7743,7 @@
         <v>474</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" t="s">
-        <v>489</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7761,7 +7757,7 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -7790,7 +7786,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7818,7 +7814,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7849,7 +7845,7 @@
         <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7863,7 +7859,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7880,7 +7876,7 @@
         <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7911,7 +7907,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7919,13 +7915,19 @@
         <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7942,7 +7944,7 @@
         <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,7 +7975,7 @@
         <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7981,13 +7983,16 @@
         <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>477</v>
       </c>
       <c r="D12" t="s">
         <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,7 +8028,7 @@
         <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>458</v>
@@ -8040,13 +8045,13 @@
         <v>388</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
         <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8080,7 +8085,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8113,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8119,7 +8124,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
         <v>159</v>
@@ -8139,7 +8144,7 @@
         <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8150,13 +8155,13 @@
         <v>391</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
         <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8173,7 +8178,7 @@
         <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8184,7 +8189,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
         <v>159</v>
@@ -8195,13 +8200,13 @@
         <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8226,7 +8231,7 @@
         <v>391</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
         <v>391</v>
@@ -8235,7 +8240,7 @@
         <v>465</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8243,7 +8248,7 @@
         <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>459</v>
@@ -8255,7 +8260,7 @@
         <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8300,7 +8305,7 @@
         <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8311,7 +8316,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
         <v>160</v>
@@ -8320,7 +8325,7 @@
         <v>465</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8331,13 +8336,13 @@
         <v>391</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D15" t="s">
         <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8370,7 +8375,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8398,7 +8403,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8414,6 +8419,9 @@
       <c r="D2" t="s">
         <v>160</v>
       </c>
+      <c r="F2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8423,13 +8431,13 @@
         <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
         <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8480,7 +8488,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8536,7 +8544,7 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>178</v>
@@ -8550,7 +8558,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8558,23 +8566,23 @@
       </c>
       <c r="D3">
         <f>SUM(D$4:D$16)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8583,7 +8591,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8595,7 +8603,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!E$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!F$2)</f>
@@ -8603,7 +8611,7 @@
       </c>
       <c r="G4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!G$2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!H$2)</f>
@@ -8616,7 +8624,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="1">SUM(D5:H5)</f>
@@ -8624,11 +8632,11 @@
       </c>
       <c r="D5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!D$2)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
@@ -8636,11 +8644,11 @@
       </c>
       <c r="G5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!G$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -8649,7 +8657,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -8657,7 +8665,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!D$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!E$2)</f>
@@ -8673,7 +8681,7 @@
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!H$2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -8682,7 +8690,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -8690,11 +8698,11 @@
       </c>
       <c r="D7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!D$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!E$2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!F$2)</f>
@@ -8715,7 +8723,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -8727,11 +8735,11 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!E$2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!F$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!G$2)</f>
@@ -8739,7 +8747,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!H$2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -8748,7 +8756,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -8760,7 +8768,7 @@
       </c>
       <c r="E9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!F$2)</f>
@@ -8772,7 +8780,7 @@
       </c>
       <c r="H9">
         <f>COUNTIF(대구!$D$2:$D$9,통계!H$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -8781,7 +8789,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -8814,7 +8822,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -8822,11 +8830,11 @@
       </c>
       <c r="D11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!D$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!E$2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
@@ -8847,7 +8855,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -8855,11 +8863,11 @@
       </c>
       <c r="D12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!D$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!E$2)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!F$2)</f>
@@ -8871,7 +8879,7 @@
       </c>
       <c r="H12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!H$2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -8880,7 +8888,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -8888,11 +8896,11 @@
       </c>
       <c r="D13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!D$2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
@@ -8913,7 +8921,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -8921,11 +8929,11 @@
       </c>
       <c r="D14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!D$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
@@ -8933,7 +8941,7 @@
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
@@ -8946,7 +8954,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -8979,7 +8987,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>05.07 17시</v>
+        <v>05.11 00시</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -9008,7 +9016,7 @@
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -9023,7 +9031,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9052,7 +9060,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9069,7 +9077,7 @@
         <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9114,7 +9122,7 @@
         <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9131,7 +9139,7 @@
         <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9162,7 +9170,7 @@
         <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9179,7 +9187,7 @@
         <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9196,7 +9204,7 @@
         <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9213,7 +9221,7 @@
         <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9230,7 +9238,7 @@
         <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9247,7 +9255,7 @@
         <v>178</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9264,7 +9272,7 @@
         <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -9281,7 +9289,7 @@
         <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9298,7 +9306,7 @@
         <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9343,7 +9351,7 @@
         <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9365,13 +9373,19 @@
         <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9388,7 +9402,7 @@
         <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -9424,7 +9438,7 @@
         <v>411</v>
       </c>
       <c r="B25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>424</v>
@@ -9432,11 +9446,8 @@
       <c r="D25" t="s">
         <v>158</v>
       </c>
-      <c r="E25" t="s">
-        <v>465</v>
-      </c>
       <c r="F25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9481,7 +9492,7 @@
         <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9498,7 +9509,7 @@
         <v>391</v>
       </c>
       <c r="F29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9515,7 +9526,7 @@
         <v>391</v>
       </c>
       <c r="F30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -9532,7 +9543,7 @@
         <v>178</v>
       </c>
       <c r="F31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9548,11 +9559,8 @@
       <c r="D32" t="s">
         <v>178</v>
       </c>
-      <c r="E32" t="s">
-        <v>465</v>
-      </c>
       <c r="F32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9569,7 +9577,7 @@
         <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9586,7 +9594,7 @@
         <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9603,7 +9611,7 @@
         <v>391</v>
       </c>
       <c r="F35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9620,7 +9628,7 @@
         <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9651,18 +9659,18 @@
         <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B39" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D39" t="s">
         <v>159</v>
@@ -9682,7 +9690,7 @@
         <v>391</v>
       </c>
       <c r="F40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -9699,7 +9707,7 @@
         <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -9716,7 +9724,7 @@
         <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -9777,7 +9785,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9805,7 +9813,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9819,7 +9827,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>390</v>
+      </c>
+      <c r="F2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9836,7 +9847,7 @@
         <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9853,7 +9864,7 @@
         <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9870,7 +9881,7 @@
         <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,7 +9898,7 @@
         <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9895,7 +9906,7 @@
         <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -9904,7 +9915,7 @@
         <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -9921,7 +9932,7 @@
         <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9935,7 +9946,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9952,7 +9963,7 @@
         <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9969,7 +9980,7 @@
         <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9977,7 +9988,7 @@
         <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -10000,7 +10011,7 @@
         <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10008,13 +10019,16 @@
         <v>418</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>430</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>391</v>
+      </c>
+      <c r="E14" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10039,7 +10053,7 @@
         <v>388</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" t="s">
         <v>157</v>
@@ -10056,7 +10070,7 @@
         <v>467</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10067,7 +10081,7 @@
         <v>387</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D18" t="s">
         <v>390</v>
@@ -10087,7 +10101,7 @@
         <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10095,13 +10109,19 @@
         <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10118,7 +10138,7 @@
         <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10135,7 +10155,7 @@
         <v>391</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -10152,7 +10172,7 @@
         <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -10183,7 +10203,7 @@
         <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10214,7 +10234,7 @@
         <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -10231,7 +10251,7 @@
         <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10245,10 +10265,10 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="F29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -10265,7 +10285,7 @@
         <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -10282,7 +10302,7 @@
         <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -10313,7 +10333,7 @@
         <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10330,7 +10350,7 @@
         <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10395,7 +10415,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E2:E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10423,7 +10443,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10440,7 +10460,7 @@
         <v>391</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10448,16 +10468,16 @@
         <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10474,7 +10494,7 @@
         <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10482,13 +10502,19 @@
         <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10505,7 +10531,7 @@
         <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10522,7 +10548,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10539,7 +10565,7 @@
         <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10580,7 +10606,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10608,7 +10634,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10625,7 +10651,7 @@
         <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10639,10 +10665,10 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10659,7 +10685,7 @@
         <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10673,7 +10699,7 @@
         <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10690,7 +10716,7 @@
         <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10707,7 +10733,7 @@
         <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10724,7 +10750,7 @@
         <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10732,7 +10758,7 @@
         <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -10741,7 +10767,7 @@
         <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10758,7 +10784,7 @@
         <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -10775,7 +10801,7 @@
         <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10806,7 +10832,7 @@
         <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10856,7 +10882,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10884,7 +10910,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10915,7 +10941,7 @@
         <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10932,7 +10958,7 @@
         <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10949,7 +10975,7 @@
         <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10966,7 +10992,7 @@
         <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10988,7 +11014,7 @@
         <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>446</v>
@@ -11002,16 +11028,19 @@
         <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>465</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11028,7 +11057,7 @@
         <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11045,7 +11074,7 @@
         <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11062,7 +11091,7 @@
         <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -11079,7 +11108,7 @@
         <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11087,7 +11116,7 @@
         <v>260</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>56</v>
@@ -11096,7 +11125,7 @@
         <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11113,7 +11142,7 @@
         <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11144,7 +11173,7 @@
         <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11152,13 +11181,19 @@
         <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11175,7 +11210,7 @@
         <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11220,7 +11255,7 @@
         <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11237,7 +11272,7 @@
         <v>391</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11254,7 +11289,7 @@
         <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11285,7 +11320,7 @@
         <v>391</v>
       </c>
       <c r="F26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11302,7 +11337,7 @@
         <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11319,7 +11354,7 @@
         <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -11365,7 +11400,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11393,7 +11428,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11410,7 +11445,7 @@
         <v>391</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11427,7 +11462,7 @@
         <v>391</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11444,7 +11479,7 @@
         <v>391</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11461,7 +11496,7 @@
         <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11478,7 +11513,7 @@
         <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11495,7 +11530,7 @@
         <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11503,16 +11538,19 @@
         <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>465</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11529,7 +11567,7 @@
         <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -11556,7 +11594,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11584,7 +11622,7 @@
         <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11601,7 +11639,7 @@
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11618,7 +11656,7 @@
         <v>391</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11635,7 +11673,7 @@
         <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11652,7 +11690,7 @@
         <v>391</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11669,7 +11707,7 @@
         <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11680,13 +11718,13 @@
         <v>391</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D7" t="s">
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11694,19 +11732,16 @@
         <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
-      </c>
-      <c r="E8" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11723,7 +11758,7 @@
         <v>391</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11740,7 +11775,7 @@
         <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11757,7 +11792,7 @@
         <v>391</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11774,7 +11809,7 @@
         <v>391</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -11791,7 +11826,7 @@
         <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81273D3B-9AA9-4899-856E-8AC24BD6C68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB33DD1-14B4-47B7-971E-71975F9DA38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="502">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -1783,23 +1783,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://www.cnc.ac.kr/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>http://www.cst.ac.kr/ </t>
     </r>
   </si>
@@ -3336,10 +3319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 13일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5월 6일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4485,7 +4464,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.11 00시</t>
+    <t xml:space="preserve"> http://www.jnu.ac.kr/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.12 17시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 오프라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 온라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4910,1834 +4901,1834 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B108" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B188" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B189" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B190" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B192" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B193" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B194" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B195" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B198" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B201" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B202" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B209" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B210" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B211" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B213" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B214" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B215" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B216" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B217" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B220" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B225" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B226" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B227" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B228" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B229" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6755,7 +6746,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6768,358 +6759,364 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>384</v>
+        <v>484</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -7160,7 +7157,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" activeCellId="1" sqref="D14 D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7173,376 +7170,376 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F11" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7585,7 +7582,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7598,61 +7595,61 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -7660,104 +7657,107 @@
       <c r="D4" t="s">
         <v>158</v>
       </c>
+      <c r="E4" t="s">
+        <v>463</v>
+      </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" t="s">
-        <v>488</v>
+        <v>389</v>
+      </c>
+      <c r="E5" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -7786,7 +7786,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7799,259 +7799,253 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E8" t="s">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" t="s">
-        <v>465</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8085,7 +8079,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8098,251 +8092,248 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" t="s">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" t="s">
-        <v>465</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>498</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="F12" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8388,84 +8379,84 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8485,10 +8476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8499,9 +8490,10 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -8526,39 +8518,57 @@
       <c r="H1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8566,11 +8576,11 @@
       </c>
       <c r="D3">
         <f>SUM(D$4:D$16)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
@@ -8578,20 +8588,32 @@
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:K3" si="0">SUM(I$4:I$16)</f>
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.11 00시</v>
+        <v>05.12 17시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8599,11 +8621,11 @@
       </c>
       <c r="D4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!D$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!E$2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!F$2)</f>
@@ -8615,24 +8637,36 @@
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!H$2)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(서울!$D$2:$D$42,"오프라인",서울!$F$2:$F$42,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>C4-I4-K4</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(서울!$F$2:$F$42,"O")</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B16" si="0">($B$3)</f>
-        <v>05.11 00시</v>
+        <f t="shared" ref="B5:B16" si="1">($B$3)</f>
+        <v>05.12 17시</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C16" si="1">SUM(D5:H5)</f>
+        <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
         <v>33</v>
       </c>
       <c r="D5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!D$2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
@@ -8648,19 +8682,31 @@
       </c>
       <c r="H5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS('경기, 인천'!$D$2:$D$34,"오프라인",'경기, 인천'!$F$2:$F$34,"")</f>
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f>C5-I5-K5</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF('경기, 인천'!$F$2:$F$34,"O")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D6">
@@ -8669,7 +8715,7 @@
       </c>
       <c r="E6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!E$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!F$2)</f>
@@ -8681,24 +8727,36 @@
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!H$2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(강원!$D$2:$D$9,"오프라인",강원!$F$2:$F$9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J16" si="3">C6-I6-K6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(강원!$F$2:$F$9,"O")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!D$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!E$2)</f>
@@ -8710,28 +8768,40 @@
       </c>
       <c r="G7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!G$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!H$2)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f>COUNTIFS(대전!$D$2:$D$14,"오프라인",대전!$F$2:$F$14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(대전!$F$2:$F$14,"O")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!D$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!E$2)</f>
@@ -8747,19 +8817,31 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!H$2)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIFS(충청!$D$2:$D$28,"오프라인",충청!$F$2:$F$28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(충청!$F$2:$F$28,"O")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D9">
@@ -8782,17 +8864,29 @@
         <f>COUNTIF(대구!$D$2:$D$9,통계!H$2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f>COUNTIFS(대구!$D$2:$D$9,"오프라인",대구!$F$2:$F$9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIF(대구!$F$2:$F$9,"O")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D10">
@@ -8815,26 +8909,38 @@
         <f>COUNTIF(경북!$D$2:$D$15,통계!H$2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f>COUNTIFS(경북!$D$2:$D$15,"오프라인",경북!$F$2:$F$15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIF(경북!$F$2:$F$15,"O")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!D$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!E$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
@@ -8848,17 +8954,29 @@
         <f>COUNTIF(경남!$D$2:$D$22,통계!H$2)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f>COUNTIFS(경남!$D$2:$D$22,"오프라인",경남!$F$2:$F$22,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIF(경남!$F$2:$F$22,"O")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D12">
@@ -8881,17 +8999,29 @@
         <f>COUNTIF(부산!$D$2:$D$22,통계!H$2)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f>COUNTIFS(부산!$D$2:$D$22,"오프라인",부산!$F$2:$F$22,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIF(부산!$F$2:$F$22,"O")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D13">
@@ -8900,7 +9030,7 @@
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
@@ -8908,23 +9038,35 @@
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!H$2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIFS(전북!$D$2:$D$10,"오프라인",전북!$F$2:$F$10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIFS(전북!$F$2:$F$10,"O")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D14">
@@ -8947,17 +9089,29 @@
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f>COUNTIFS(전남!$D$2:$D$16,"오프라인",전남!$F$2:$F$16,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIFS(전남!$F$2:$F$16,"O")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D15">
@@ -8980,17 +9134,29 @@
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f>COUNTIFS(광주!$D$2:$D$15,"오프라인",광주!$F$2:$F$15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIFS(광주!$F$2:$F$15,"O")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 00시</v>
+        <f t="shared" si="1"/>
+        <v>05.12 17시</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D16">
@@ -9013,10 +9179,22 @@
         <f>COUNTIF(제주도!$D$2:$D$5,통계!H$2)</f>
         <v>4</v>
       </c>
+      <c r="I16">
+        <f>COUNTIFS(제주도!$D$2:$D$5,"오프라인",제주도!$F$2:$F$5,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f>COUNTIFS(제주도!$F$2:$F$5,"O")</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -9031,7 +9209,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9045,686 +9223,704 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>388</v>
+      </c>
+      <c r="F7" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" t="s">
-        <v>488</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" t="s">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F23" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F35" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F37" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F39" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -9784,8 +9980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9798,559 +9994,562 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>484</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>463</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
-      </c>
-      <c r="E14" t="s">
-        <v>465</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10415,7 +10614,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10428,158 +10627,161 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>465</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>386</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -10606,7 +10808,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10619,234 +10821,240 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="F14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10882,7 +11090,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10895,466 +11103,475 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
-      </c>
-      <c r="E9" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F20" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -11413,161 +11630,158 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -11594,7 +11808,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11607,254 +11821,257 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="F15" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB33DD1-14B4-47B7-971E-71975F9DA38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A1D2D-85A5-40E4-B4F9-773F35986835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="31200" yWindow="4245" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -4472,11 +4472,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 오프라인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 온라인</t>
+    <t>전체 대면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 비대면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8479,7 +8479,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8489,8 +8489,8 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A1D2D-85A5-40E4-B4F9-773F35986835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799C5E7-5F96-4061-84AE-3424A6B303ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="4245" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="31200" yWindow="4245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="504">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -1783,23 +1783,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://www.cst.ac.kr/ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>http://www.gnue.ac.kr/ </t>
     </r>
   </si>
@@ -4456,10 +4439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6월 10일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4468,15 +4447,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.12 17시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 대면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 비대면</t>
+    <t>전체 오프라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 온라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnc.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.13 16시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4901,1834 +4896,1834 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B119" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B120" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B180" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B181" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B187" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B188" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B189" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B190" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B191" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B192" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B193" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B196" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B197" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B198" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B205" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B206" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B212" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B213" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B214" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B216" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B218" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B219" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B220" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B221" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B222" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B223" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B224" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B225" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B226" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B227" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B229" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6746,7 +6741,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6759,364 +6754,361 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" t="s">
-        <v>463</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -7125,27 +7117,27 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=298&amp;sx=216&amp;sy=298&amp;p=Uo14Pdp0Yihssl5pnmlssssstR0-477777&amp;q=%EA%B1%B0%EC%A0%9C%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=2aoPNNnjdRf9lcJ41vZ37w%3D%3D&amp;time=1586317434684&amp;bt=12&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097523&amp;u=http%3A%2F%2Fwww.koje.ac.kr%2F&amp;cr=1" xr:uid="{22FD263B-FDA0-4E59-99D2-6CAFB94C71FE}"/>
-    <hyperlink ref="C22" r:id="rId2" display="http://www.klc.ac.kr/" xr:uid="{451ED048-7662-443C-AF91-FC7E6CA2397F}"/>
-    <hyperlink ref="C2" r:id="rId3" display="http://www.kaya.ac.kr/" xr:uid="{C721D6C5-CB46-4CCF-A5A5-D4F8DBF92ACD}"/>
-    <hyperlink ref="C14" r:id="rId4" display="http://www.inje.ac.kr/" xr:uid="{D16C18A6-5C7E-4861-AFB5-48C0A768E6E3}"/>
-    <hyperlink ref="C7" r:id="rId5" display="http://www.namhae.ac.kr/" xr:uid="{6EC8EBF0-F290-4E0A-BDC2-0BB68B32EC96}"/>
-    <hyperlink ref="C8" r:id="rId6" display="http://www.dist.ac.kr/" xr:uid="{AFD2F634-C750-47B9-9688-46414DB7D12B}"/>
-    <hyperlink ref="C4" r:id="rId7" display="http://www.gntech.ac.kr/" xr:uid="{11D30B98-3D92-48A3-B320-1DB7065E6DAA}"/>
-    <hyperlink ref="C6" r:id="rId8" display="http://www.gnu.ac.kr/" xr:uid="{4016E323-F17B-4DD8-B576-178D4306A9D0}"/>
-    <hyperlink ref="C10" r:id="rId9" display="http://www.yc.ac.kr/" xr:uid="{4E5C065E-6C60-458D-97A4-8FBF9770BC9C}"/>
-    <hyperlink ref="C15" r:id="rId10" display="http://www.cue.ac.kr/" xr:uid="{1978A0DC-ABC2-4E1D-8B5C-62D14543D9D0}"/>
-    <hyperlink ref="C16" r:id="rId11" display="http://www.jhc.ac.kr/" xr:uid="{6F17F58A-7D26-4ABB-BB6D-BBCF3C8810FA}"/>
-    <hyperlink ref="C21" r:id="rId12" xr:uid="{BD44D154-A4B2-433D-AF0F-4443730FAE45}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{A9550298-0674-42A1-B376-BA3D96D0AFE9}"/>
-    <hyperlink ref="C12" r:id="rId14" display="http://www.ulsan.ac.kr/" xr:uid="{C1BD906F-4566-4461-A7B4-263E629EC976}"/>
-    <hyperlink ref="C5" r:id="rId15" display="http://www.kyungnam.ac.kr/" xr:uid="{3E8AD45D-BB65-41D5-9CD1-B55DB27C6321}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{31DDD70A-67B2-40BA-B220-A1BCD0E70A4B}"/>
-    <hyperlink ref="C17" r:id="rId17" display="http://www.cs.ac.kr/" xr:uid="{EC7B8F31-6BB4-4490-AEC4-BD9FF13DFC44}"/>
-    <hyperlink ref="C18" r:id="rId18" xr:uid="{CB78046B-39F2-48C2-BF0D-611D669A8A84}"/>
-    <hyperlink ref="C19" r:id="rId19" display="http://www.cmu.ac.kr/main.do" xr:uid="{25319627-190A-40AB-8D1E-94ACF44EA43E}"/>
-    <hyperlink ref="C11" r:id="rId20" display="http://www.uc.ac.kr/" xr:uid="{F278D11C-CD5D-4B41-AF5A-2BF6ECA0812B}"/>
-    <hyperlink ref="C20" r:id="rId21" xr:uid="{0D3AE9BC-62B5-482F-87B2-0F8764EC5355}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=298&amp;sx=216&amp;sy=298&amp;p=Uo14Pdp0Yihssl5pnmlssssstR0-477777&amp;q=%EA%B1%B0%EC%A0%9C%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=2aoPNNnjdRf9lcJ41vZ37w%3D%3D&amp;time=1586317434684&amp;bt=12&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097523&amp;u=http%3A%2F%2Fwww.koje.ac.kr%2F&amp;cr=1" xr:uid="{4F2AE67F-7156-4974-97E5-17AD56D39D1C}"/>
+    <hyperlink ref="C22" r:id="rId2" display="http://www.klc.ac.kr/" xr:uid="{F7942D01-9DC6-42BE-B826-993B9D22E867}"/>
+    <hyperlink ref="C2" r:id="rId3" display="http://www.kaya.ac.kr/" xr:uid="{70F6D50D-683A-414A-8436-88D2B92ACC06}"/>
+    <hyperlink ref="C14" r:id="rId4" display="http://www.inje.ac.kr/" xr:uid="{AC0E6A0C-EE96-4C32-8D04-6CB7237C00EC}"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://www.namhae.ac.kr/" xr:uid="{0779AAB8-85E3-4BD3-9328-2C24F1B83DAB}"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://www.dist.ac.kr/" xr:uid="{8AA971AE-D21B-42D9-949A-D7C88537DCB5}"/>
+    <hyperlink ref="C4" r:id="rId7" display="http://www.gntech.ac.kr/" xr:uid="{B32EDEB9-AC65-432F-80D2-16FEAF7BD92A}"/>
+    <hyperlink ref="C6" r:id="rId8" display="http://www.gnu.ac.kr/" xr:uid="{E7913CFB-47DB-4535-BA70-DF5779CBD806}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://www.yc.ac.kr/" xr:uid="{9725C780-B496-4DF7-AD73-B9FB949C834D}"/>
+    <hyperlink ref="C15" r:id="rId10" display="http://www.cue.ac.kr/" xr:uid="{5CCB5F87-9B4F-438B-A034-D717D1CC1CFA}"/>
+    <hyperlink ref="C16" r:id="rId11" display="http://www.jhc.ac.kr/" xr:uid="{4FDE0FD6-5B96-454F-8633-DFCAFC987D94}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{45396A16-E35E-4C47-82BE-5442ABC04E9C}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{408C015E-063A-487D-A5B4-9829DE543ACB}"/>
+    <hyperlink ref="C12" r:id="rId14" display="http://www.ulsan.ac.kr/" xr:uid="{3C148688-901E-4511-B89B-DF77C41E7AB5}"/>
+    <hyperlink ref="C5" r:id="rId15" display="http://www.kyungnam.ac.kr/" xr:uid="{96508B1D-0DA2-461F-A31A-2F3ED0F29DBE}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{8BDBD057-9527-4068-B56E-FE77A037BEC4}"/>
+    <hyperlink ref="C17" r:id="rId17" display="http://www.cs.ac.kr/" xr:uid="{6F7FADE0-3763-4B5C-A915-7226E9CD1E89}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{D94EADA9-BF28-4151-A772-6C4E120D2447}"/>
+    <hyperlink ref="C19" r:id="rId19" display="http://www.cmu.ac.kr/main.do" xr:uid="{2D961475-039D-407F-B4D0-6FCC61F22E95}"/>
+    <hyperlink ref="C11" r:id="rId20" display="http://www.uc.ac.kr/" xr:uid="{88A31A7A-2806-4814-A40D-2B70F95BBF0F}"/>
+    <hyperlink ref="C20" r:id="rId21" xr:uid="{0D51D8F8-42ED-404B-B420-3D6B8D353E5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
@@ -7157,7 +7149,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7170,376 +7162,376 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7551,27 +7543,27 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="http://www.donga.ac.kr/" xr:uid="{2A0D4576-E244-4B0F-B510-3B3FB929EFFA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6C21A802-6095-408D-B05F-C3F0F3750E5A}"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://www.tu.ac.kr/" xr:uid="{68FA9B33-DBD8-48E5-955C-B8FE62AFAFF1}"/>
-    <hyperlink ref="C12" r:id="rId4" display="http://www.pknu.ac.kr/" xr:uid="{F2B021BE-E7A7-4712-97EB-979CC428EBAB}"/>
-    <hyperlink ref="C15" r:id="rId5" display="http://www.bist.ac.kr/" xr:uid="{DB456F3E-662D-475F-9BD4-F551B1AF067C}"/>
-    <hyperlink ref="C5" r:id="rId6" display="http://www.daedong.ac.kr/" xr:uid="{1D1A2CD6-B1A0-409D-B6DE-BD0CA7932103}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{17E057E3-3E4F-492D-A1BA-1ABAB421A8DD}"/>
-    <hyperlink ref="C19" r:id="rId8" display="http://www.bufs.ac.kr/" xr:uid="{1DE7D657-380D-43C2-9E83-CC20358E20E8}"/>
-    <hyperlink ref="C9" r:id="rId9" display="http://www.dit.ac.kr/" xr:uid="{8F86E8E9-87D1-4FD1-93AC-DE0FEEC857F9}"/>
-    <hyperlink ref="C10" r:id="rId10" display="http://www.deu.ac.kr/" xr:uid="{DB9865C2-78D0-46AD-B355-37F66F42EBF2}"/>
-    <hyperlink ref="C18" r:id="rId11" display="http://www.bwc.ac.kr/" xr:uid="{980AB934-1322-4E59-BBC8-B1CD5E5A76E2}"/>
-    <hyperlink ref="C2" r:id="rId12" display="http://www.kit.ac.kr/" xr:uid="{DED5B1FD-C919-406C-BA7D-34A80FD5647E}"/>
-    <hyperlink ref="C7" r:id="rId13" display="http://www.dongseo.ac.kr/" xr:uid="{E4DD3675-99FC-4BAF-9AE3-0F48351CF22F}"/>
-    <hyperlink ref="C20" r:id="rId14" display="http://www.silla.ac.kr/" xr:uid="{78C33AE6-432D-4E92-A1EF-B8BABA345FEA}"/>
-    <hyperlink ref="C11" r:id="rId15" display="http://www.dongju.ac.kr/" xr:uid="{CB390B9F-7DA3-4650-97BE-D0707F9CAAA1}"/>
-    <hyperlink ref="C14" r:id="rId16" display="http://www.bsks.ac.kr/" xr:uid="{C18485EE-3922-44BD-B799-99360CEDB550}"/>
-    <hyperlink ref="C16" r:id="rId17" display="http://www.bnue.ac.kr/" xr:uid="{386CEB0F-551E-4B07-B192-1E7E6E0E9872}"/>
-    <hyperlink ref="C4" r:id="rId18" display="http://www.kosin.ac.kr/" xr:uid="{ED137852-BEFB-4B63-BC76-F3E92DF6BCBA}"/>
-    <hyperlink ref="C22" r:id="rId19" display="http://www.kmou.ac.kr/" xr:uid="{62A1E771-DA33-43E0-8CA1-2ED13A6C6899}"/>
-    <hyperlink ref="C21" r:id="rId20" display="http://www.ysu.ac.kr/" xr:uid="{62D31827-2D38-408B-8A6A-ADBA2168F0DC}"/>
-    <hyperlink ref="C13" r:id="rId21" display="http://www.cup.ac.kr/" xr:uid="{CB8406F6-5470-47C5-9C00-84616FC57D67}"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://www.donga.ac.kr/" xr:uid="{CC170900-BC18-4B96-91D7-95D5569A39D0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DBB13E44-5179-40AA-8B53-7F040E7E9E73}"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://www.tu.ac.kr/" xr:uid="{A8523F1B-55E1-45F4-AFD8-D3EEEE39A0C8}"/>
+    <hyperlink ref="C12" r:id="rId4" display="http://www.pknu.ac.kr/" xr:uid="{257219A0-38CF-459E-8675-C1AB7F60CA82}"/>
+    <hyperlink ref="C15" r:id="rId5" display="http://www.bist.ac.kr/" xr:uid="{AECB6E6E-9A25-4D07-ACB9-0C266CCB197E}"/>
+    <hyperlink ref="C5" r:id="rId6" display="http://www.daedong.ac.kr/" xr:uid="{34C3FC6E-C6C0-4E00-885F-883C3BB513C4}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{96535061-27A7-49B5-9BB1-3ECC011DEB1B}"/>
+    <hyperlink ref="C19" r:id="rId8" display="http://www.bufs.ac.kr/" xr:uid="{6B0BC99A-174E-4F0F-A853-3C9510898482}"/>
+    <hyperlink ref="C9" r:id="rId9" display="http://www.dit.ac.kr/" xr:uid="{1CD4C34C-F06E-4742-8345-4100CB1C0C5B}"/>
+    <hyperlink ref="C10" r:id="rId10" display="http://www.deu.ac.kr/" xr:uid="{519B342B-33C6-4954-983C-7EA9A0833509}"/>
+    <hyperlink ref="C18" r:id="rId11" display="http://www.bwc.ac.kr/" xr:uid="{97548D26-34C5-4785-B3A1-54F2D09C1CBE}"/>
+    <hyperlink ref="C2" r:id="rId12" display="http://www.kit.ac.kr/" xr:uid="{229FFD45-44EB-4F8F-8652-B282D9BC115F}"/>
+    <hyperlink ref="C7" r:id="rId13" display="http://www.dongseo.ac.kr/" xr:uid="{46BDB3D4-DED2-4053-B05D-6D89B8F6F554}"/>
+    <hyperlink ref="C20" r:id="rId14" display="http://www.silla.ac.kr/" xr:uid="{F6E8AA1E-1D4D-4051-B0F3-820C89F7DE57}"/>
+    <hyperlink ref="C11" r:id="rId15" display="http://www.dongju.ac.kr/" xr:uid="{60D1A15E-D4D4-4CE4-9F73-E88BFE0B8DDA}"/>
+    <hyperlink ref="C14" r:id="rId16" display="http://www.bsks.ac.kr/" xr:uid="{60AA8B6C-2C39-488B-AFD0-A31C1C52A8E3}"/>
+    <hyperlink ref="C16" r:id="rId17" display="http://www.bnue.ac.kr/" xr:uid="{F6D1594B-C5BE-444D-AA9E-A5CE838FF23A}"/>
+    <hyperlink ref="C4" r:id="rId18" display="http://www.kosin.ac.kr/" xr:uid="{19759C5A-223D-41FB-AFB5-D44B7F75F0A8}"/>
+    <hyperlink ref="C22" r:id="rId19" display="http://www.kmou.ac.kr/" xr:uid="{BC4731F5-9FDD-45C0-88A6-5C203DDEDDF5}"/>
+    <hyperlink ref="C21" r:id="rId20" display="http://www.ysu.ac.kr/" xr:uid="{287270B3-167D-4959-9DE7-CEF57E8C3765}"/>
+    <hyperlink ref="C13" r:id="rId21" display="http://www.cup.ac.kr/" xr:uid="{AD78D748-0B51-4AFC-AACC-A07D181E6AA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7582,7 +7574,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7595,169 +7587,172 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>463</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5" t="s">
-        <v>463</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>388</v>
+      </c>
+      <c r="E8" t="s">
+        <v>462</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" t="s">
         <v>388</v>
       </c>
+      <c r="E9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -7766,15 +7761,15 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.kunsan.ac.kr/" xr:uid="{D54C3E82-FE00-4F6B-AA23-4216DB0749BD}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://www.yewon.ac.kr/" xr:uid="{255ECD75-E037-4826-9020-A964F8C5CF52}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.woosuk.ac.kr/" xr:uid="{81862767-585B-448B-AC34-0E54FCB14571}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://www.wku.ac.kr/" xr:uid="{B2BC431B-700D-48BB-AADC-DB3498A344AC}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://www.jbnu.ac.kr/" xr:uid="{C83E5966-6FAE-4A1D-AD47-7E3D7482AE85}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://www.jnue.kr/" xr:uid="{02141818-AAF4-425B-81A5-2563ABD89B9B}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{A3D0713E-99A1-4DE5-9650-40CBFE604C04}"/>
-    <hyperlink ref="C9" r:id="rId8" display="http://www.hanil.ac.kr/" xr:uid="{CC0948E5-936C-4A23-9971-35F492F33FB0}"/>
-    <hyperlink ref="C10" r:id="rId9" display="http://www.howon.ac.kr/" xr:uid="{4C84CA8E-460A-4854-9119-DE073D2E90BB}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.kunsan.ac.kr/" xr:uid="{9033DB8C-40F3-44C2-AB8F-F48388EB127F}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://www.yewon.ac.kr/" xr:uid="{2BEF1B58-A476-49DA-8E9E-F4DC50511E36}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.woosuk.ac.kr/" xr:uid="{846D2C97-2E25-465E-B984-5F83C4091ADC}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://www.wku.ac.kr/" xr:uid="{42A7BE3F-0EC7-433F-BB70-91568C47D338}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.jbnu.ac.kr/" xr:uid="{D774D505-BF8D-4C68-B062-B69274F64C99}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://www.jnue.kr/" xr:uid="{BB9D56A6-772B-4C02-AFBD-A7AC091BF246}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{4202C915-B2C7-4939-B1BA-BF7BAC28A3A2}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://www.hanil.ac.kr/" xr:uid="{DF385783-CBB2-484E-AA2B-CE70F8683179}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://www.howon.ac.kr/" xr:uid="{7245D40D-BE46-45AD-9043-73731F146A66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
@@ -7786,7 +7781,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7799,30 +7794,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>108</v>
@@ -7830,222 +7825,228 @@
       <c r="D2" t="s">
         <v>388</v>
       </c>
+      <c r="E2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8054,21 +8055,21 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{EAA4AA11-E901-4AED-B49A-03511CC13E12}"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=295&amp;sx=216&amp;sy=295&amp;p=Uo1RWdp0Yidssm9F6ICssssst88-399887&amp;q=%ED%95%9C%EB%A0%A4%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=LwbVKrVD1LOyZV4wkG%2BmAQ%3D%3D&amp;time=1586320573213&amp;bt=22&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973B0&amp;u=http%3A%2F%2Fwww.hanlyo.ac.kr%2F&amp;cr=1" xr:uid="{1A54757B-932E-46DD-8842-915A8426CFC1}"/>
-    <hyperlink ref="C2" r:id="rId3" display="http://www.kgrc.ac.kr/" xr:uid="{FD09E0AC-5BEA-4313-AA1E-799E94F6F431}"/>
-    <hyperlink ref="C4" r:id="rId4" display="http://www.dsu.ac.kr/" xr:uid="{AA0DCC80-59FD-4742-908A-7DB7B497C826}"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.msu.ac.kr/" xr:uid="{CCE9B167-FEEE-4A90-8931-7244745BEADE}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://www.mokpo.ac.kr/" xr:uid="{E615FFE5-4462-4819-9C9B-760B14926F14}"/>
-    <hyperlink ref="C8" r:id="rId7" display="http://www.mmu.ac.kr/" xr:uid="{E7781E54-CBD3-497A-AA9C-A98C61C90CDF}"/>
-    <hyperlink ref="C10" r:id="rId8" display="http://www.scnu.ac.kr/" xr:uid="{72D4EEAF-1499-4699-9866-DB77AADD66C5}"/>
-    <hyperlink ref="C11" r:id="rId9" display="http://www.suncheon.ac.kr/" xr:uid="{98DC32D9-94C4-4EA5-BECB-9BAE17E8A19A}"/>
-    <hyperlink ref="C16" r:id="rId10" display="http://www.hanyeong.ac.kr/" xr:uid="{E52A626F-3BC9-448C-AEA8-7C5FA63DDEA2}"/>
-    <hyperlink ref="C12" r:id="rId11" display="http://www.cntu.ac.kr/" xr:uid="{551ACD8F-45E8-42F3-AF01-F6A0FDD9934B}"/>
-    <hyperlink ref="C13" r:id="rId12" display="http://www.dorip.ac.kr/" xr:uid="{D88B0E08-6606-4CCA-B308-64A4F4A6AF2D}"/>
-    <hyperlink ref="C14" r:id="rId13" display="http://www.cdu.ac.kr/" xr:uid="{5A22573F-3BD4-4D3B-ACAA-094809875BB8}"/>
-    <hyperlink ref="C5" r:id="rId14" display="http://www.duh.ac.kr/" xr:uid="{82840781-9669-45EC-8BAB-5976AA280261}"/>
-    <hyperlink ref="C9" r:id="rId15" display="http://www.sehan.ac.kr/" xr:uid="{5A89E27E-7C7B-4904-A742-E945FB545473}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{5D53F683-69A1-4296-B451-FCF255D35917}"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://search.naver.com/p/crd/rd?m=1&amp;px=216&amp;py=295&amp;sx=216&amp;sy=295&amp;p=Uo1RWdp0Yidssm9F6ICssssst88-399887&amp;q=%ED%95%9C%EB%A0%A4%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=LwbVKrVD1LOyZV4wkG%2BmAQ%3D%3D&amp;time=1586320573213&amp;bt=22&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973B0&amp;u=http%3A%2F%2Fwww.hanlyo.ac.kr%2F&amp;cr=1" xr:uid="{90E27880-B606-436D-8B43-4CECABB7281D}"/>
+    <hyperlink ref="C2" r:id="rId3" display="http://www.kgrc.ac.kr/" xr:uid="{B88166BA-D783-426B-9BD0-08E824D827A0}"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://www.dsu.ac.kr/" xr:uid="{F20ADBA7-B050-42AF-886A-3BF34DE12B86}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.msu.ac.kr/" xr:uid="{916952C8-332F-421F-8DF4-97530C81EDDE}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://www.mokpo.ac.kr/" xr:uid="{2A961E2F-5D81-4974-9980-5F5453A03892}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://www.mmu.ac.kr/" xr:uid="{E0B1795E-EDE4-4F14-8E82-1E291BE391A7}"/>
+    <hyperlink ref="C10" r:id="rId8" display="http://www.scnu.ac.kr/" xr:uid="{D0772983-97AB-466F-B30E-7BF368CAC186}"/>
+    <hyperlink ref="C11" r:id="rId9" display="http://www.suncheon.ac.kr/" xr:uid="{96BB0389-52AC-4204-91F2-EE0F5826206B}"/>
+    <hyperlink ref="C16" r:id="rId10" display="http://www.hanyeong.ac.kr/" xr:uid="{B8F70AE7-0952-41B5-AAC0-EFF1C7FF4E40}"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://www.cntu.ac.kr/" xr:uid="{9979CC9C-EFDC-4D12-BAA3-A576DD67B46A}"/>
+    <hyperlink ref="C13" r:id="rId12" display="http://www.dorip.ac.kr/" xr:uid="{366C8AAD-443D-482C-9C05-83294EB51F5D}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://www.cdu.ac.kr/" xr:uid="{310B7CC9-75EE-4479-853E-7D68F2236BD5}"/>
+    <hyperlink ref="C5" r:id="rId14" display="http://www.duh.ac.kr/" xr:uid="{ED0854BA-7334-47FD-8856-C58983AA6A0D}"/>
+    <hyperlink ref="C9" r:id="rId15" display="http://www.sehan.ac.kr/" xr:uid="{A9200449-02C7-4B11-B209-CA1B0A489E99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8079,7 +8080,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8092,248 +8093,251 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
         <v>489</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>489</v>
+      </c>
+      <c r="E10" t="s">
+        <v>462</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>502</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8342,20 +8346,20 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" display="http://www.chosun.ac.kr/" xr:uid="{2847E4C3-39C4-49D6-AAC2-F0E0B24E4140}"/>
-    <hyperlink ref="C11" r:id="rId2" display="http://www.cnc.ac.kr/" xr:uid="{965D9A13-4618-462A-AF7C-86831E3BE25D}"/>
-    <hyperlink ref="C13" r:id="rId3" display="http://www.cst.ac.kr/" xr:uid="{F0D092C4-80F2-4B0B-B197-709116AF6B71}"/>
-    <hyperlink ref="C14" r:id="rId4" display="http://www.honam.ac.kr/" xr:uid="{5027F6CB-BB31-4F68-B5BD-A7B9CA2E053D}"/>
-    <hyperlink ref="C4" r:id="rId5" display="http://www.gwangju.ac.kr/" xr:uid="{D007D37B-A4A0-4279-98FB-5265D5F21BB7}"/>
-    <hyperlink ref="C10" r:id="rId6" display="http://www.songwon.ac.kr/" xr:uid="{A004BBCE-4069-4005-A521-0F42F11E276D}"/>
-    <hyperlink ref="C3" r:id="rId7" display="http://www.gnue.ac.kr/" xr:uid="{ECB35B9B-FA4A-49F3-B302-1833EBC84A69}"/>
-    <hyperlink ref="C2" r:id="rId8" display="http://www.kwangshin.ac.kr/" xr:uid="{0AD1C9D1-B216-4D0D-B050-7CAD53F03BEE}"/>
-    <hyperlink ref="C8" r:id="rId9" display="http://www.dkc.ac.kr/" xr:uid="{8FBAC7E5-95F9-4DFB-9659-12D90B481CDF}"/>
-    <hyperlink ref="C9" r:id="rId10" display="http://www.seoyeong.ac.kr/" xr:uid="{0AA4C085-9EAE-4637-9165-2CA0FFC1BF2D}"/>
-    <hyperlink ref="C5" r:id="rId11" display="http://www.ghu.ac.kr/" xr:uid="{A69CB27F-1BDA-4941-B8E6-C87CA2B786CF}"/>
-    <hyperlink ref="C6" r:id="rId12" display="http://www.kwu.ac.kr/" xr:uid="{5C6BE595-0E93-4187-8B11-17DE4A3F6F10}"/>
-    <hyperlink ref="C7" r:id="rId13" display="http://www.nambu.ac.kr/" xr:uid="{82295C13-CAB6-472B-9B53-10B0DB134E42}"/>
-    <hyperlink ref="C15" r:id="rId14" display="http://www.jnu.ac.kr/" xr:uid="{F769A8DA-0783-4D9F-8944-7D240DF85E94}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{3B6016BC-43F0-4C40-8EE2-026D434504BE}"/>
+    <hyperlink ref="C11" r:id="rId2" display="http://www.cnc.ac.kr/" xr:uid="{21C19279-A366-4CE0-9FEE-94AF7B384B6C}"/>
+    <hyperlink ref="C14" r:id="rId3" display="http://www.honam.ac.kr/" xr:uid="{C1AB82E5-C72C-43F3-89AD-C060201ACE06}"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://www.gwangju.ac.kr/" xr:uid="{5833C3C6-864A-40C6-963B-9F6E525C88F8}"/>
+    <hyperlink ref="C10" r:id="rId5" display="http://www.songwon.ac.kr/" xr:uid="{4CA6953B-B59F-4E5C-894C-9D8E58EFFCA4}"/>
+    <hyperlink ref="C3" r:id="rId6" display="http://www.gnue.ac.kr/" xr:uid="{D285E31B-A478-4D06-A561-9276CA94F254}"/>
+    <hyperlink ref="C2" r:id="rId7" display="http://www.kwangshin.ac.kr/" xr:uid="{28C52428-62A6-402B-88BE-42C141E08365}"/>
+    <hyperlink ref="C8" r:id="rId8" display="http://www.dkc.ac.kr/" xr:uid="{0ED3352E-2F51-490C-92DC-41D7D4CD1FD0}"/>
+    <hyperlink ref="C9" r:id="rId9" display="http://www.seoyeong.ac.kr/" xr:uid="{86C16FF0-ABD0-4693-AB88-D00D58F810D7}"/>
+    <hyperlink ref="C5" r:id="rId10" display="http://www.ghu.ac.kr/" xr:uid="{BC1F6647-0043-491D-9107-1CC71498D336}"/>
+    <hyperlink ref="C6" r:id="rId11" display="http://www.kwu.ac.kr/" xr:uid="{520E0DFD-5A9F-4463-AFC4-16643E776068}"/>
+    <hyperlink ref="C7" r:id="rId12" display="http://www.nambu.ac.kr/" xr:uid="{729F216D-E381-4588-A0EB-A4E0C9B1D432}"/>
+    <hyperlink ref="C15" r:id="rId13" display="http://www.jnu.ac.kr/" xr:uid="{9CFBF38F-76E5-4FC1-B99A-224E27C1D166}"/>
+    <hyperlink ref="C13" r:id="rId14" display="http://www.chosun.ac.kr/" xr:uid="{3A939621-5D83-4D62-8B39-2BACF980E23E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8366,7 +8370,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8379,84 +8383,84 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8479,7 +8483,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8489,8 +8493,8 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -8530,45 +8534,45 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s">
         <v>160</v>
       </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8576,27 +8580,27 @@
       </c>
       <c r="D3">
         <f>SUM(D$4:D$16)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:K3" si="0">SUM(I$4:I$16)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
@@ -8604,16 +8608,16 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8625,7 +8629,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!E$2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!F$2)</f>
@@ -8637,7 +8641,7 @@
       </c>
       <c r="H4">
         <f>COUNTIF(서울!$D$2:$D$42,통계!H$2)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(서울!$D$2:$D$42,"오프라인",서울!$F$2:$F$42,"")</f>
@@ -8654,11 +8658,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8666,19 +8670,19 @@
       </c>
       <c r="D5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!D$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!G$2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
@@ -8686,7 +8690,7 @@
       </c>
       <c r="I5">
         <f>COUNTIFS('경기, 인천'!$D$2:$D$34,"오프라인",'경기, 인천'!$F$2:$F$34,"")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f>C5-I5-K5</f>
@@ -8694,16 +8698,16 @@
       </c>
       <c r="K5">
         <f>COUNTIF('경기, 인천'!$F$2:$F$34,"O")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8715,7 +8719,7 @@
       </c>
       <c r="E6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!F$2)</f>
@@ -8723,7 +8727,7 @@
       </c>
       <c r="G6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!G$2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!H$2)</f>
@@ -8744,11 +8748,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8789,11 +8793,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8805,7 +8809,7 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!E$2)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!F$2)</f>
@@ -8813,11 +8817,11 @@
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!G$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!H$2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <f>COUNTIFS(충청!$D$2:$D$28,"오프라인",충청!$F$2:$F$28,"")</f>
@@ -8834,11 +8838,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8879,11 +8883,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8924,11 +8928,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8969,11 +8973,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9014,11 +9018,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9026,11 +9030,11 @@
       </c>
       <c r="D13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!D$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!F$2)</f>
@@ -9038,7 +9042,7 @@
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!H$2)</f>
@@ -9046,7 +9050,7 @@
       </c>
       <c r="I13">
         <f>COUNTIFS(전북!$D$2:$D$10,"오프라인",전북!$F$2:$F$10,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -9054,16 +9058,16 @@
       </c>
       <c r="K13">
         <f>COUNTIFS(전북!$F$2:$F$10,"O")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9071,7 +9075,7 @@
       </c>
       <c r="D14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!D$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
@@ -9083,7 +9087,7 @@
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
@@ -9091,7 +9095,7 @@
       </c>
       <c r="I14">
         <f>COUNTIFS(전남!$D$2:$D$16,"오프라인",전남!$F$2:$F$16,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -9099,16 +9103,16 @@
       </c>
       <c r="K14">
         <f>COUNTIFS(전남!$F$2:$F$16,"O")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9120,11 +9124,11 @@
       </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
@@ -9149,11 +9153,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.12 17시</v>
+        <v>05.13 16시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9194,7 +9198,7 @@
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9208,8 +9212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9223,704 +9227,710 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" t="s">
-        <v>484</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25" t="s">
         <v>157</v>
       </c>
+      <c r="E25" t="s">
+        <v>462</v>
+      </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -9929,47 +9939,47 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{CA890462-92C6-4EDD-974E-8FC9FFBF2916}"/>
-    <hyperlink ref="C33" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{68619778-09C6-4527-B589-283352564DC1}"/>
-    <hyperlink ref="C22" r:id="rId3" display="http://www.snu.ac.kr/" xr:uid="{A6B584FA-785E-42A8-A3A7-55B08A375219}"/>
-    <hyperlink ref="C41" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{44B63AEA-9E46-4A68-A6F4-D42C4ED7CEBA}"/>
-    <hyperlink ref="C38" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{A9B49AA0-E132-48A9-B46D-5C53D1EAAE96}"/>
-    <hyperlink ref="C6" r:id="rId6" display="http://www.khu.ac.kr/" xr:uid="{33A0EB7E-6BC9-48CE-AADD-78FC8C621D43}"/>
-    <hyperlink ref="C27" r:id="rId7" display="http://www.skku.edu/" xr:uid="{E782C97A-C95D-480E-A523-192DA3F055A2}"/>
-    <hyperlink ref="C10" r:id="rId8" display="http://www.dankook.ac.kr/" xr:uid="{EF528ACB-4A19-45F0-8C1E-DF56536758D1}"/>
-    <hyperlink ref="C29" r:id="rId9" display="http://www.sejong.ac.kr/" xr:uid="{611808D3-BD06-414A-AE98-17C738544500}"/>
-    <hyperlink ref="C8" r:id="rId10" display="http://www.kw.ac.kr/" xr:uid="{DF31A0B6-D4B1-4779-AE27-6D66173EAFF9}"/>
-    <hyperlink ref="C9" r:id="rId11" display="http://www.kookmin.ac.kr/" xr:uid="{FB2A8F9E-979A-4B47-85E1-3B7DAC1A2A9E}"/>
-    <hyperlink ref="C12" r:id="rId12" display="http://www.dongguk.edu/" xr:uid="{4FD6AB8C-6463-4A67-9AA4-CC5149E461D2}"/>
-    <hyperlink ref="C14" r:id="rId13" display="http://www.mju.ac.kr/" xr:uid="{28033778-E97B-4B13-9D8B-45E39F2435A3}"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://new.syu.ac.kr/" xr:uid="{DEAF71C8-8A12-4D17-B681-E13A5A3BFCAF}"/>
-    <hyperlink ref="C16" r:id="rId15" display="http://www.smu.ac.kr/" xr:uid="{3F9A34AC-D269-4E8D-901D-DB0B886567FA}"/>
-    <hyperlink ref="C18" r:id="rId16" display="https://www.skuniv.ac.kr/" xr:uid="{0920E59E-0E48-4BDA-868F-B969EE45D8B0}"/>
-    <hyperlink ref="C19" r:id="rId17" display="http://www.seoultech.ac.kr/" xr:uid="{52BCE29D-209C-4DEF-BD15-2FA5F566F4DD}"/>
-    <hyperlink ref="C36" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{6393596F-F5DB-4244-BA1B-05FA1EA91955}"/>
-    <hyperlink ref="C40" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{DE94FBFB-CF93-419C-8271-0A16B7FA5F21}"/>
-    <hyperlink ref="C42" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{826B267E-1FF3-4302-8682-95FC7B76E2C1}"/>
-    <hyperlink ref="C2" r:id="rId21" display="http://www.kcu.ac.kr/" xr:uid="{A0E22F32-38CE-435A-850E-0D61E2A6E13D}"/>
-    <hyperlink ref="C20" r:id="rId22" display="http://www.snue.ac.kr/" xr:uid="{67DF2720-EA5B-48C6-9708-75D616832FD9}"/>
-    <hyperlink ref="C11" r:id="rId23" xr:uid="{A4A0B137-AB0D-4F9D-9C7F-1C7434D21C84}"/>
-    <hyperlink ref="C13" r:id="rId24" display="http://www.dongduk.ac.kr/" xr:uid="{26589EF0-642B-48B5-89CF-DF36FB09EC7B}"/>
-    <hyperlink ref="C24" r:id="rId25" display="http://www.swu.ac.kr/" xr:uid="{C84158D2-1943-4F73-8BCE-EAC7F559FDA0}"/>
-    <hyperlink ref="C28" r:id="rId26" display="http://www.sungshin.ac.kr/" xr:uid="{DE100CCF-7B94-4ECD-AFAF-F135545D0663}"/>
-    <hyperlink ref="C30" r:id="rId27" display="http://www.sookmyung.ac.kr/" xr:uid="{428AD00E-1351-41D9-B3B6-4142E312B17D}"/>
-    <hyperlink ref="C35" r:id="rId28" display="http://www.cau.ac.kr/" xr:uid="{67C01243-5DB8-4D5F-B85D-0DA792F6D601}"/>
-    <hyperlink ref="C7" r:id="rId29" display="http://www.korea.ac.kr/" xr:uid="{AD343469-6453-4A2B-9B1A-704162E175A5}"/>
-    <hyperlink ref="C32" r:id="rId30" display="http://www.yonsei.ac.kr/" xr:uid="{337F0036-2C5F-46F7-A8F0-134BB4FE0DEC}"/>
-    <hyperlink ref="C17" r:id="rId31" display="http://www.sogang.ac.kr/" xr:uid="{36C8E4C4-B0C3-460F-A14B-9D93FA55020D}"/>
-    <hyperlink ref="C5" r:id="rId32" display="http://www.konkuk.ac.kr/" xr:uid="{FABB2CAE-2D21-471B-954F-F95B8A124AEA}"/>
-    <hyperlink ref="C3" r:id="rId33" display="http://songsin.catholic.ac.kr/" xr:uid="{1E2C7F6A-80B1-4B45-9EDA-703D1ED4AE8A}"/>
-    <hyperlink ref="C4" r:id="rId34" display="http://www.mtu.ac.kr/" xr:uid="{11674B7B-E7F8-436C-B34A-AFED0699B964}"/>
-    <hyperlink ref="C21" r:id="rId35" display="http://www.scu.ac.kr/" xr:uid="{A8AB3DA8-ACFC-4BBA-B730-27ACA1758698}"/>
-    <hyperlink ref="C25" r:id="rId36" display="http://www.hytu.ac.kr/" xr:uid="{AA360027-3A67-4EC8-8C1A-64FADE5BDC44}"/>
-    <hyperlink ref="C26" r:id="rId37" display="http://www.skhu.ac.kr/" xr:uid="{832908FA-F062-4F47-9A29-A9B88F1EF5B2}"/>
-    <hyperlink ref="C34" r:id="rId38" xr:uid="{FBBB5CA9-B6CB-432E-8CAE-584937B44C0F}"/>
-    <hyperlink ref="C37" r:id="rId39" xr:uid="{44D44942-F435-433E-8E27-AB63D7CE1B97}"/>
-    <hyperlink ref="C23" r:id="rId40" display="http://www.uos.ac.kr/" xr:uid="{04861031-B3BA-4312-99F0-52F0F6BBC859}"/>
-    <hyperlink ref="C39" r:id="rId41" display="http://www.knsu.ac.kr/" xr:uid="{505A1D7D-41FE-4AB0-9A39-7F7C7389D6EB}"/>
+    <hyperlink ref="C31" r:id="rId1" display="http://www.ssu.ac.kr/" xr:uid="{642498F0-6129-4BCC-900D-979550C2DC9A}"/>
+    <hyperlink ref="C33" r:id="rId2" display="http://www.ewha.ac.kr/" xr:uid="{2EEE45E4-E405-4559-BD47-057DC5BD6AA7}"/>
+    <hyperlink ref="C22" r:id="rId3" display="http://www.snu.ac.kr/" xr:uid="{6615D270-8105-4755-A5C3-C45E23223C94}"/>
+    <hyperlink ref="C41" r:id="rId4" display="http://www.hanyang.ac.kr/" xr:uid="{ACC67C10-B5FC-40AD-ADB2-055618215A59}"/>
+    <hyperlink ref="C38" r:id="rId5" display="http://www.hufs.ac.kr/" xr:uid="{F2748662-2663-4655-9F31-B7039C03574B}"/>
+    <hyperlink ref="C6" r:id="rId6" display="http://www.khu.ac.kr/" xr:uid="{66F02CC5-1C56-444D-BA4A-B870C3AC6E62}"/>
+    <hyperlink ref="C27" r:id="rId7" display="http://www.skku.edu/" xr:uid="{D8F2AA90-2D8A-4154-8FDF-CFCD4D2C66B0}"/>
+    <hyperlink ref="C10" r:id="rId8" display="http://www.dankook.ac.kr/" xr:uid="{F7B95283-6020-46D7-B3DA-9BC626EFF18B}"/>
+    <hyperlink ref="C29" r:id="rId9" display="http://www.sejong.ac.kr/" xr:uid="{8B6E9819-8422-46F3-8E92-48481A71896A}"/>
+    <hyperlink ref="C8" r:id="rId10" display="http://www.kw.ac.kr/" xr:uid="{567AB378-62EA-490B-8123-12F1A581EBA9}"/>
+    <hyperlink ref="C9" r:id="rId11" display="http://www.kookmin.ac.kr/" xr:uid="{7FBABC63-385F-4D46-A0AF-2DC37C79EC2F}"/>
+    <hyperlink ref="C12" r:id="rId12" display="http://www.dongguk.edu/" xr:uid="{16444445-DFD6-4688-AB01-5942183F6EF5}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://www.mju.ac.kr/" xr:uid="{5ABF02BE-DFB9-47B9-9039-294D60EDB368}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://new.syu.ac.kr/" xr:uid="{B6CB65B5-FEE5-4EA0-A2AB-F47EEEFFCB3F}"/>
+    <hyperlink ref="C16" r:id="rId15" display="http://www.smu.ac.kr/" xr:uid="{7E585709-588E-4759-82D6-03DF7B944F4B}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://www.skuniv.ac.kr/" xr:uid="{2F665C16-79BB-44A8-AF27-5DA61027226D}"/>
+    <hyperlink ref="C19" r:id="rId17" display="http://www.seoultech.ac.kr/" xr:uid="{A15954F9-7530-4067-927B-505F7A36D529}"/>
+    <hyperlink ref="C36" r:id="rId18" display="http://www.chongshin.ac.kr/" xr:uid="{32063B89-D189-4B2B-8FA7-D7610C3738B0}"/>
+    <hyperlink ref="C40" r:id="rId19" display="http://www.hansung.ac.kr/" xr:uid="{778C08B7-AA33-4D65-9A71-C348206975CE}"/>
+    <hyperlink ref="C42" r:id="rId20" display="http://www.hongik.ac.kr/" xr:uid="{6CAB3A1B-A8A4-4E66-830F-1768B02F0844}"/>
+    <hyperlink ref="C2" r:id="rId21" display="http://www.kcu.ac.kr/" xr:uid="{6DE0F811-A51E-48A1-8622-0728C06DBB3E}"/>
+    <hyperlink ref="C20" r:id="rId22" display="http://www.snue.ac.kr/" xr:uid="{75602ED8-37E4-4AAA-97C8-0658D052E963}"/>
+    <hyperlink ref="C11" r:id="rId23" xr:uid="{376F7085-AF49-47A5-97A4-8C51A682024F}"/>
+    <hyperlink ref="C13" r:id="rId24" display="http://www.dongduk.ac.kr/" xr:uid="{546A2A36-847B-480C-B20A-73FFC5723737}"/>
+    <hyperlink ref="C24" r:id="rId25" display="http://www.swu.ac.kr/" xr:uid="{89B402DD-661E-4439-9FB4-B2A50AAC122F}"/>
+    <hyperlink ref="C28" r:id="rId26" display="http://www.sungshin.ac.kr/" xr:uid="{B555F915-C760-433D-8B48-4183C4C21091}"/>
+    <hyperlink ref="C30" r:id="rId27" display="http://www.sookmyung.ac.kr/" xr:uid="{3B109A35-4689-4CFD-912D-FDFB4505283E}"/>
+    <hyperlink ref="C35" r:id="rId28" display="http://www.cau.ac.kr/" xr:uid="{E0DA0F81-DA9B-417F-A832-4D60AA32D6E5}"/>
+    <hyperlink ref="C7" r:id="rId29" display="http://www.korea.ac.kr/" xr:uid="{D6B94CE8-B22C-44AA-9916-E711B2F79BF8}"/>
+    <hyperlink ref="C32" r:id="rId30" display="http://www.yonsei.ac.kr/" xr:uid="{958526E2-4327-4A7A-877C-8934B742EDB6}"/>
+    <hyperlink ref="C17" r:id="rId31" display="http://www.sogang.ac.kr/" xr:uid="{B10D2EE2-56C6-427D-AB7C-01977BC51514}"/>
+    <hyperlink ref="C5" r:id="rId32" display="http://www.konkuk.ac.kr/" xr:uid="{D5D14119-D193-4866-B003-F97B97570F0B}"/>
+    <hyperlink ref="C3" r:id="rId33" display="http://songsin.catholic.ac.kr/" xr:uid="{9B299756-58DB-4247-A183-500E2FB64BA0}"/>
+    <hyperlink ref="C4" r:id="rId34" display="http://www.mtu.ac.kr/" xr:uid="{C9C6B146-439E-49B6-ACE0-79BF8D80542D}"/>
+    <hyperlink ref="C21" r:id="rId35" display="http://www.scu.ac.kr/" xr:uid="{D668A9D5-C233-48B4-AF52-0678731A898C}"/>
+    <hyperlink ref="C25" r:id="rId36" display="http://www.hytu.ac.kr/" xr:uid="{B7CBBD3E-733D-4463-9433-2095A2F317F8}"/>
+    <hyperlink ref="C26" r:id="rId37" display="http://www.skhu.ac.kr/" xr:uid="{2A5417D6-9DA0-4F5B-8AB4-89F177CEBBFA}"/>
+    <hyperlink ref="C34" r:id="rId38" xr:uid="{2B954107-CEB5-4BAB-8F57-C50F756124E8}"/>
+    <hyperlink ref="C37" r:id="rId39" xr:uid="{04F0140E-08A1-4AC2-84CA-31DF4DF46719}"/>
+    <hyperlink ref="C23" r:id="rId40" display="http://www.uos.ac.kr/" xr:uid="{01F56D49-A713-4671-8A09-F32BD69D94B3}"/>
+    <hyperlink ref="C39" r:id="rId41" display="http://www.knsu.ac.kr/" xr:uid="{F875ECA7-461F-46DF-97E6-334DF66D514B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
@@ -9980,8 +9990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9994,562 +10004,568 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" t="s">
-        <v>463</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B17" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="D17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>489</v>
+      </c>
+      <c r="E26" t="s">
+        <v>462</v>
+      </c>
+      <c r="F26" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>388</v>
+      </c>
+      <c r="E27" t="s">
+        <v>462</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10570,39 +10586,39 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E833955F-FD87-4DE5-BEBD-9A089CD87781}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{A6752202-DA9A-4D25-B89A-C96D8F2729FE}"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://www.ginue.ac.kr/" xr:uid="{39DE477A-8744-47F0-A810-6139F50AEF01}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{51109036-7622-44FB-BDB4-7C957D9FD583}"/>
-    <hyperlink ref="C7" r:id="rId5" display="http://www.dyu.ac.kr/" xr:uid="{ADCBACF2-7900-4671-9B46-94CF9BBA3853}"/>
-    <hyperlink ref="C9" r:id="rId6" display="http://www.sjs.ac.kr/" xr:uid="{FF1C11B0-A41C-4740-997B-E509282EA8E3}"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=192&amp;py=319&amp;sx=192&amp;sy=319&amp;p=UoxuUsprvxZsssy1Ohwssssssj0-520898&amp;q=%EC%84%B1%EA%B2%B0%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=sySfsv8HrLjFir7%2F1E2OwA%3D%3D&amp;time=1586250333258&amp;bt=2&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097461&amp;u=http%3A%2F%2Fwww.sungkyul.ac.kr%2F&amp;cr=1" xr:uid="{5F4427F4-0271-4D32-9471-AFDB8653F710}"/>
-    <hyperlink ref="C11" r:id="rId8" display="http://www.suwon.ac.kr/" xr:uid="{4CB01427-1A0C-4DF8-ABE9-D3BAD1E80140}"/>
-    <hyperlink ref="C12" r:id="rId9" display="http://www.sgu.ac.kr/" xr:uid="{5129238F-8C32-4582-ABEE-B99D0C0A0342}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{43080C81-2BD2-439A-B01E-DBB2F8AC931A}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{D2E6A38D-6E54-4AF0-AD5E-0D85540710C1}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{5D94EC56-303A-4758-9F25-49F05E389523}"/>
-    <hyperlink ref="C18" r:id="rId13" display="http://www.yewon.ac.kr/" xr:uid="{5FF351E9-CDFA-45E9-8535-07B4F018B627}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{18265E56-BA80-4A84-9FCC-0D2592FF3936}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{CE2E2F78-BC25-46A5-AD3F-BB429654EA0C}"/>
-    <hyperlink ref="C25" r:id="rId16" display="http://www.cha.ac.kr/" xr:uid="{3B4F6DE7-43E5-4512-9AB9-63691B6B83D5}"/>
-    <hyperlink ref="C27" r:id="rId17" display="http://www.ptu.ac.kr/" xr:uid="{1942865B-F937-426C-9DB2-BD210AB61A4B}"/>
-    <hyperlink ref="C28" r:id="rId18" xr:uid="{2106A05C-9314-49B3-88EE-AB4385350EA6}"/>
-    <hyperlink ref="C29" r:id="rId19" display="http://www.kpu.ac.kr/" xr:uid="{91E5F6EF-D06B-4451-9661-731FD8DF10FC}"/>
-    <hyperlink ref="C30" r:id="rId20" display="http://www.kau.ac.kr/" xr:uid="{EE218B0D-47CA-4F1C-AE52-90DD2E1F1A64}"/>
-    <hyperlink ref="C31" r:id="rId21" display="https://search.naver.com/p/crd/rd?m=1&amp;px=227&amp;py=318&amp;sx=227&amp;sy=318&amp;p=Uoy%2Fswp0Yidssu3o0Fhssssss2R-517501&amp;q=%ED%95%9C%EC%84%B8%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=Ot70LUQnfWG9e%2B3iILSwXg%3D%3D&amp;time=1586282245967&amp;bt=18&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973A6&amp;u=http%3A%2F%2Fwww.hansei.ac.kr%2F&amp;cr=1" xr:uid="{DCD8E381-F49B-47AF-ACA9-06B2125FDCEC}"/>
-    <hyperlink ref="C32" r:id="rId22" xr:uid="{1409A9FB-81AF-4A08-A6C4-A24578DE2B31}"/>
-    <hyperlink ref="C33" r:id="rId23" display="https://www.uhs.ac.kr/" xr:uid="{5AB25DC6-4759-4515-BBBB-DD9CD22AF838}"/>
-    <hyperlink ref="C22" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{60498F7A-EA42-459E-812E-E1B1FC5FBD24}"/>
-    <hyperlink ref="C23" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{F63F11F5-ACD4-4F92-91AB-F4D83B74DF4B}"/>
-    <hyperlink ref="C2" r:id="rId26" xr:uid="{C17D5B82-699C-440F-A448-8084B4A509EC}"/>
-    <hyperlink ref="C8" r:id="rId27" display="https://www.stu.ac.kr/" xr:uid="{FF25DE5A-B30D-4547-9886-F19255D37A4D}"/>
-    <hyperlink ref="C14" r:id="rId28" display="http://www.acts.ac.kr/" xr:uid="{926083F2-5580-42D2-BA71-8C5D5CEE3ABE}"/>
-    <hyperlink ref="C21" r:id="rId29" display="https://www.iccu.ac.kr/" xr:uid="{3EB9D6BF-AEF1-4738-9B4B-D18FF5DC18D5}"/>
-    <hyperlink ref="C24" r:id="rId30" display="http://www.sangha.ac.kr/" xr:uid="{BD12DACE-8567-4F3D-88F5-67A8B0CE47B1}"/>
-    <hyperlink ref="C26" r:id="rId31" display="http://www.calvin.ac.kr/" xr:uid="{023579C3-0719-43AE-A87B-7BD2B77E1FE5}"/>
-    <hyperlink ref="C17" r:id="rId32" display="http://www.yit.ac.kr/" xr:uid="{1B6E54B7-EEE3-4762-99CE-C0CD33CBBC7F}"/>
-    <hyperlink ref="C34" r:id="rId33" display="http://www.hanyang.ac.kr/" xr:uid="{28EE65C7-43B4-4055-A870-65388B2E5C6F}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{02A3F4E5-94A2-4DF0-A8ED-39F0C697FAF1}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F76EBEFC-3E58-4DD8-8CDE-A54DE92723CF}"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://www.ginue.ac.kr/" xr:uid="{BEE37A14-2819-4EF8-8326-F7679C91DBA0}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8BA62056-EBC7-4018-9D52-32D984C7BAB5}"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://www.dyu.ac.kr/" xr:uid="{7690E1B7-F3EF-456A-B815-E9EC92C031C3}"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://www.sjs.ac.kr/" xr:uid="{25ECAD01-DF85-4F35-9EB7-577E86FF165E}"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=192&amp;py=319&amp;sx=192&amp;sy=319&amp;p=UoxuUsprvxZsssy1Ohwssssssj0-520898&amp;q=%EC%84%B1%EA%B2%B0%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=sySfsv8HrLjFir7%2F1E2OwA%3D%3D&amp;time=1586250333258&amp;bt=2&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097461&amp;u=http%3A%2F%2Fwww.sungkyul.ac.kr%2F&amp;cr=1" xr:uid="{0DB58C5A-353A-44D0-B858-AE66D85D7B54}"/>
+    <hyperlink ref="C11" r:id="rId8" display="http://www.suwon.ac.kr/" xr:uid="{8EDE1A15-AD81-4AD0-8D43-16307138E450}"/>
+    <hyperlink ref="C12" r:id="rId9" display="http://www.sgu.ac.kr/" xr:uid="{05E6519E-0AC3-4CBE-A317-2BE1D4A45AFF}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{5A205090-7FC7-461A-9F29-224F60057FE8}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{88D955B8-8F51-43D5-8B8F-7915A20BAFA4}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{55A1F142-D483-4875-87DE-2DB758E98A0C}"/>
+    <hyperlink ref="C18" r:id="rId13" display="http://www.yewon.ac.kr/" xr:uid="{1F3D4140-5C5C-4E8B-9CFA-C62340AF7382}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{16D60FA1-AE05-4CA0-AECA-9EC15D615B29}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{4B0A5FD1-79A8-4C06-9DCA-C7E666885502}"/>
+    <hyperlink ref="C25" r:id="rId16" display="http://www.cha.ac.kr/" xr:uid="{CB3C970D-1802-4B4D-9C3A-5D89DE4196C9}"/>
+    <hyperlink ref="C27" r:id="rId17" display="http://www.ptu.ac.kr/" xr:uid="{1E7595FC-84D6-41C0-9209-1E30E6D5A4FF}"/>
+    <hyperlink ref="C28" r:id="rId18" xr:uid="{C3571E7D-F1E6-4E8D-AE8B-9AF9543C020C}"/>
+    <hyperlink ref="C29" r:id="rId19" display="http://www.kpu.ac.kr/" xr:uid="{8518B2ED-482A-43A7-A113-397D27ED4F1B}"/>
+    <hyperlink ref="C30" r:id="rId20" display="http://www.kau.ac.kr/" xr:uid="{F5636B66-5E0C-4CEB-A36A-6548828D373D}"/>
+    <hyperlink ref="C31" r:id="rId21" display="https://search.naver.com/p/crd/rd?m=1&amp;px=227&amp;py=318&amp;sx=227&amp;sy=318&amp;p=Uoy%2Fswp0Yidssu3o0Fhssssss2R-517501&amp;q=%ED%95%9C%EC%84%B8%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=Ot70LUQnfWG9e%2B3iILSwXg%3D%3D&amp;time=1586282245967&amp;bt=18&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000973A6&amp;u=http%3A%2F%2Fwww.hansei.ac.kr%2F&amp;cr=1" xr:uid="{209B4070-C3CA-40F2-97BF-D6BB565C391C}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{045952B7-677A-4AEF-9C84-D8E04DF36914}"/>
+    <hyperlink ref="C33" r:id="rId23" display="https://www.uhs.ac.kr/" xr:uid="{0A44C52C-252A-4DCA-91D6-F76DD0C12157}"/>
+    <hyperlink ref="C22" r:id="rId24" display="http://www.inu.ac.kr/" xr:uid="{AAE8013F-A620-452E-80C6-172D2DDA6560}"/>
+    <hyperlink ref="C23" r:id="rId25" display="http://www.inha.ac.kr/" xr:uid="{B3544FA1-6BAB-4606-A051-5CD33BC4EDAA}"/>
+    <hyperlink ref="C2" r:id="rId26" xr:uid="{ABB75597-8BAE-4469-B9F9-6B2DE34DD4C4}"/>
+    <hyperlink ref="C8" r:id="rId27" display="https://www.stu.ac.kr/" xr:uid="{9A29879A-6BEB-4D92-A3F8-0EC8F8A78873}"/>
+    <hyperlink ref="C14" r:id="rId28" display="http://www.acts.ac.kr/" xr:uid="{D0A8EF08-3315-4D10-9118-F7C0B41B3353}"/>
+    <hyperlink ref="C21" r:id="rId29" display="https://www.iccu.ac.kr/" xr:uid="{41117E55-72DA-4855-B535-DDA282C4872A}"/>
+    <hyperlink ref="C24" r:id="rId30" display="http://www.sangha.ac.kr/" xr:uid="{4E0FCA17-17E9-408C-A6E5-C644FD802708}"/>
+    <hyperlink ref="C26" r:id="rId31" display="http://www.calvin.ac.kr/" xr:uid="{AFBECBC3-7451-4B11-A218-12FE0696E36B}"/>
+    <hyperlink ref="C17" r:id="rId32" display="http://www.yit.ac.kr/" xr:uid="{07A850A5-D720-49DD-A8A7-E0434E7CEA51}"/>
+    <hyperlink ref="C34" r:id="rId33" display="http://www.hanyang.ac.kr/" xr:uid="{E2856F39-FC8D-4C05-AF44-621AFA1C11DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>
@@ -10627,161 +10643,161 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -10790,14 +10806,14 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="http://www.gwnu.ac.kr/" xr:uid="{895A6F37-2C73-43FF-B960-9383C08807BC}"/>
-    <hyperlink ref="C7" r:id="rId2" display="http://www.kangwon.ac.kr/" xr:uid="{D3F73F1C-E475-4991-BACF-152C960C3D67}"/>
-    <hyperlink ref="C8" r:id="rId3" display="http://www.sangji.ac.kr/" xr:uid="{9B99026C-115F-4D6E-9B2D-C08D31BF6459}"/>
-    <hyperlink ref="C9" r:id="rId4" display="https://www.cnue.ac.kr/" xr:uid="{8A854279-2C3E-4236-8E74-CB7B7383842E}"/>
-    <hyperlink ref="C5" r:id="rId5" display="http://www.halla.ac.kr/" xr:uid="{51D2F8AC-CD65-46AF-B6C2-0BD97209DD36}"/>
-    <hyperlink ref="C6" r:id="rId6" display="http://www.hallym.ac.kr/" xr:uid="{97F26DC9-76B2-435F-93D6-63EA8EA89211}"/>
-    <hyperlink ref="C3" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=625&amp;py=320&amp;sx=625&amp;sy=320&amp;p=UoxtBlprvmsssNN%2FPTZssssstiZ-311470&amp;q=%EA%B2%BD%EB%8F%99%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=sySfsv8HrLjFir7%2F1E2OwA%3D%3D&amp;time=1586250127465&amp;bt=2&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097518&amp;u=http%3A%2F%2Fkduniv.ac.kr%2F&amp;cr=1" xr:uid="{AA6D597B-6D33-4FE4-81B0-0E12FB136638}"/>
-    <hyperlink ref="C2" r:id="rId8" display="https://search.naver.com/p/crd/rd?m=1&amp;px=217&amp;py=314&amp;sx=217&amp;sy=314&amp;p=Uq6dZwprvhGssuC2hjKssssstqK-355298&amp;q=%EA%B0%80%ED%86%A8%EB%A6%AD+%EA%B4%80%EB%8F%99%EB%8C%80%ED%95%99%EA%B5%90&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=HHoAB%2FfqP%2FiC73xuO7nv%2BQ%3D%3D&amp;time=1587712135325&amp;bt=10&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000974F6&amp;u=http%3A%2F%2Fwww.cku.ac.kr%2F&amp;cr=1" xr:uid="{693DA728-A43D-4A3F-97D9-990A2BE61284}"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://www.gwnu.ac.kr/" xr:uid="{6522709D-87C9-40FE-831F-3973C0ED8FF5}"/>
+    <hyperlink ref="C7" r:id="rId2" display="http://www.kangwon.ac.kr/" xr:uid="{8E5C5D6D-4CA3-4060-B83D-3AEA16EF5A5A}"/>
+    <hyperlink ref="C8" r:id="rId3" display="http://www.sangji.ac.kr/" xr:uid="{A8431D69-EFAD-44E3-A3D0-0302BF8A27B5}"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://www.cnue.ac.kr/" xr:uid="{A07A68A6-A4BF-4648-AEDB-9C74B48CC53D}"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://www.halla.ac.kr/" xr:uid="{87697466-F67B-43C1-BB34-C0A1AD529544}"/>
+    <hyperlink ref="C6" r:id="rId6" display="http://www.hallym.ac.kr/" xr:uid="{8B6CFDBF-F709-4DF5-B263-ADA50778983F}"/>
+    <hyperlink ref="C3" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=625&amp;py=320&amp;sx=625&amp;sy=320&amp;p=UoxtBlprvmsssNN%2FPTZssssstiZ-311470&amp;q=%EA%B2%BD%EB%8F%99%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=sySfsv8HrLjFir7%2F1E2OwA%3D%3D&amp;time=1586250127465&amp;bt=2&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_000000097518&amp;u=http%3A%2F%2Fkduniv.ac.kr%2F&amp;cr=1" xr:uid="{1029F2E8-C0B2-40E6-8032-45DBB78A9382}"/>
+    <hyperlink ref="C2" r:id="rId8" display="https://search.naver.com/p/crd/rd?m=1&amp;px=217&amp;py=314&amp;sx=217&amp;sy=314&amp;p=Uq6dZwprvhGssuC2hjKssssstqK-355298&amp;q=%EA%B0%80%ED%86%A8%EB%A6%AD+%EA%B4%80%EB%8F%99%EB%8C%80%ED%95%99%EA%B5%90&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=HHoAB%2FfqP%2FiC73xuO7nv%2BQ%3D%3D&amp;time=1587712135325&amp;bt=10&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000974F6&amp;u=http%3A%2F%2Fwww.cku.ac.kr%2F&amp;cr=1" xr:uid="{87835DDB-2483-4334-BF8C-88ACE41D433B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10808,7 +10824,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10821,240 +10837,240 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="s">
-        <v>463</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>462</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11066,19 +11082,19 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="http://www.hannam.ac.kr/" xr:uid="{324EC0CF-20F0-4CE0-A203-1B97AB67B1E5}"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://www.dst.ac.kr/" xr:uid="{21748C97-E379-49F0-AF41-4968BD0ED22E}"/>
-    <hyperlink ref="C7" r:id="rId3" display="http://www.mokwon.ac.kr/" xr:uid="{B6C26F9F-D8DB-4AD4-9918-57A3AC71AA44}"/>
-    <hyperlink ref="C8" r:id="rId4" display="http://www.pcu.ac.kr/" xr:uid="{BA33615B-877E-44EE-9101-EA09CA380DC7}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://www.dju.ac.kr/" xr:uid="{C0151C77-94C5-4669-849E-533ADEF5C4A3}"/>
-    <hyperlink ref="C9" r:id="rId6" display="http://www.wsu.ac.kr/" xr:uid="{ABBD4BD7-7EFF-47B7-A2BE-D182882AB348}"/>
-    <hyperlink ref="C3" r:id="rId7" display="http://www.ddu.ac.kr/" xr:uid="{D3FB0BD2-63DA-4B4E-AAB8-BEBBA87BD5B4}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{6FC081ED-E575-4C04-B0F4-B5713E6B7364}"/>
-    <hyperlink ref="C14" r:id="rId9" display="http://www.hanbat.ac.kr/" xr:uid="{493FEEE2-5F05-4754-BA28-7F7C5D43D070}"/>
-    <hyperlink ref="C12" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{74BB9BD4-2DDE-434A-BD2C-A52384072D66}"/>
-    <hyperlink ref="C5" r:id="rId11" display="http://www.daejeon.ac.kr/" xr:uid="{01198AF4-1EAD-4A47-B5F4-F6B581BAC42B}"/>
-    <hyperlink ref="C4" r:id="rId12" display="http://www.hit.ac.kr/" xr:uid="{EF35BEBE-7FE7-4023-A436-7A0F2E02F0EE}"/>
-    <hyperlink ref="C11" r:id="rId13" display="http://www.kbtus.ac.kr/" xr:uid="{64EA3C61-AE36-43E5-BA61-7983C42CB37A}"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://www.hannam.ac.kr/" xr:uid="{EE01801F-F7FC-4E7B-B3CF-61B69071B72E}"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://www.dst.ac.kr/" xr:uid="{0ECE173B-9425-4D74-BE90-245C717AAA6A}"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://www.mokwon.ac.kr/" xr:uid="{40ADF683-3C0B-47E1-991E-E8C8F22C6E27}"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://www.pcu.ac.kr/" xr:uid="{56874F39-D02E-4B18-A4E6-D0B41AC9D2B0}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.dju.ac.kr/" xr:uid="{147D1D42-22C3-42F2-9879-89A6F0EA03CB}"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://www.wsu.ac.kr/" xr:uid="{C7305795-8FD4-403D-9EF7-4AED657A4344}"/>
+    <hyperlink ref="C3" r:id="rId7" display="http://www.ddu.ac.kr/" xr:uid="{EBAE6D38-696E-424F-8257-3FCFE461ED60}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{4927AAFF-5176-4B9F-8E09-83BDB3EAAD74}"/>
+    <hyperlink ref="C14" r:id="rId9" display="http://www.hanbat.ac.kr/" xr:uid="{FE819186-D066-49D7-B28B-CA9317B21883}"/>
+    <hyperlink ref="C12" r:id="rId10" display="http://www.kaist.ac.kr/" xr:uid="{69718FFD-87B9-4551-A68C-94DB814E9A18}"/>
+    <hyperlink ref="C5" r:id="rId11" display="http://www.daejeon.ac.kr/" xr:uid="{6E97260F-4603-48D0-8689-70368B8FA238}"/>
+    <hyperlink ref="C4" r:id="rId12" display="http://www.hit.ac.kr/" xr:uid="{CDA409FA-221E-4C06-871F-6C3141F60158}"/>
+    <hyperlink ref="C11" r:id="rId13" display="http://www.kbtus.ac.kr/" xr:uid="{9F590507-A1A5-4E15-A54C-B2C8A7DC87B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
@@ -11090,7 +11106,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11103,475 +11119,481 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D9" t="s">
-        <v>490</v>
-      </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>462</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>388</v>
+      </c>
+      <c r="E12" t="s">
+        <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>388</v>
+      </c>
+      <c r="E14" t="s">
+        <v>462</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="D16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" t="s">
-        <v>463</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -11580,33 +11602,33 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.gjue.ac.kr/" xr:uid="{B8FABE58-2C1B-42A9-9E43-FA3E6B3CF54B}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://www.kongju.ac.kr/" xr:uid="{3C9FC679-8A36-4980-AC7F-1D4A8FF3ED82}"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://www.nuch.ac.kr/" xr:uid="{4541FE71-AB9C-48D0-948F-FD65C3C941E0}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://www.konyang.ac.kr/" xr:uid="{A7A3DE74-37CA-4219-95CC-6158E51FAAAA}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://www.kosin.ac.kr/" xr:uid="{5B8652E8-C566-4968-997F-91663A2BDC86}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://www.ggu.ac.kr/" xr:uid="{860A72E8-1BB5-4A71-82F3-7B8E8A7D7044}"/>
-    <hyperlink ref="C9" r:id="rId7" display="http://www.kornu.ac.kr/" xr:uid="{8E93A8B2-BAD7-4D1B-A635-FC3D9B1B60B6}"/>
-    <hyperlink ref="C10" r:id="rId8" display="http://www.nsu.ac.kr/" xr:uid="{8B04B5B2-260A-4156-898F-6341AE2F8E02}"/>
-    <hyperlink ref="C11" r:id="rId9" display="http://www.bu.ac.kr/" xr:uid="{48D0BA81-17A4-4B44-85A0-6695D2E813C0}"/>
-    <hyperlink ref="C13" r:id="rId10" display="http://www.sunmoon.ac.kr/" xr:uid="{3CA3352B-960C-433C-99FC-1934F8F83BD2}"/>
-    <hyperlink ref="C15" r:id="rId11" display="http://homepage.sch.ac.kr/" xr:uid="{17D9D676-1F09-439F-8A36-DE19D5919FF3}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{9C9E2A6C-2039-4F01-98B9-E427A821107D}"/>
-    <hyperlink ref="C20" r:id="rId13" display="http://www.chungwoon.ac.kr/" xr:uid="{5448EC94-8B9B-4AEE-BF99-8AD404E7E1E0}"/>
-    <hyperlink ref="C26" r:id="rId14" display="http://www.koreatech.ac.kr/" xr:uid="{8AC4BF84-C680-493C-A311-4A7C259E2C8E}"/>
-    <hyperlink ref="C27" r:id="rId15" display="http://www.hanseo.ac.kr/" xr:uid="{7597B502-5CED-4D7E-8538-A657DEAAE956}"/>
-    <hyperlink ref="C28" r:id="rId16" display="http://www.hoseo.ac.kr/" xr:uid="{8F96935E-9553-4C46-A8B6-0D27614B02C1}"/>
-    <hyperlink ref="C21" r:id="rId17" display="http://www.cje.ac.kr/" xr:uid="{FBA1E409-F2A2-4898-A8AA-191932F42112}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{24B8A8DB-AA88-41B3-8064-C117A6A55979}"/>
-    <hyperlink ref="C24" r:id="rId19" display="http://www.knue.ac.kr/" xr:uid="{3AA0AB9B-DD95-40A8-83DA-E26C368F6A69}"/>
-    <hyperlink ref="C25" r:id="rId20" display="http://www.ut.ac.kr/" xr:uid="{48D72A4A-2CDF-4B2B-BD06-887563F86B86}"/>
-    <hyperlink ref="C8" r:id="rId21" display="http://www.kdu.ac.kr/" xr:uid="{6A50F15A-3278-47C2-8262-7AE98BB78BA7}"/>
-    <hyperlink ref="C12" r:id="rId22" display="http://www.seowon.ac.kr/" xr:uid="{03499AA4-7A38-4B89-8E58-3ADF9757912E}"/>
-    <hyperlink ref="C14" r:id="rId23" display="http://www.semyung.ac.kr/" xr:uid="{66C026BF-9CA1-4788-9DE5-9E1B127CD0AA}"/>
-    <hyperlink ref="C19" r:id="rId24" display="http://www.jwu.ac.kr/" xr:uid="{1AF33DE5-0AD4-419F-827A-F3F72A2C16DF}"/>
-    <hyperlink ref="C22" r:id="rId25" display="http://www.cju.ac.kr/" xr:uid="{E913F3BD-D888-499F-B069-7A1451E93346}"/>
-    <hyperlink ref="C17" r:id="rId26" display="http://www.u1.ac.kr/" xr:uid="{9FE501D3-C1D7-4AA0-B336-278A6833877D}"/>
-    <hyperlink ref="C16" r:id="rId27" display="http://www.shinsung.ac.kr/" xr:uid="{F7C39A24-BF0C-4858-B53C-4D15E48611B9}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.gjue.ac.kr/" xr:uid="{9CC77405-BA12-41E0-B78E-5879252C7BF7}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://www.kongju.ac.kr/" xr:uid="{981D6513-D3E3-4717-9F28-F37BA0A91C6D}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://www.nuch.ac.kr/" xr:uid="{3CE08488-E9B4-44E2-930D-7142DD83C62F}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://www.konyang.ac.kr/" xr:uid="{D25AEC6E-062B-461D-B3DA-C2CE887D7003}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.kosin.ac.kr/" xr:uid="{B44EC80A-0901-4D09-AEEC-E359C2B53627}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://www.ggu.ac.kr/" xr:uid="{F9992783-8B8C-4240-AAC3-1EFAE1E1257E}"/>
+    <hyperlink ref="C9" r:id="rId7" display="http://www.kornu.ac.kr/" xr:uid="{1E61B481-2C30-4C13-8C8D-D98EBA946BCB}"/>
+    <hyperlink ref="C10" r:id="rId8" display="http://www.nsu.ac.kr/" xr:uid="{71DA070D-EAF1-4647-B381-DFCCEAA6C4D3}"/>
+    <hyperlink ref="C11" r:id="rId9" display="http://www.bu.ac.kr/" xr:uid="{21EE12A6-7C6F-4838-9D7D-80D6725E6F30}"/>
+    <hyperlink ref="C13" r:id="rId10" display="http://www.sunmoon.ac.kr/" xr:uid="{49477E31-A821-4685-967C-AF2B7052EB36}"/>
+    <hyperlink ref="C15" r:id="rId11" display="http://homepage.sch.ac.kr/" xr:uid="{9ED0E700-B72A-4E7C-B6CE-F7693AC7A804}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{CE6DA21F-B9FF-41DA-9A8B-23AAE653D522}"/>
+    <hyperlink ref="C20" r:id="rId13" display="http://www.chungwoon.ac.kr/" xr:uid="{03CF8217-C5A9-4863-B934-92C1EF5BDC9B}"/>
+    <hyperlink ref="C26" r:id="rId14" display="http://www.koreatech.ac.kr/" xr:uid="{E41DF2DA-6DE2-485F-8DFC-CED06C2F1098}"/>
+    <hyperlink ref="C27" r:id="rId15" display="http://www.hanseo.ac.kr/" xr:uid="{9AFFFDEA-54C6-48C1-860F-D421C864D361}"/>
+    <hyperlink ref="C28" r:id="rId16" display="http://www.hoseo.ac.kr/" xr:uid="{F103C4BE-B674-4D7C-B134-654872E854A3}"/>
+    <hyperlink ref="C21" r:id="rId17" display="http://www.cje.ac.kr/" xr:uid="{3E69B99D-81C5-4547-9750-DE5C9F0F38BF}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{4413D876-3692-4E7A-AD17-84CA9711D282}"/>
+    <hyperlink ref="C24" r:id="rId19" display="http://www.knue.ac.kr/" xr:uid="{A3627204-3B26-4EC1-9B62-57D14BDCF822}"/>
+    <hyperlink ref="C25" r:id="rId20" display="http://www.ut.ac.kr/" xr:uid="{E897C788-5F90-4BC0-ABB6-4C2CEAD90876}"/>
+    <hyperlink ref="C8" r:id="rId21" display="http://www.kdu.ac.kr/" xr:uid="{23F11355-6CC1-4B78-A20E-E7ECFAA49A00}"/>
+    <hyperlink ref="C12" r:id="rId22" display="http://www.seowon.ac.kr/" xr:uid="{1C9A9DA8-1297-4D8E-A5C2-1FAD183E1D47}"/>
+    <hyperlink ref="C14" r:id="rId23" display="http://www.semyung.ac.kr/" xr:uid="{4B2B9B70-04F1-429F-A771-EAAE1EFDFDCB}"/>
+    <hyperlink ref="C19" r:id="rId24" display="http://www.jwu.ac.kr/" xr:uid="{28DEF722-AB68-4DFE-9A23-8F0AE5369E09}"/>
+    <hyperlink ref="C22" r:id="rId25" display="http://www.cju.ac.kr/" xr:uid="{FEB98CBE-D39F-4E61-BB96-3CD746E9DDD3}"/>
+    <hyperlink ref="C17" r:id="rId26" display="http://www.u1.ac.kr/" xr:uid="{03CFEACE-FB57-4AA6-AD20-0D3C49AAF865}"/>
+    <hyperlink ref="C16" r:id="rId27" display="http://www.shinsung.ac.kr/" xr:uid="{0D83345F-2924-434C-AEAF-6A5CA333BE60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11617,7 +11639,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11630,158 +11652,158 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -11808,7 +11830,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11821,257 +11843,257 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -12080,20 +12102,20 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.ikw.ac.kr/" xr:uid="{9FD41932-CEC2-4F0D-A3C4-DECE9BF787C8}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://www.kiu.ac.kr/" xr:uid="{EF0DE3B1-9C30-4F6E-AA98-DFC59262B51B}"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://www.gu.ac.kr/" xr:uid="{E258A18D-E52E-4DBC-B30D-08ACA2AC8A6A}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://www.kumoh.ac.kr/" xr:uid="{3F036875-49A8-4183-B5DB-6390D450F7B1}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://www.gimcheon.ac.kr/" xr:uid="{C4A136A4-09F0-4BB9-9E5B-BB119C641B9F}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://www.dgau.ac.kr/" xr:uid="{0D0B1CD3-DDA0-4BBA-A721-B8E000171FEE}"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=370&amp;py=295&amp;sx=370&amp;sy=295&amp;p=UozgfwprvTosssk7LRNssssssjC-491499&amp;q=%EB%8C%80%EC%8B%A0%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=rg2FV5iyoxqYeyg973XyCG9B&amp;time=1586287439509&amp;bt=16&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000974BE&amp;u=http%3A%2F%2Fwww.daeshin.ac.kr%2F&amp;cr=1" xr:uid="{5EDEB58D-AD4A-4A89-8F83-68B77365285A}"/>
-    <hyperlink ref="C9" r:id="rId8" display="http://www.andong.ac.kr/" xr:uid="{9C87AB51-3598-4724-B4CC-D6816BB2277E}"/>
-    <hyperlink ref="C10" r:id="rId9" display="http://www.yu.ac.kr/" xr:uid="{0D227FFF-2903-43BE-B70D-AA2FF76DB491}"/>
-    <hyperlink ref="C11" r:id="rId10" display="http://www.uu.ac.kr/" xr:uid="{AA271444-2ACE-4396-83B1-AE8AE7DF518D}"/>
-    <hyperlink ref="C12" r:id="rId11" display="http://www.postech.ac.kr/" xr:uid="{DC34F963-B240-4AD4-A1E3-6B4B95F38535}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{2E9D1A22-D88E-4EBA-A41C-9FB9EB463124}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{170CC19A-CFBF-4E4E-B2C1-89454399CDE6}"/>
-    <hyperlink ref="C15" r:id="rId14" display="http://www.dhu.ac.kr/" xr:uid="{5A7E45DC-B0B1-4D05-9876-391C75F51631}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.ikw.ac.kr/" xr:uid="{6E7BB495-1A6B-4067-B86E-BAE312D5D9C8}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://www.kiu.ac.kr/" xr:uid="{ADADAD05-1DF7-49CE-9706-348A6BC4E914}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://www.gu.ac.kr/" xr:uid="{FB817559-3844-44E3-9C3D-3B8824E1175C}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://www.kumoh.ac.kr/" xr:uid="{59DFDD52-A723-43AE-87B8-6F48934CEDE2}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.gimcheon.ac.kr/" xr:uid="{AFE4F0A5-8F87-47AA-9B72-34795B0C7FFB}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://www.dgau.ac.kr/" xr:uid="{57F2CF41-8411-4A8F-AA0F-01024D8DDE8A}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://search.naver.com/p/crd/rd?m=1&amp;px=370&amp;py=295&amp;sx=370&amp;sy=295&amp;p=UozgfwprvTosssk7LRNssssssjC-491499&amp;q=%EB%8C%80%EC%8B%A0%EB%8C%80&amp;ie=utf8&amp;rev=1&amp;ssc=tab.nx.all&amp;f=nexearch&amp;w=nexearch&amp;s=rg2FV5iyoxqYeyg973XyCG9B&amp;time=1586287439509&amp;bt=16&amp;a=nco_x0k*u.title&amp;r=1&amp;i=0000000f_0000000974BE&amp;u=http%3A%2F%2Fwww.daeshin.ac.kr%2F&amp;cr=1" xr:uid="{0740D160-14D7-4E33-9771-DE28797F8FAC}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://www.andong.ac.kr/" xr:uid="{81D19C63-82F5-44C4-B37D-9793C3E1CBE9}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://www.yu.ac.kr/" xr:uid="{96B0828D-777F-4BDA-A88A-1480442044D7}"/>
+    <hyperlink ref="C11" r:id="rId10" display="http://www.uu.ac.kr/" xr:uid="{66586910-75B6-4A26-98E6-1A62D353EB54}"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://www.postech.ac.kr/" xr:uid="{806FB616-2659-4A7A-8522-43D67832662B}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{53CC1354-F050-4EC0-B8A6-EC46C289E790}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{D5FA6E88-1A7A-4D0B-8E88-2FC79F669B52}"/>
+    <hyperlink ref="C15" r:id="rId14" display="http://www.dhu.ac.kr/" xr:uid="{3996E5AF-636C-49BD-B60E-F2FCB753DD6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799C5E7-5F96-4061-84AE-3424A6B303ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B93AFE7-68B0-4C32-B5B8-7B5265479D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="4245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="502">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4413,10 +4413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 19일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.anyang.ac.kr/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4459,10 +4455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6월 15일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4471,7 +4463,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.13 16시</t>
+    <t>05.14 17시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4885,7 +4877,7 @@
   <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6741,7 +6733,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7149,7 +7141,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7574,7 +7566,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7714,9 +7706,6 @@
       <c r="D8" t="s">
         <v>388</v>
       </c>
-      <c r="E8" t="s">
-        <v>462</v>
-      </c>
       <c r="F8" t="s">
         <v>485</v>
       </c>
@@ -7733,9 +7722,6 @@
       </c>
       <c r="D9" t="s">
         <v>388</v>
-      </c>
-      <c r="E9" t="s">
-        <v>462</v>
       </c>
       <c r="F9" t="s">
         <v>485</v>
@@ -7781,7 +7767,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7825,9 +7811,6 @@
       <c r="D2" t="s">
         <v>388</v>
       </c>
-      <c r="E2" t="s">
-        <v>462</v>
-      </c>
       <c r="F2" t="s">
         <v>485</v>
       </c>
@@ -7933,16 +7916,16 @@
         <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>382</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" t="s">
-        <v>485</v>
+        <v>387</v>
+      </c>
+      <c r="E9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8037,13 +8020,16 @@
         <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>483</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D16" t="s">
         <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>462</v>
       </c>
       <c r="F16" t="s">
         <v>485</v>
@@ -8080,7 +8066,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8243,16 +8229,13 @@
         <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>456</v>
       </c>
       <c r="D10" t="s">
         <v>489</v>
-      </c>
-      <c r="E10" t="s">
-        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>485</v>
@@ -8266,7 +8249,7 @@
         <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D11" t="s">
         <v>388</v>
@@ -8280,7 +8263,7 @@
         <v>384</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
         <v>387</v>
@@ -8370,7 +8353,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8483,7 +8466,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8558,10 +8541,10 @@
         <v>158</v>
       </c>
       <c r="I2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" t="s">
         <v>497</v>
-      </c>
-      <c r="J2" t="s">
-        <v>498</v>
       </c>
       <c r="K2" t="s">
         <v>486</v>
@@ -8572,7 +8555,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8580,11 +8563,11 @@
       </c>
       <c r="D3">
         <f>SUM(D$4:D$16)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
@@ -8596,15 +8579,15 @@
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:K3" si="0">SUM(I$4:I$16)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
@@ -8617,7 +8600,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8662,7 +8645,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8674,7 +8657,7 @@
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
@@ -8686,7 +8669,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <f>COUNTIFS('경기, 인천'!$D$2:$D$34,"오프라인",'경기, 인천'!$F$2:$F$34,"")</f>
@@ -8694,11 +8677,11 @@
       </c>
       <c r="J5">
         <f>C5-I5-K5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <f>COUNTIF('경기, 인천'!$F$2:$F$34,"O")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -8707,7 +8690,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8752,7 +8735,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8797,7 +8780,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8809,7 +8792,7 @@
       </c>
       <c r="E8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!F$2)</f>
@@ -8821,7 +8804,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!H$2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <f>COUNTIFS(충청!$D$2:$D$28,"오프라인",충청!$F$2:$F$28,"")</f>
@@ -8842,7 +8825,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8887,7 +8870,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8932,7 +8915,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8977,7 +8960,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9022,7 +9005,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9067,7 +9050,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9075,7 +9058,7 @@
       </c>
       <c r="D14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!D$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
@@ -9091,11 +9074,11 @@
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <f>COUNTIFS(전남!$D$2:$D$16,"오프라인",전남!$F$2:$F$16,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -9103,7 +9086,7 @@
       </c>
       <c r="K14">
         <f>COUNTIFS(전남!$F$2:$F$16,"O")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -9112,7 +9095,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9157,7 +9140,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.13 16시</v>
+        <v>05.14 17시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9213,7 +9196,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9292,9 +9275,6 @@
       <c r="D4" t="s">
         <v>158</v>
       </c>
-      <c r="E4" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9642,9 +9622,6 @@
       </c>
       <c r="D25" t="s">
         <v>157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>462</v>
       </c>
       <c r="F25" t="s">
         <v>485</v>
@@ -9990,8 +9967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10194,13 +10171,19 @@
         <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -10259,7 +10242,7 @@
         <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
         <v>157</v>
@@ -10290,7 +10273,7 @@
         <v>384</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D18" t="s">
         <v>387</v>
@@ -10425,9 +10408,6 @@
       <c r="D26" t="s">
         <v>489</v>
       </c>
-      <c r="E26" t="s">
-        <v>462</v>
-      </c>
       <c r="F26" t="s">
         <v>485</v>
       </c>
@@ -10444,9 +10424,6 @@
       </c>
       <c r="D27" t="s">
         <v>388</v>
-      </c>
-      <c r="E27" t="s">
-        <v>462</v>
       </c>
       <c r="F27" t="s">
         <v>485</v>
@@ -10630,7 +10607,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10792,9 +10769,6 @@
       </c>
       <c r="D9" t="s">
         <v>388</v>
-      </c>
-      <c r="E9" t="s">
-        <v>462</v>
       </c>
       <c r="F9" t="s">
         <v>485</v>
@@ -10824,7 +10798,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10976,16 +10950,13 @@
         <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" t="s">
-        <v>462</v>
       </c>
       <c r="F9" t="s">
         <v>485</v>
@@ -11106,7 +11077,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11241,13 +11212,16 @@
         <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11297,9 +11271,6 @@
       <c r="D11" t="s">
         <v>158</v>
       </c>
-      <c r="E11" t="s">
-        <v>462</v>
-      </c>
       <c r="F11" t="s">
         <v>485</v>
       </c>
@@ -11317,9 +11288,6 @@
       <c r="D12" t="s">
         <v>388</v>
       </c>
-      <c r="E12" t="s">
-        <v>500</v>
-      </c>
       <c r="F12" t="s">
         <v>485</v>
       </c>
@@ -11353,9 +11321,6 @@
       </c>
       <c r="D14" t="s">
         <v>388</v>
-      </c>
-      <c r="E14" t="s">
-        <v>462</v>
       </c>
       <c r="F14" t="s">
         <v>485</v>
@@ -11639,7 +11604,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11830,7 +11795,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11968,7 +11933,7 @@
         <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>398</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B93AFE7-68B0-4C32-B5B8-7B5265479D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0722B2-72CE-450D-84E2-9E7D00E45A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="502">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4463,7 +4463,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.14 17시</t>
+    <t>05.15 19시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6733,7 +6733,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7141,7 +7141,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7767,7 +7767,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7924,9 +7924,6 @@
       <c r="D9" t="s">
         <v>387</v>
       </c>
-      <c r="E9" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8027,9 +8024,6 @@
       </c>
       <c r="D16" t="s">
         <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>462</v>
       </c>
       <c r="F16" t="s">
         <v>485</v>
@@ -8066,7 +8060,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8353,7 +8347,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8466,7 +8460,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8600,7 +8594,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8645,7 +8639,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8690,7 +8684,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8735,7 +8729,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8780,7 +8774,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8825,7 +8819,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8870,7 +8864,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8915,7 +8909,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8960,7 +8954,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9005,7 +8999,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9050,7 +9044,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9095,7 +9089,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9140,7 +9134,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.14 17시</v>
+        <v>05.15 19시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9195,8 +9189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9967,8 +9961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10607,7 +10601,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10798,7 +10792,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11077,7 +11071,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11219,9 +11213,6 @@
       </c>
       <c r="D8" t="s">
         <v>158</v>
-      </c>
-      <c r="E8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0722B2-72CE-450D-84E2-9E7D00E45A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC49A7-83C1-47F0-A83B-A5E3BF0117FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="503">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4463,7 +4463,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.15 19시</t>
+    <t>6월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.18 15시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7141,7 +7145,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7566,7 +7570,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7767,7 +7771,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B23" sqref="B23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8060,7 +8064,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8460,7 +8464,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8549,7 +8553,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8557,7 +8561,7 @@
       </c>
       <c r="D3">
         <f>SUM(D$4:D$16)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
@@ -8565,11 +8569,11 @@
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
@@ -8577,15 +8581,15 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:K3" si="0">SUM(I$4:I$16)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -8594,7 +8598,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8639,7 +8643,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8647,7 +8651,7 @@
       </c>
       <c r="D5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!D$2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
@@ -8655,11 +8659,11 @@
       </c>
       <c r="F5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!G$2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
@@ -8667,7 +8671,7 @@
       </c>
       <c r="I5">
         <f>COUNTIFS('경기, 인천'!$D$2:$D$34,"오프라인",'경기, 인천'!$F$2:$F$34,"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <f>C5-I5-K5</f>
@@ -8675,7 +8679,7 @@
       </c>
       <c r="K5">
         <f>COUNTIF('경기, 인천'!$F$2:$F$34,"O")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -8684,7 +8688,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8729,7 +8733,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8774,7 +8778,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8806,11 +8810,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <f>COUNTIF(충청!$F$2:$F$28,"O")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -8819,7 +8823,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8864,7 +8868,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8909,7 +8913,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8954,7 +8958,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -8999,7 +9003,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9044,7 +9048,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9089,7 +9093,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9134,7 +9138,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.15 19시</v>
+        <v>05.18 15시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9189,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9961,8 +9965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10117,13 +10121,19 @@
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="E9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10173,9 +10183,6 @@
       <c r="D12" t="s">
         <v>158</v>
       </c>
-      <c r="E12" t="s">
-        <v>462</v>
-      </c>
       <c r="F12" t="s">
         <v>485</v>
       </c>
@@ -10250,13 +10257,19 @@
         <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>501</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D17" t="s">
-        <v>387</v>
+        <v>489</v>
+      </c>
+      <c r="E17" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10792,7 +10805,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11071,7 +11084,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11262,8 +11275,8 @@
       <c r="D11" t="s">
         <v>158</v>
       </c>
-      <c r="F11" t="s">
-        <v>485</v>
+      <c r="E11" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11786,7 +11799,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC49A7-83C1-47F0-A83B-A5E3BF0117FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF3162-9F09-4595-BE40-2E480D757D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="503">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4467,7 +4467,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.18 15시</t>
+    <t>05.20 20시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6736,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7144,8 +7144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7238,7 +7238,7 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="F5" t="s">
         <v>485</v>
@@ -7570,7 +7570,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7771,7 +7771,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8007,13 +8007,19 @@
         <v>361</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>388</v>
+      </c>
+      <c r="E15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8464,7 +8470,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8561,19 +8567,19 @@
       </c>
       <c r="D3">
         <f>SUM(D$4:D$16)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
@@ -8585,11 +8591,11 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -8598,7 +8604,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8643,7 +8649,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8655,7 +8661,7 @@
       </c>
       <c r="E5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!E$2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!F$2)</f>
@@ -8663,7 +8669,7 @@
       </c>
       <c r="G5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!G$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <f>COUNTIF('경기, 인천'!$D$2:$D$34,통계!H$2)</f>
@@ -8688,7 +8694,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8704,11 +8710,11 @@
       </c>
       <c r="F6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!F$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!G$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f>COUNTIF(강원!$D$2:$D$9,통계!H$2)</f>
@@ -8733,7 +8739,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8778,7 +8784,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8823,7 +8829,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8868,7 +8874,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8913,7 +8919,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8958,7 +8964,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -8966,11 +8972,11 @@
       </c>
       <c r="D12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!D$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f>COUNTIF(부산!$D$2:$D$22,통계!F$2)</f>
@@ -9003,7 +9009,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9048,7 +9054,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9060,7 +9066,7 @@
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
@@ -9068,7 +9074,7 @@
       </c>
       <c r="G14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!G$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
@@ -9080,11 +9086,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <f>COUNTIFS(전남!$F$2:$F$16,"O")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -9093,7 +9099,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9138,7 +9144,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.18 15시</v>
+        <v>05.20 20시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9193,8 +9199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9965,7 +9971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -10002,13 +10008,16 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>388</v>
+      </c>
+      <c r="E2" t="s">
+        <v>462</v>
       </c>
       <c r="F2" t="s">
         <v>485</v>
@@ -10087,13 +10096,16 @@
         <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>462</v>
       </c>
       <c r="F7" t="s">
         <v>485</v>
@@ -10129,9 +10141,6 @@
       <c r="D9" t="s">
         <v>388</v>
       </c>
-      <c r="E9" t="s">
-        <v>462</v>
-      </c>
       <c r="F9" t="s">
         <v>485</v>
       </c>
@@ -10264,9 +10273,6 @@
       </c>
       <c r="D17" t="s">
         <v>489</v>
-      </c>
-      <c r="E17" t="s">
-        <v>462</v>
       </c>
       <c r="F17" t="s">
         <v>485</v>
@@ -10614,7 +10620,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10667,13 +10673,16 @@
         <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>388</v>
+      </c>
+      <c r="E3" t="s">
+        <v>462</v>
       </c>
       <c r="F3" t="s">
         <v>485</v>
@@ -11083,8 +11092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11274,9 +11283,6 @@
       </c>
       <c r="D11" t="s">
         <v>158</v>
-      </c>
-      <c r="E11" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF3162-9F09-4595-BE40-2E480D757D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB53DC48-4AF9-4848-BA05-1937A11777DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="502">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4071,10 +4071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여주대학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4467,7 +4463,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.20 20시</t>
+    <t>05.21 15시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5196,7 +5192,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" t="s">
         <v>162</v>
@@ -5348,7 +5344,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s">
         <v>166</v>
@@ -6765,7 +6761,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6782,7 +6778,7 @@
         <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6799,7 +6795,7 @@
         <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6830,7 +6826,7 @@
         <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6847,7 +6843,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6855,7 +6851,7 @@
         <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
@@ -6878,7 +6874,7 @@
         <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6889,13 +6885,13 @@
         <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6926,7 +6922,7 @@
         <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,7 +6939,7 @@
         <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6974,7 +6970,7 @@
         <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6991,7 +6987,7 @@
         <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7002,7 +6998,7 @@
         <v>382</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D16" t="s">
         <v>387</v>
@@ -7022,7 +7018,7 @@
         <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7039,7 +7035,7 @@
         <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7056,7 +7052,7 @@
         <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7073,7 +7069,7 @@
         <v>388</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7090,7 +7086,7 @@
         <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7098,7 +7094,7 @@
         <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>70</v>
@@ -7144,7 +7140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -7173,7 +7169,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7190,7 +7186,7 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7207,7 +7203,7 @@
         <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7224,7 +7220,7 @@
         <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7241,7 +7237,7 @@
         <v>387</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7258,7 +7254,7 @@
         <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7275,7 +7271,7 @@
         <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7292,7 +7288,7 @@
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7309,7 +7305,7 @@
         <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7326,7 +7322,7 @@
         <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7343,7 +7339,7 @@
         <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7360,7 +7356,7 @@
         <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7377,7 +7373,7 @@
         <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7394,7 +7390,7 @@
         <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7425,7 +7421,7 @@
         <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7442,7 +7438,7 @@
         <v>388</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7459,7 +7455,7 @@
         <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7476,7 +7472,7 @@
         <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7493,7 +7489,7 @@
         <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7510,7 +7506,7 @@
         <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7527,7 +7523,7 @@
         <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7598,7 +7594,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7615,7 +7611,7 @@
         <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7646,7 +7642,7 @@
         <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7677,7 +7673,7 @@
         <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7694,7 +7690,7 @@
         <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7711,7 +7707,7 @@
         <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7722,13 +7718,13 @@
         <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
         <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7771,7 +7767,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7799,7 +7795,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7816,7 +7812,7 @@
         <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7827,13 +7823,13 @@
         <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
         <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7864,7 +7860,7 @@
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7895,7 +7891,7 @@
         <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7912,7 +7908,7 @@
         <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7951,13 +7947,13 @@
         <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D11" t="s">
         <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7965,10 +7961,10 @@
         <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D12" t="s">
         <v>155</v>
@@ -8015,11 +8011,8 @@
       <c r="D15" t="s">
         <v>388</v>
       </c>
-      <c r="E15" t="s">
-        <v>462</v>
-      </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8027,16 +8020,16 @@
         <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D16" t="s">
         <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8098,7 +8091,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8109,7 +8102,7 @@
         <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
         <v>157</v>
@@ -8129,7 +8122,7 @@
         <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8140,13 +8133,13 @@
         <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D4" t="s">
         <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8163,7 +8156,7 @@
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8174,13 +8167,13 @@
         <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
         <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8188,13 +8181,13 @@
         <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8219,13 +8212,13 @@
         <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
         <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8233,16 +8226,16 @@
         <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8253,7 +8246,7 @@
         <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D11" t="s">
         <v>388</v>
@@ -8267,13 +8260,13 @@
         <v>384</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D12" t="s">
         <v>387</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -8290,7 +8283,7 @@
         <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8301,13 +8294,13 @@
         <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D14" t="s">
         <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8318,13 +8311,13 @@
         <v>388</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
         <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8385,7 +8378,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8402,7 +8395,7 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8413,13 +8406,13 @@
         <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8470,7 +8463,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8536,7 +8529,7 @@
         <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G2" t="s">
         <v>176</v>
@@ -8545,13 +8538,13 @@
         <v>158</v>
       </c>
       <c r="I2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J2" t="s">
         <v>496</v>
       </c>
-      <c r="J2" t="s">
-        <v>497</v>
-      </c>
       <c r="K2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -8559,7 +8552,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8604,7 +8597,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8649,7 +8642,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8694,7 +8687,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8739,7 +8732,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8784,7 +8777,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8829,7 +8822,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8874,7 +8867,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8919,7 +8912,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8964,7 +8957,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9009,7 +9002,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9054,7 +9047,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9099,7 +9092,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9144,7 +9137,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.20 20시</v>
+        <v>05.21 15시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9185,7 +9178,7 @@
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -9199,8 +9192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9229,7 +9222,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9246,7 +9239,7 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9263,7 +9256,7 @@
         <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9294,7 +9287,7 @@
         <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9311,7 +9304,7 @@
         <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9328,7 +9321,7 @@
         <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -9345,7 +9338,7 @@
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9376,7 +9369,7 @@
         <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9393,7 +9386,7 @@
         <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9410,7 +9403,7 @@
         <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9427,7 +9420,7 @@
         <v>176</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9444,7 +9437,7 @@
         <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -9461,7 +9454,7 @@
         <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9478,7 +9471,7 @@
         <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9495,7 +9488,7 @@
         <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -9506,13 +9499,13 @@
         <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D18" t="s">
         <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9529,7 +9522,7 @@
         <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9560,7 +9553,7 @@
         <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9577,7 +9570,7 @@
         <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -9594,7 +9587,7 @@
         <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -9611,7 +9604,7 @@
         <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9628,7 +9621,7 @@
         <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9673,7 +9666,7 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9690,7 +9683,7 @@
         <v>388</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9707,7 +9700,7 @@
         <v>388</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -9724,7 +9717,7 @@
         <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9741,7 +9734,7 @@
         <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9758,7 +9751,7 @@
         <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9775,7 +9768,7 @@
         <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9792,7 +9785,7 @@
         <v>388</v>
       </c>
       <c r="F35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9809,7 +9802,7 @@
         <v>176</v>
       </c>
       <c r="F36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9826,7 +9819,7 @@
         <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,24 +9836,24 @@
         <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" t="s">
         <v>158</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D39" t="s">
         <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -9877,7 +9870,7 @@
         <v>388</v>
       </c>
       <c r="F40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -9894,7 +9887,7 @@
         <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -9911,7 +9904,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9971,7 +9964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -10000,7 +9993,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10016,11 +10009,8 @@
       <c r="D2" t="s">
         <v>388</v>
       </c>
-      <c r="E2" t="s">
-        <v>462</v>
-      </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10037,7 +10027,7 @@
         <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10054,7 +10044,7 @@
         <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10071,7 +10061,7 @@
         <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10088,7 +10078,7 @@
         <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10104,11 +10094,8 @@
       <c r="D7" t="s">
         <v>388</v>
       </c>
-      <c r="E7" t="s">
-        <v>462</v>
-      </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10125,7 +10112,7 @@
         <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10142,7 +10129,7 @@
         <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10159,7 +10146,7 @@
         <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -10176,7 +10163,7 @@
         <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10193,7 +10180,7 @@
         <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -10210,7 +10197,7 @@
         <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10241,7 +10228,7 @@
         <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10252,30 +10239,30 @@
         <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D16" t="s">
         <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B17" t="s">
-        <v>501</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="D17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10286,7 +10273,7 @@
         <v>384</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D18" t="s">
         <v>387</v>
@@ -10306,7 +10293,7 @@
         <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10323,7 +10310,7 @@
         <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10340,7 +10327,7 @@
         <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10357,7 +10344,7 @@
         <v>388</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -10374,7 +10361,7 @@
         <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -10405,7 +10392,7 @@
         <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10413,16 +10400,16 @@
         <v>417</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>430</v>
       </c>
       <c r="D26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -10433,13 +10420,13 @@
         <v>388</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D27" t="s">
         <v>388</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -10456,7 +10443,7 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10473,7 +10460,7 @@
         <v>387</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -10490,7 +10477,7 @@
         <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -10507,7 +10494,7 @@
         <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -10538,7 +10525,7 @@
         <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10555,7 +10542,7 @@
         <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10620,7 +10607,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10648,7 +10635,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10665,7 +10652,7 @@
         <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10681,11 +10668,8 @@
       <c r="D3" t="s">
         <v>388</v>
       </c>
-      <c r="E3" t="s">
-        <v>462</v>
-      </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10702,7 +10686,7 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10719,7 +10703,7 @@
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10736,7 +10720,7 @@
         <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10753,7 +10737,7 @@
         <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10770,7 +10754,7 @@
         <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10787,7 +10771,7 @@
         <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -10842,7 +10826,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10859,7 +10843,7 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10876,7 +10860,7 @@
         <v>387</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10893,7 +10877,7 @@
         <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10924,7 +10908,7 @@
         <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10941,7 +10925,7 @@
         <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10958,7 +10942,7 @@
         <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10966,7 +10950,7 @@
         <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -10975,7 +10959,7 @@
         <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10992,7 +10976,7 @@
         <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11009,7 +10993,7 @@
         <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11040,7 +11024,7 @@
         <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11057,7 +11041,7 @@
         <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11121,7 +11105,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11138,7 +11122,7 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11155,7 +11139,7 @@
         <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11172,7 +11156,7 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11183,13 +11167,13 @@
         <v>388</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11206,7 +11190,7 @@
         <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11242,16 +11226,16 @@
         <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11268,7 +11252,7 @@
         <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11299,7 +11283,7 @@
         <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -11316,7 +11300,7 @@
         <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11333,7 +11317,7 @@
         <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11350,7 +11334,7 @@
         <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11367,7 +11351,7 @@
         <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11378,13 +11362,13 @@
         <v>388</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D17" t="s">
         <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11401,7 +11385,7 @@
         <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11418,7 +11402,7 @@
         <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11435,7 +11419,7 @@
         <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11466,7 +11450,7 @@
         <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11483,7 +11467,7 @@
         <v>388</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11500,7 +11484,7 @@
         <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11517,7 +11501,7 @@
         <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11534,7 +11518,7 @@
         <v>388</v>
       </c>
       <c r="F26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11551,7 +11535,7 @@
         <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11568,7 +11552,7 @@
         <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -11642,7 +11626,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,7 +11643,7 @@
         <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11676,7 +11660,7 @@
         <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11693,7 +11677,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11710,7 +11694,7 @@
         <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11727,7 +11711,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11744,7 +11728,7 @@
         <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11761,7 +11745,7 @@
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11778,7 +11762,7 @@
         <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -11833,7 +11817,7 @@
         <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11850,7 +11834,7 @@
         <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11867,7 +11851,7 @@
         <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11884,7 +11868,7 @@
         <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11901,7 +11885,7 @@
         <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11918,7 +11902,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11929,13 +11913,13 @@
         <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
         <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11943,16 +11927,16 @@
         <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11969,7 +11953,7 @@
         <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11986,7 +11970,7 @@
         <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12003,7 +11987,7 @@
         <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -12020,7 +12004,7 @@
         <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12037,7 +12021,7 @@
         <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12068,7 +12052,7 @@
         <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB53DC48-4AF9-4848-BA05-1937A11777DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754A2F9-AB32-4EE9-8401-40FE14F31783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="6915" yWindow="2400" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="503">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4463,7 +4463,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.21 15시</t>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.22 18시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6732,7 +6736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -6851,13 +6855,16 @@
         <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7140,7 +7147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -7566,7 +7573,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7732,13 +7739,19 @@
         <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="E10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F10" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7767,7 +7780,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8020,13 +8033,16 @@
         <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>474</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>501</v>
       </c>
       <c r="F16" t="s">
         <v>484</v>
@@ -8181,13 +8197,19 @@
         <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8201,7 +8223,7 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8463,7 +8485,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8552,7 +8574,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8564,19 +8586,19 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>SUM(G$4:G$16)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:K3" si="0">SUM(I$4:I$16)</f>
@@ -8584,11 +8606,11 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -8597,7 +8619,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8642,7 +8664,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8687,7 +8709,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8732,7 +8754,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8777,7 +8799,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8793,11 +8815,11 @@
       </c>
       <c r="F8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!F$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!G$2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <f>COUNTIF(충청!$D$2:$D$28,통계!H$2)</f>
@@ -8822,7 +8844,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8867,7 +8889,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8912,7 +8934,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8924,7 +8946,7 @@
       </c>
       <c r="E11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!F$2)</f>
@@ -8932,7 +8954,7 @@
       </c>
       <c r="G11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!G$2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <f>COUNTIF(경남!$D$2:$D$22,통계!H$2)</f>
@@ -8957,7 +8979,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9002,7 +9024,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9010,7 +9032,7 @@
       </c>
       <c r="D13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!D$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!E$2)</f>
@@ -9022,7 +9044,7 @@
       </c>
       <c r="G13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!G$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <f>COUNTIF(전북!$D$2:$D$10,통계!H$2)</f>
@@ -9030,7 +9052,7 @@
       </c>
       <c r="I13">
         <f>COUNTIFS(전북!$D$2:$D$10,"오프라인",전북!$F$2:$F$10,"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -9038,7 +9060,7 @@
       </c>
       <c r="K13">
         <f>COUNTIFS(전북!$F$2:$F$10,"O")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -9047,7 +9069,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9059,7 +9081,7 @@
       </c>
       <c r="E14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!E$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!F$2)</f>
@@ -9071,7 +9093,7 @@
       </c>
       <c r="H14">
         <f>COUNTIF(전남!$D$2:$D$16,통계!H$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <f>COUNTIFS(전남!$D$2:$D$16,"오프라인",전남!$F$2:$F$16,"")</f>
@@ -9092,7 +9114,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9100,19 +9122,19 @@
       </c>
       <c r="D15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!D$2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!F$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!G$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <f>COUNTIF(광주!$D$2:$D$15,통계!H$2)</f>
@@ -9120,15 +9142,15 @@
       </c>
       <c r="I15">
         <f>COUNTIFS(광주!$D$2:$D$15,"오프라인",광주!$F$2:$F$15,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <f>COUNTIFS(광주!$F$2:$F$15,"O")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -9137,7 +9159,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.21 15시</v>
+        <v>05.22 18시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9192,8 +9214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9964,7 +9986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -11076,8 +11098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11226,13 +11248,16 @@
         <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>388</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>388</v>
+      </c>
+      <c r="E9" t="s">
+        <v>501</v>
       </c>
       <c r="F9" t="s">
         <v>484</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\2GLOO\개강알리미\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754A2F9-AB32-4EE9-8401-40FE14F31783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FBFC1-19B2-48EF-9D6C-1CC863393D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="2400" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="502">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4447,10 +4447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 27일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6월 15일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4467,7 +4463,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05.22 18시</t>
+    <t>05.28 14시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6736,8 +6732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA4F5-5ACC-4D13-A788-B13A365486C6}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6862,9 +6858,6 @@
       </c>
       <c r="D7" t="s">
         <v>388</v>
-      </c>
-      <c r="E7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7147,8 +7140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B3199B-4EDF-4311-AE10-637EAC2947CC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7748,7 +7741,7 @@
         <v>388</v>
       </c>
       <c r="E10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F10" t="s">
         <v>484</v>
@@ -7780,7 +7773,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8042,7 +8035,7 @@
         <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
         <v>484</v>
@@ -8079,7 +8072,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8205,9 +8198,6 @@
       <c r="D7" t="s">
         <v>388</v>
       </c>
-      <c r="E7" t="s">
-        <v>501</v>
-      </c>
       <c r="F7" t="s">
         <v>484</v>
       </c>
@@ -8248,7 +8238,7 @@
         <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>456</v>
@@ -8282,7 +8272,7 @@
         <v>384</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D12" t="s">
         <v>387</v>
@@ -8485,7 +8475,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8574,7 +8564,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8586,7 +8576,7 @@
       </c>
       <c r="E3">
         <f>SUM(E$4:E$16)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f>SUM(F$4:F$16)</f>
@@ -8598,7 +8588,7 @@
       </c>
       <c r="H3">
         <f>SUM(H$4:H$16)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:K3" si="0">SUM(I$4:I$16)</f>
@@ -8619,7 +8609,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8664,7 +8654,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8709,7 +8699,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8754,7 +8744,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8766,7 +8756,7 @@
       </c>
       <c r="E7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!E$2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!F$2)</f>
@@ -8778,7 +8768,7 @@
       </c>
       <c r="H7">
         <f>COUNTIF(대전!$D$2:$D$14,통계!H$2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <f>COUNTIFS(대전!$D$2:$D$14,"오프라인",대전!$F$2:$F$14,"")</f>
@@ -8799,7 +8789,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8844,7 +8834,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8889,7 +8879,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8934,7 +8924,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8979,7 +8969,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9024,7 +9014,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9069,7 +9059,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9114,7 +9104,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9159,7 +9149,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.22 18시</v>
+        <v>05.28 14시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9215,7 +9205,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9986,8 +9976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10275,7 +10265,7 @@
         <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>463</v>
@@ -10820,7 +10810,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10972,13 +10962,16 @@
         <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>500</v>
       </c>
       <c r="F9" t="s">
         <v>484</v>
@@ -11098,8 +11091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11255,9 +11248,6 @@
       </c>
       <c r="D9" t="s">
         <v>388</v>
-      </c>
-      <c r="E9" t="s">
-        <v>501</v>
       </c>
       <c r="F9" t="s">
         <v>484</v>
@@ -11814,7 +11804,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FBFC1-19B2-48EF-9D6C-1CC863393D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BD6E6-9583-4976-8BB8-A0138043669B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
+    <workbookView xWindow="1290" yWindow="4095" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{5DBCA83A-8C7D-45A3-A73F-FCC160C32660}"/>
   </bookViews>
   <sheets>
     <sheet name="학교리스트" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="501">
   <si>
     <t>http://www.gachon.ac.kr/</t>
   </si>
@@ -4459,11 +4459,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.28 14시</t>
+    <t>06.05 18시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6733,7 +6729,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7141,7 +7137,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7566,7 +7562,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7739,9 +7735,6 @@
       </c>
       <c r="D10" t="s">
         <v>388</v>
-      </c>
-      <c r="E10" t="s">
-        <v>500</v>
       </c>
       <c r="F10" t="s">
         <v>484</v>
@@ -7773,7 +7766,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8033,9 +8026,6 @@
       </c>
       <c r="D16" t="s">
         <v>158</v>
-      </c>
-      <c r="E16" t="s">
-        <v>500</v>
       </c>
       <c r="F16" t="s">
         <v>484</v>
@@ -8072,7 +8062,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8362,7 +8352,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8474,8 +8464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F142D-236F-48EE-8C10-391C6E87FAD8}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8564,7 +8554,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <f>SUM(C4:C16)</f>
@@ -8609,7 +8599,7 @@
       </c>
       <c r="B4" t="str">
         <f>($B$3)</f>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C4">
         <f>SUM(D4:H4)</f>
@@ -8654,7 +8644,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B16" si="1">($B$3)</f>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C16" si="2">SUM(D5:H5)</f>
@@ -8699,7 +8689,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -8744,7 +8734,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -8789,7 +8779,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -8834,7 +8824,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -8879,7 +8869,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -8924,7 +8914,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -8969,7 +8959,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -9014,7 +9004,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -9059,7 +9049,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -9104,7 +9094,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -9149,7 +9139,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>05.28 14시</v>
+        <v>06.05 18시</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -9204,8 +9194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBEF3A-7E33-4B98-9FDC-146AF1511654}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9976,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14966392-F35B-4FF7-9489-E4BBB1F6ADA2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10618,7 +10608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF74F4-3890-4AC5-9177-01D64768D9F8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -10810,7 +10800,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E8" sqref="E8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10969,9 +10959,6 @@
       </c>
       <c r="D9" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" t="s">
-        <v>500</v>
       </c>
       <c r="F9" t="s">
         <v>484</v>
@@ -11091,7 +11078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A28DFB-5F74-4A6E-B9D6-BD5381004AC6}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
@@ -11804,7 +11791,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
